--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42643</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42277</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41912</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41547</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41182</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40816</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1900</v>
+        <v>12900</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>54000</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>59500</v>
+        <v>52700</v>
       </c>
       <c r="I8" s="3">
-        <v>69100</v>
+        <v>58100</v>
       </c>
       <c r="J8" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K8" s="3">
         <v>79200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>84200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>37900</v>
-      </c>
       <c r="H9" s="3">
-        <v>43200</v>
+        <v>37000</v>
       </c>
       <c r="I9" s="3">
-        <v>45200</v>
+        <v>42100</v>
       </c>
       <c r="J9" s="3">
+        <v>44100</v>
+      </c>
+      <c r="K9" s="3">
         <v>55600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>55100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>16100</v>
-      </c>
       <c r="H10" s="3">
-        <v>16300</v>
+        <v>15700</v>
       </c>
       <c r="I10" s="3">
-        <v>23900</v>
+        <v>15900</v>
       </c>
       <c r="J10" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K10" s="3">
         <v>23600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3900</v>
+        <v>1900</v>
       </c>
       <c r="E12" s="3">
-        <v>5600</v>
+        <v>3800</v>
       </c>
       <c r="F12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J12" s="3">
         <v>5900</v>
       </c>
-      <c r="G12" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6600</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,23 +887,26 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
-        <v>6400</v>
-      </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+        <v>6300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -898,12 +917,15 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7500</v>
+        <v>21400</v>
       </c>
       <c r="E17" s="3">
-        <v>16500</v>
+        <v>7300</v>
       </c>
       <c r="F17" s="3">
-        <v>9500</v>
+        <v>16100</v>
       </c>
       <c r="G17" s="3">
-        <v>53800</v>
+        <v>9200</v>
       </c>
       <c r="H17" s="3">
-        <v>63000</v>
+        <v>52500</v>
       </c>
       <c r="I17" s="3">
-        <v>66500</v>
+        <v>61500</v>
       </c>
       <c r="J17" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K17" s="3">
         <v>79700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>82300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-5600</v>
+        <v>-8500</v>
       </c>
       <c r="E18" s="3">
-        <v>-16400</v>
+        <v>-5500</v>
       </c>
       <c r="F18" s="3">
-        <v>-9400</v>
+        <v>-16000</v>
       </c>
       <c r="G18" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-3500</v>
-      </c>
       <c r="I18" s="3">
-        <v>2600</v>
+        <v>-3400</v>
       </c>
       <c r="J18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,133 +1049,146 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-16300</v>
+        <v>-6500</v>
       </c>
       <c r="E21" s="3">
-        <v>-12200</v>
+        <v>-15900</v>
       </c>
       <c r="F21" s="3">
-        <v>-4900</v>
+        <v>-11900</v>
       </c>
       <c r="G21" s="3">
-        <v>4700</v>
+        <v>-4800</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="I21" s="3">
-        <v>7600</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K21" s="3">
         <v>3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3800</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3300</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
-        <v>2700</v>
-      </c>
       <c r="H22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-21900</v>
+        <v>-9100</v>
       </c>
       <c r="E23" s="3">
-        <v>-17500</v>
+        <v>-21400</v>
       </c>
       <c r="F23" s="3">
-        <v>-10500</v>
+        <v>-17100</v>
       </c>
       <c r="G23" s="3">
-        <v>-2400</v>
+        <v>-10200</v>
       </c>
       <c r="H23" s="3">
-        <v>-7000</v>
+        <v>-2300</v>
       </c>
       <c r="I23" s="3">
-        <v>2000</v>
+        <v>-6800</v>
       </c>
       <c r="J23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1152,23 +1197,26 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>-5500</v>
-      </c>
       <c r="I24" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-21900</v>
+        <v>-9200</v>
       </c>
       <c r="E26" s="3">
-        <v>-17500</v>
+        <v>-21400</v>
       </c>
       <c r="F26" s="3">
-        <v>-10500</v>
+        <v>-17100</v>
       </c>
       <c r="G26" s="3">
-        <v>-2600</v>
+        <v>-10200</v>
       </c>
       <c r="H26" s="3">
-        <v>-1500</v>
+        <v>-2500</v>
       </c>
       <c r="I26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-22000</v>
+        <v>-8700</v>
       </c>
       <c r="E27" s="3">
-        <v>-13100</v>
+        <v>-21500</v>
       </c>
       <c r="F27" s="3">
-        <v>-8900</v>
+        <v>-12800</v>
       </c>
       <c r="G27" s="3">
-        <v>-2000</v>
+        <v>-8600</v>
       </c>
       <c r="H27" s="3">
-        <v>-1400</v>
+        <v>-1900</v>
       </c>
       <c r="I27" s="3">
-        <v>1100</v>
+        <v>-1300</v>
       </c>
       <c r="J27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G29" s="3">
         <v>-500</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-22000</v>
+        <v>-8700</v>
       </c>
       <c r="E33" s="3">
-        <v>-11000</v>
+        <v>-21500</v>
       </c>
       <c r="F33" s="3">
-        <v>-9400</v>
+        <v>-10800</v>
       </c>
       <c r="G33" s="3">
-        <v>-2000</v>
+        <v>-9200</v>
       </c>
       <c r="H33" s="3">
-        <v>-1400</v>
+        <v>-1900</v>
       </c>
       <c r="I33" s="3">
-        <v>1100</v>
+        <v>-1300</v>
       </c>
       <c r="J33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-22000</v>
+        <v>-8700</v>
       </c>
       <c r="E35" s="3">
-        <v>-11000</v>
+        <v>-21500</v>
       </c>
       <c r="F35" s="3">
-        <v>-9400</v>
+        <v>-10800</v>
       </c>
       <c r="G35" s="3">
-        <v>-2000</v>
+        <v>-9200</v>
       </c>
       <c r="H35" s="3">
-        <v>-1400</v>
+        <v>-1900</v>
       </c>
       <c r="I35" s="3">
-        <v>1100</v>
+        <v>-1300</v>
       </c>
       <c r="J35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42643</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42277</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41912</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41547</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41182</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40816</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
-        <v>7800</v>
-      </c>
       <c r="G41" s="3">
-        <v>9500</v>
+        <v>7600</v>
       </c>
       <c r="H41" s="3">
-        <v>6600</v>
+        <v>9300</v>
       </c>
       <c r="I41" s="3">
-        <v>18900</v>
+        <v>6500</v>
       </c>
       <c r="J41" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K41" s="3">
         <v>21900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1619,129 +1708,144 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18600</v>
+        <v>5000</v>
       </c>
       <c r="E43" s="3">
-        <v>8000</v>
+        <v>18200</v>
       </c>
       <c r="F43" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9500</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>11800</v>
+        <v>4000</v>
       </c>
       <c r="E44" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="F44" s="3">
-        <v>52800</v>
-      </c>
       <c r="G44" s="3">
-        <v>63100</v>
+        <v>51600</v>
       </c>
       <c r="H44" s="3">
-        <v>74100</v>
+        <v>61600</v>
       </c>
       <c r="I44" s="3">
-        <v>67600</v>
+        <v>72400</v>
       </c>
       <c r="J44" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K44" s="3">
         <v>40500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>31300</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>4100</v>
-      </c>
       <c r="F45" s="3">
-        <v>7900</v>
+        <v>4000</v>
       </c>
       <c r="G45" s="3">
-        <v>5200</v>
+        <v>7700</v>
       </c>
       <c r="H45" s="3">
-        <v>8400</v>
+        <v>5100</v>
       </c>
       <c r="I45" s="3">
-        <v>10800</v>
+        <v>8200</v>
       </c>
       <c r="J45" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K45" s="3">
         <v>16100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15700</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>30800</v>
+        <v>9700</v>
       </c>
       <c r="E46" s="3">
-        <v>12800</v>
+        <v>30100</v>
       </c>
       <c r="F46" s="3">
-        <v>68600</v>
+        <v>12500</v>
       </c>
       <c r="G46" s="3">
-        <v>78000</v>
+        <v>67000</v>
       </c>
       <c r="H46" s="3">
-        <v>89700</v>
+        <v>76200</v>
       </c>
       <c r="I46" s="3">
-        <v>98200</v>
+        <v>87600</v>
       </c>
       <c r="J46" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K46" s="3">
         <v>80200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>75800</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1749,89 +1853,98 @@
         <v>2300</v>
       </c>
       <c r="E47" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="F47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I47" s="3">
-        <v>3600</v>
+        <v>2600</v>
       </c>
       <c r="J47" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>24800</v>
+        <v>20900</v>
       </c>
       <c r="E48" s="3">
-        <v>20800</v>
+        <v>24200</v>
       </c>
       <c r="F48" s="3">
-        <v>45000</v>
+        <v>20300</v>
       </c>
       <c r="G48" s="3">
-        <v>46600</v>
+        <v>44000</v>
       </c>
       <c r="H48" s="3">
-        <v>48600</v>
+        <v>45500</v>
       </c>
       <c r="I48" s="3">
-        <v>50900</v>
+        <v>47400</v>
       </c>
       <c r="J48" s="3">
+        <v>49700</v>
+      </c>
+      <c r="K48" s="3">
         <v>45500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3600</v>
+        <v>2600</v>
       </c>
       <c r="E49" s="3">
-        <v>4200</v>
+        <v>3500</v>
       </c>
       <c r="F49" s="3">
-        <v>9700</v>
+        <v>4100</v>
       </c>
       <c r="G49" s="3">
-        <v>10800</v>
+        <v>9500</v>
       </c>
       <c r="H49" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="I49" s="3">
-        <v>9800</v>
+        <v>11000</v>
       </c>
       <c r="J49" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K49" s="3">
         <v>10000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
-        <v>6000</v>
-      </c>
       <c r="F52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L52" s="3">
         <v>3400</v>
       </c>
-      <c r="H52" s="3">
-        <v>600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>61700</v>
+        <v>36600</v>
       </c>
       <c r="E54" s="3">
-        <v>46500</v>
+        <v>60300</v>
       </c>
       <c r="F54" s="3">
-        <v>126400</v>
+        <v>45400</v>
       </c>
       <c r="G54" s="3">
-        <v>141400</v>
+        <v>123400</v>
       </c>
       <c r="H54" s="3">
-        <v>152800</v>
+        <v>138200</v>
       </c>
       <c r="I54" s="3">
-        <v>166200</v>
+        <v>149300</v>
       </c>
       <c r="J54" s="3">
+        <v>162300</v>
+      </c>
+      <c r="K54" s="3">
         <v>140000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>121500</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,128 +2137,141 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>3500</v>
-      </c>
       <c r="G57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>6100</v>
-      </c>
       <c r="J57" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11200</v>
+        <v>11000</v>
       </c>
       <c r="E58" s="3">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="F58" s="3">
-        <v>31100</v>
+        <v>7100</v>
       </c>
       <c r="G58" s="3">
-        <v>35000</v>
+        <v>30400</v>
       </c>
       <c r="H58" s="3">
-        <v>37100</v>
+        <v>34200</v>
       </c>
       <c r="I58" s="3">
-        <v>31800</v>
+        <v>36300</v>
       </c>
       <c r="J58" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K58" s="3">
         <v>5600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48500</v>
+        <v>21300</v>
       </c>
       <c r="E59" s="3">
-        <v>11800</v>
+        <v>47400</v>
       </c>
       <c r="F59" s="3">
-        <v>53500</v>
+        <v>11500</v>
       </c>
       <c r="G59" s="3">
-        <v>52900</v>
+        <v>52300</v>
       </c>
       <c r="H59" s="3">
-        <v>60700</v>
+        <v>51600</v>
       </c>
       <c r="I59" s="3">
-        <v>70000</v>
+        <v>59300</v>
       </c>
       <c r="J59" s="3">
+        <v>68400</v>
+      </c>
+      <c r="K59" s="3">
         <v>79900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>70100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>62000</v>
+        <v>34700</v>
       </c>
       <c r="E60" s="3">
-        <v>19200</v>
+        <v>60600</v>
       </c>
       <c r="F60" s="3">
-        <v>88200</v>
+        <v>18800</v>
       </c>
       <c r="G60" s="3">
-        <v>91000</v>
+        <v>86100</v>
       </c>
       <c r="H60" s="3">
-        <v>101100</v>
+        <v>88900</v>
       </c>
       <c r="I60" s="3">
-        <v>107900</v>
+        <v>98800</v>
       </c>
       <c r="J60" s="3">
+        <v>105400</v>
+      </c>
+      <c r="K60" s="3">
         <v>86800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>79000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2137,59 +2279,65 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>8100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>2900</v>
+        <v>8000</v>
       </c>
       <c r="G61" s="3">
-        <v>5900</v>
+        <v>2800</v>
       </c>
       <c r="H61" s="3">
-        <v>4500</v>
+        <v>5700</v>
       </c>
       <c r="I61" s="3">
-        <v>9300</v>
+        <v>4300</v>
       </c>
       <c r="J61" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K61" s="3">
         <v>5000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3100</v>
+        <v>4000</v>
       </c>
       <c r="E62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>2900</v>
       </c>
       <c r="H62" s="3">
         <v>2800</v>
       </c>
       <c r="I62" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="J62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K62" s="3">
         <v>3100</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>65300</v>
+        <v>39800</v>
       </c>
       <c r="E66" s="3">
-        <v>30400</v>
+        <v>63700</v>
       </c>
       <c r="F66" s="3">
-        <v>100500</v>
+        <v>29700</v>
       </c>
       <c r="G66" s="3">
-        <v>106800</v>
+        <v>98200</v>
       </c>
       <c r="H66" s="3">
-        <v>116100</v>
+        <v>104400</v>
       </c>
       <c r="I66" s="3">
-        <v>128000</v>
+        <v>113400</v>
       </c>
       <c r="J66" s="3">
+        <v>125000</v>
+      </c>
+      <c r="K66" s="3">
         <v>102500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>83000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-59100</v>
+        <v>-66400</v>
       </c>
       <c r="E72" s="3">
-        <v>-37000</v>
+        <v>-57700</v>
       </c>
       <c r="F72" s="3">
-        <v>-26200</v>
+        <v>-36200</v>
       </c>
       <c r="G72" s="3">
-        <v>-16800</v>
+        <v>-25600</v>
       </c>
       <c r="H72" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-14800</v>
       </c>
-      <c r="I72" s="3">
-        <v>-13400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3500</v>
       </c>
-      <c r="E76" s="3">
-        <v>16100</v>
-      </c>
       <c r="F76" s="3">
-        <v>25900</v>
+        <v>15700</v>
       </c>
       <c r="G76" s="3">
-        <v>34600</v>
+        <v>25300</v>
       </c>
       <c r="H76" s="3">
-        <v>36700</v>
+        <v>33800</v>
       </c>
       <c r="I76" s="3">
-        <v>38200</v>
+        <v>35900</v>
       </c>
       <c r="J76" s="3">
+        <v>37300</v>
+      </c>
+      <c r="K76" s="3">
         <v>37500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38400</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42643</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42277</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41912</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41547</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41182</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40816</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-22000</v>
+        <v>-8700</v>
       </c>
       <c r="E81" s="3">
-        <v>-11000</v>
+        <v>-21500</v>
       </c>
       <c r="F81" s="3">
-        <v>-9400</v>
+        <v>-10800</v>
       </c>
       <c r="G81" s="3">
-        <v>-2000</v>
+        <v>-9200</v>
       </c>
       <c r="H81" s="3">
-        <v>-1400</v>
+        <v>-1900</v>
       </c>
       <c r="I81" s="3">
-        <v>1100</v>
+        <v>-1300</v>
       </c>
       <c r="J81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="E83" s="3">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="F83" s="3">
-        <v>4500</v>
+        <v>3900</v>
       </c>
       <c r="G83" s="3">
         <v>4400</v>
       </c>
       <c r="H83" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="I83" s="3">
         <v>4000</v>
       </c>
       <c r="J83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3500</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
-        <v>-17200</v>
-      </c>
       <c r="F89" s="3">
-        <v>6900</v>
+        <v>-16800</v>
       </c>
       <c r="G89" s="3">
-        <v>7500</v>
+        <v>6700</v>
       </c>
       <c r="H89" s="3">
-        <v>-12300</v>
+        <v>7300</v>
       </c>
       <c r="I89" s="3">
-        <v>-21000</v>
+        <v>-12000</v>
       </c>
       <c r="J89" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K89" s="3">
         <v>11900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2300</v>
+        <v>-400</v>
       </c>
       <c r="G91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
-        <v>-9900</v>
-      </c>
       <c r="J91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-21200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10100</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6800</v>
+        <v>1300</v>
       </c>
       <c r="E94" s="3">
-        <v>4200</v>
+        <v>6700</v>
       </c>
       <c r="F94" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
-        <v>-2900</v>
-      </c>
       <c r="H94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>-9800</v>
-      </c>
       <c r="J94" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-20600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-22900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5100</v>
+        <v>7500</v>
       </c>
       <c r="E100" s="3">
-        <v>6700</v>
+        <v>-5000</v>
       </c>
       <c r="F100" s="3">
-        <v>-7000</v>
+        <v>6600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1400</v>
+        <v>-6800</v>
       </c>
       <c r="H100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>27500</v>
-      </c>
       <c r="J100" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K100" s="3">
         <v>12000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>-7400</v>
-      </c>
       <c r="F102" s="3">
-        <v>-1700</v>
+        <v>-7200</v>
       </c>
       <c r="G102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
-        <v>-12300</v>
-      </c>
       <c r="I102" s="3">
-        <v>-3000</v>
+        <v>-12000</v>
       </c>
       <c r="J102" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K102" s="3">
         <v>3300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-25200</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -717,10 +717,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12900</v>
+        <v>13400</v>
       </c>
       <c r="E8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -729,13 +729,13 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>52700</v>
+        <v>54600</v>
       </c>
       <c r="I8" s="3">
-        <v>58100</v>
+        <v>60300</v>
       </c>
       <c r="J8" s="3">
-        <v>67400</v>
+        <v>70000</v>
       </c>
       <c r="K8" s="3">
         <v>79200</v>
@@ -750,7 +750,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>14700</v>
+        <v>15300</v>
       </c>
       <c r="E9" s="3">
         <v>1000</v>
@@ -762,13 +762,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="3">
-        <v>37000</v>
+        <v>38300</v>
       </c>
       <c r="I9" s="3">
-        <v>42100</v>
+        <v>43700</v>
       </c>
       <c r="J9" s="3">
-        <v>44100</v>
+        <v>45800</v>
       </c>
       <c r="K9" s="3">
         <v>55600</v>
@@ -783,10 +783,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E10" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -795,13 +795,13 @@
         <v>4</v>
       </c>
       <c r="H10" s="3">
-        <v>15700</v>
+        <v>16300</v>
       </c>
       <c r="I10" s="3">
-        <v>15900</v>
+        <v>16500</v>
       </c>
       <c r="J10" s="3">
-        <v>23300</v>
+        <v>24200</v>
       </c>
       <c r="K10" s="3">
         <v>23600</v>
@@ -834,22 +834,22 @@
         <v>1900</v>
       </c>
       <c r="E12" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F12" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="G12" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="I12" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="J12" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="K12" s="3">
         <v>5400</v>
@@ -900,10 +900,10 @@
         <v>600</v>
       </c>
       <c r="E14" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F14" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21400</v>
+        <v>22200</v>
       </c>
       <c r="E17" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="F17" s="3">
-        <v>16100</v>
+        <v>16700</v>
       </c>
       <c r="G17" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="H17" s="3">
-        <v>52500</v>
+        <v>54400</v>
       </c>
       <c r="I17" s="3">
-        <v>61500</v>
+        <v>63800</v>
       </c>
       <c r="J17" s="3">
-        <v>64900</v>
+        <v>67300</v>
       </c>
       <c r="K17" s="3">
         <v>79700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8500</v>
+        <v>-8800</v>
       </c>
       <c r="E18" s="3">
-        <v>-5500</v>
+        <v>-5700</v>
       </c>
       <c r="F18" s="3">
-        <v>-16000</v>
+        <v>-16600</v>
       </c>
       <c r="G18" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="H18" s="3">
         <v>200</v>
       </c>
       <c r="I18" s="3">
-        <v>-3400</v>
+        <v>-3600</v>
       </c>
       <c r="J18" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-12700</v>
+        <v>-13200</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6500</v>
+        <v>-6800</v>
       </c>
       <c r="E21" s="3">
-        <v>-15900</v>
+        <v>-16500</v>
       </c>
       <c r="F21" s="3">
-        <v>-11900</v>
+        <v>-12400</v>
       </c>
       <c r="G21" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="H21" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="K21" s="3">
         <v>3200</v>
@@ -1125,7 +1125,7 @@
         <v>700</v>
       </c>
       <c r="E22" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F22" s="3">
         <v>1300</v>
@@ -1134,10 +1134,10 @@
         <v>1100</v>
       </c>
       <c r="H22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I22" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J22" s="3">
         <v>1600</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9100</v>
+        <v>-9500</v>
       </c>
       <c r="E23" s="3">
-        <v>-21400</v>
+        <v>-22200</v>
       </c>
       <c r="F23" s="3">
-        <v>-17100</v>
+        <v>-17700</v>
       </c>
       <c r="G23" s="3">
-        <v>-10200</v>
+        <v>-10600</v>
       </c>
       <c r="H23" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="I23" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="J23" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1203,7 +1203,7 @@
         <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="J24" s="3">
         <v>600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="E26" s="3">
-        <v>-21400</v>
+        <v>-22200</v>
       </c>
       <c r="F26" s="3">
-        <v>-17100</v>
+        <v>-17700</v>
       </c>
       <c r="G26" s="3">
-        <v>-10200</v>
+        <v>-10600</v>
       </c>
       <c r="H26" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J26" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8700</v>
+        <v>-9000</v>
       </c>
       <c r="E27" s="3">
-        <v>-21500</v>
+        <v>-22300</v>
       </c>
       <c r="F27" s="3">
-        <v>-12800</v>
+        <v>-13300</v>
       </c>
       <c r="G27" s="3">
-        <v>-8600</v>
+        <v>-9000</v>
       </c>
       <c r="H27" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I27" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J27" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
@@ -1359,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G29" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>4</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>12700</v>
+        <v>13200</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8700</v>
+        <v>-9000</v>
       </c>
       <c r="E33" s="3">
-        <v>-21500</v>
+        <v>-22300</v>
       </c>
       <c r="F33" s="3">
-        <v>-10800</v>
+        <v>-11200</v>
       </c>
       <c r="G33" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="H33" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I33" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J33" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8700</v>
+        <v>-9000</v>
       </c>
       <c r="E35" s="3">
-        <v>-21500</v>
+        <v>-22300</v>
       </c>
       <c r="F35" s="3">
-        <v>-10800</v>
+        <v>-11200</v>
       </c>
       <c r="G35" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="H35" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I35" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J35" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
@@ -1652,7 +1652,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
         <v>300</v>
@@ -1661,16 +1661,16 @@
         <v>500</v>
       </c>
       <c r="G41" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="H41" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="I41" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="J41" s="3">
-        <v>18500</v>
+        <v>19200</v>
       </c>
       <c r="K41" s="3">
         <v>21900</v>
@@ -1718,13 +1718,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E43" s="3">
-        <v>18200</v>
+        <v>18800</v>
       </c>
       <c r="F43" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E44" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>51600</v>
+        <v>53500</v>
       </c>
       <c r="H44" s="3">
-        <v>61600</v>
+        <v>63800</v>
       </c>
       <c r="I44" s="3">
-        <v>72400</v>
+        <v>75000</v>
       </c>
       <c r="J44" s="3">
-        <v>66000</v>
+        <v>68400</v>
       </c>
       <c r="K44" s="3">
         <v>40500</v>
@@ -1790,19 +1790,19 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G45" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="H45" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I45" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="J45" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="K45" s="3">
         <v>16100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="E46" s="3">
-        <v>30100</v>
+        <v>31200</v>
       </c>
       <c r="F46" s="3">
-        <v>12500</v>
+        <v>12900</v>
       </c>
       <c r="G46" s="3">
-        <v>67000</v>
+        <v>69400</v>
       </c>
       <c r="H46" s="3">
-        <v>76200</v>
+        <v>79000</v>
       </c>
       <c r="I46" s="3">
-        <v>87600</v>
+        <v>90800</v>
       </c>
       <c r="J46" s="3">
-        <v>95900</v>
+        <v>99400</v>
       </c>
       <c r="K46" s="3">
         <v>80200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E47" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F47" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G47" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H47" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I47" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J47" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K47" s="3">
         <v>3200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20900</v>
+        <v>21700</v>
       </c>
       <c r="E48" s="3">
-        <v>24200</v>
+        <v>25100</v>
       </c>
       <c r="F48" s="3">
-        <v>20300</v>
+        <v>21000</v>
       </c>
       <c r="G48" s="3">
-        <v>44000</v>
+        <v>45600</v>
       </c>
       <c r="H48" s="3">
-        <v>45500</v>
+        <v>47200</v>
       </c>
       <c r="I48" s="3">
-        <v>47400</v>
+        <v>49200</v>
       </c>
       <c r="J48" s="3">
-        <v>49700</v>
+        <v>51500</v>
       </c>
       <c r="K48" s="3">
         <v>45500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E49" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="G49" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="H49" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="I49" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="J49" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="K49" s="3">
         <v>10000</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
       </c>
       <c r="F52" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
       </c>
       <c r="J52" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K52" s="3">
         <v>1000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36600</v>
+        <v>37900</v>
       </c>
       <c r="E54" s="3">
-        <v>60300</v>
+        <v>62500</v>
       </c>
       <c r="F54" s="3">
-        <v>45400</v>
+        <v>47100</v>
       </c>
       <c r="G54" s="3">
-        <v>123400</v>
+        <v>127900</v>
       </c>
       <c r="H54" s="3">
-        <v>138200</v>
+        <v>143200</v>
       </c>
       <c r="I54" s="3">
-        <v>149300</v>
+        <v>154700</v>
       </c>
       <c r="J54" s="3">
-        <v>162300</v>
+        <v>168200</v>
       </c>
       <c r="K54" s="3">
         <v>140000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E57" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H57" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="I57" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="J57" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="K57" s="3">
         <v>1300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="E58" s="3">
-        <v>11000</v>
+        <v>11400</v>
       </c>
       <c r="F58" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="G58" s="3">
-        <v>30400</v>
+        <v>31500</v>
       </c>
       <c r="H58" s="3">
-        <v>34200</v>
+        <v>35400</v>
       </c>
       <c r="I58" s="3">
-        <v>36300</v>
+        <v>37600</v>
       </c>
       <c r="J58" s="3">
-        <v>31000</v>
+        <v>32200</v>
       </c>
       <c r="K58" s="3">
         <v>5600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21300</v>
+        <v>22100</v>
       </c>
       <c r="E59" s="3">
-        <v>47400</v>
+        <v>49100</v>
       </c>
       <c r="F59" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="G59" s="3">
-        <v>52300</v>
+        <v>54200</v>
       </c>
       <c r="H59" s="3">
-        <v>51600</v>
+        <v>53500</v>
       </c>
       <c r="I59" s="3">
-        <v>59300</v>
+        <v>61500</v>
       </c>
       <c r="J59" s="3">
-        <v>68400</v>
+        <v>70900</v>
       </c>
       <c r="K59" s="3">
         <v>79900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>34700</v>
+        <v>36000</v>
       </c>
       <c r="E60" s="3">
-        <v>60600</v>
+        <v>62800</v>
       </c>
       <c r="F60" s="3">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="G60" s="3">
-        <v>86100</v>
+        <v>89200</v>
       </c>
       <c r="H60" s="3">
-        <v>88900</v>
+        <v>92100</v>
       </c>
       <c r="I60" s="3">
-        <v>98800</v>
+        <v>102300</v>
       </c>
       <c r="J60" s="3">
-        <v>105400</v>
+        <v>109200</v>
       </c>
       <c r="K60" s="3">
         <v>86800</v>
@@ -2282,19 +2282,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="G61" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H61" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="I61" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="J61" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="K61" s="3">
         <v>5000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G62" s="3">
         <v>4000</v>
       </c>
-      <c r="E62" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2900</v>
       </c>
-      <c r="G62" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2800</v>
-      </c>
       <c r="I62" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J62" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="K62" s="3">
         <v>3100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39800</v>
+        <v>41200</v>
       </c>
       <c r="E66" s="3">
-        <v>63700</v>
+        <v>66100</v>
       </c>
       <c r="F66" s="3">
-        <v>29700</v>
+        <v>30800</v>
       </c>
       <c r="G66" s="3">
-        <v>98200</v>
+        <v>101700</v>
       </c>
       <c r="H66" s="3">
-        <v>104400</v>
+        <v>108100</v>
       </c>
       <c r="I66" s="3">
-        <v>113400</v>
+        <v>117500</v>
       </c>
       <c r="J66" s="3">
-        <v>125000</v>
+        <v>129500</v>
       </c>
       <c r="K66" s="3">
         <v>102500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-66400</v>
+        <v>-68800</v>
       </c>
       <c r="E72" s="3">
-        <v>-57700</v>
+        <v>-59800</v>
       </c>
       <c r="F72" s="3">
-        <v>-36200</v>
+        <v>-37500</v>
       </c>
       <c r="G72" s="3">
-        <v>-25600</v>
+        <v>-26500</v>
       </c>
       <c r="H72" s="3">
-        <v>-16400</v>
+        <v>-17000</v>
       </c>
       <c r="I72" s="3">
-        <v>-14400</v>
+        <v>-15000</v>
       </c>
       <c r="J72" s="3">
-        <v>-13100</v>
+        <v>-13600</v>
       </c>
       <c r="K72" s="3">
         <v>-14500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="E76" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="F76" s="3">
-        <v>15700</v>
+        <v>16300</v>
       </c>
       <c r="G76" s="3">
-        <v>25300</v>
+        <v>26200</v>
       </c>
       <c r="H76" s="3">
-        <v>33800</v>
+        <v>35000</v>
       </c>
       <c r="I76" s="3">
-        <v>35900</v>
+        <v>37200</v>
       </c>
       <c r="J76" s="3">
-        <v>37300</v>
+        <v>38600</v>
       </c>
       <c r="K76" s="3">
         <v>37500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8700</v>
+        <v>-9000</v>
       </c>
       <c r="E81" s="3">
-        <v>-21500</v>
+        <v>-22300</v>
       </c>
       <c r="F81" s="3">
-        <v>-10800</v>
+        <v>-11200</v>
       </c>
       <c r="G81" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="H81" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="I81" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J81" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E83" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F83" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H83" s="3">
         <v>4400</v>
       </c>
-      <c r="H83" s="3">
-        <v>4300</v>
-      </c>
       <c r="I83" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="J83" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="K83" s="3">
         <v>2800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="E89" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="F89" s="3">
-        <v>-16800</v>
+        <v>-17500</v>
       </c>
       <c r="G89" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="H89" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="I89" s="3">
-        <v>-12000</v>
+        <v>-12400</v>
       </c>
       <c r="J89" s="3">
-        <v>-20400</v>
+        <v>-21200</v>
       </c>
       <c r="K89" s="3">
         <v>11900</v>
@@ -3160,7 +3160,7 @@
         <v>-400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="H91" s="3">
         <v>-2100</v>
@@ -3169,7 +3169,7 @@
         <v>-1500</v>
       </c>
       <c r="J91" s="3">
-        <v>-9600</v>
+        <v>-10000</v>
       </c>
       <c r="K91" s="3">
         <v>-21200</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E94" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="F94" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="G94" s="3">
         <v>-900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2800</v>
+        <v>-3000</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>-9600</v>
+        <v>-9900</v>
       </c>
       <c r="K94" s="3">
         <v>-20600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7500</v>
+        <v>7800</v>
       </c>
       <c r="E100" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="F100" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="G100" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>26800</v>
+        <v>27800</v>
       </c>
       <c r="K100" s="3">
         <v>12000</v>
@@ -3502,19 +3502,19 @@
         <v>-200</v>
       </c>
       <c r="F102" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H102" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I102" s="3">
-        <v>-12000</v>
+        <v>-12400</v>
       </c>
       <c r="J102" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K102" s="3">
         <v>3300</v>

--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -717,10 +717,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13400</v>
+        <v>14100</v>
       </c>
       <c r="E8" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -729,13 +729,13 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>54600</v>
+        <v>57200</v>
       </c>
       <c r="I8" s="3">
-        <v>60300</v>
+        <v>63100</v>
       </c>
       <c r="J8" s="3">
-        <v>70000</v>
+        <v>73300</v>
       </c>
       <c r="K8" s="3">
         <v>79200</v>
@@ -750,10 +750,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>15300</v>
+        <v>16000</v>
       </c>
       <c r="E9" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -762,13 +762,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="3">
-        <v>38300</v>
+        <v>40200</v>
       </c>
       <c r="I9" s="3">
-        <v>43700</v>
+        <v>45800</v>
       </c>
       <c r="J9" s="3">
-        <v>45800</v>
+        <v>47900</v>
       </c>
       <c r="K9" s="3">
         <v>55600</v>
@@ -783,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E10" s="3">
         <v>900</v>
@@ -795,13 +795,13 @@
         <v>4</v>
       </c>
       <c r="H10" s="3">
-        <v>16300</v>
+        <v>17100</v>
       </c>
       <c r="I10" s="3">
-        <v>16500</v>
+        <v>17300</v>
       </c>
       <c r="J10" s="3">
-        <v>24200</v>
+        <v>25300</v>
       </c>
       <c r="K10" s="3">
         <v>23600</v>
@@ -831,25 +831,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E12" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="F12" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="G12" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="H12" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="I12" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="J12" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="K12" s="3">
         <v>5400</v>
@@ -903,7 +903,7 @@
         <v>600</v>
       </c>
       <c r="F14" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22200</v>
+        <v>23300</v>
       </c>
       <c r="E17" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="F17" s="3">
-        <v>16700</v>
+        <v>17500</v>
       </c>
       <c r="G17" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="H17" s="3">
-        <v>54400</v>
+        <v>57000</v>
       </c>
       <c r="I17" s="3">
-        <v>63800</v>
+        <v>66800</v>
       </c>
       <c r="J17" s="3">
-        <v>67300</v>
+        <v>70500</v>
       </c>
       <c r="K17" s="3">
         <v>79700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8800</v>
+        <v>-9200</v>
       </c>
       <c r="E18" s="3">
-        <v>-5700</v>
+        <v>-6000</v>
       </c>
       <c r="F18" s="3">
-        <v>-16600</v>
+        <v>-17400</v>
       </c>
       <c r="G18" s="3">
-        <v>-9500</v>
+        <v>-10000</v>
       </c>
       <c r="H18" s="3">
         <v>200</v>
       </c>
       <c r="I18" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="J18" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-13200</v>
+        <v>-13800</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1071,10 +1071,10 @@
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J20" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
       </c>
       <c r="E21" s="3">
-        <v>-16500</v>
+        <v>-17300</v>
       </c>
       <c r="F21" s="3">
-        <v>-12400</v>
+        <v>-13000</v>
       </c>
       <c r="G21" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="H21" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>7700</v>
+        <v>8100</v>
       </c>
       <c r="K21" s="3">
         <v>3200</v>
@@ -1125,22 +1125,22 @@
         <v>700</v>
       </c>
       <c r="E22" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="F22" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G22" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H22" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I22" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J22" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K22" s="3">
         <v>600</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9500</v>
+        <v>-9900</v>
       </c>
       <c r="E23" s="3">
-        <v>-22200</v>
+        <v>-23200</v>
       </c>
       <c r="F23" s="3">
-        <v>-17700</v>
+        <v>-18500</v>
       </c>
       <c r="G23" s="3">
-        <v>-10600</v>
+        <v>-11100</v>
       </c>
       <c r="H23" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I23" s="3">
-        <v>-7000</v>
+        <v>-7400</v>
       </c>
       <c r="J23" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1203,10 +1203,10 @@
         <v>200</v>
       </c>
       <c r="I24" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="J24" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
@@ -1254,19 +1254,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9500</v>
+        <v>-10000</v>
       </c>
       <c r="E26" s="3">
-        <v>-22200</v>
+        <v>-23200</v>
       </c>
       <c r="F26" s="3">
-        <v>-17700</v>
+        <v>-18500</v>
       </c>
       <c r="G26" s="3">
-        <v>-10600</v>
+        <v>-11100</v>
       </c>
       <c r="H26" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="I26" s="3">
         <v>-1500</v>
@@ -1287,19 +1287,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-9000</v>
+        <v>-9400</v>
       </c>
       <c r="E27" s="3">
-        <v>-22300</v>
+        <v>-23400</v>
       </c>
       <c r="F27" s="3">
-        <v>-13300</v>
+        <v>-13900</v>
       </c>
       <c r="G27" s="3">
-        <v>-9000</v>
+        <v>-9400</v>
       </c>
       <c r="H27" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I27" s="3">
         <v>-1400</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="G29" s="3">
         <v>-600</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>13200</v>
+        <v>13800</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -1467,10 +1467,10 @@
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J32" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
@@ -1485,19 +1485,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9000</v>
+        <v>-9400</v>
       </c>
       <c r="E33" s="3">
-        <v>-22300</v>
+        <v>-23400</v>
       </c>
       <c r="F33" s="3">
-        <v>-11200</v>
+        <v>-11700</v>
       </c>
       <c r="G33" s="3">
-        <v>-9500</v>
+        <v>-10000</v>
       </c>
       <c r="H33" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I33" s="3">
         <v>-1400</v>
@@ -1551,19 +1551,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9000</v>
+        <v>-9400</v>
       </c>
       <c r="E35" s="3">
-        <v>-22300</v>
+        <v>-23400</v>
       </c>
       <c r="F35" s="3">
-        <v>-11200</v>
+        <v>-11700</v>
       </c>
       <c r="G35" s="3">
-        <v>-9500</v>
+        <v>-10000</v>
       </c>
       <c r="H35" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I35" s="3">
         <v>-1400</v>
@@ -1661,16 +1661,16 @@
         <v>500</v>
       </c>
       <c r="G41" s="3">
-        <v>7900</v>
+        <v>8300</v>
       </c>
       <c r="H41" s="3">
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="I41" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="J41" s="3">
-        <v>19200</v>
+        <v>20100</v>
       </c>
       <c r="K41" s="3">
         <v>21900</v>
@@ -1718,13 +1718,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="E43" s="3">
-        <v>18800</v>
+        <v>19700</v>
       </c>
       <c r="F43" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -1733,10 +1733,10 @@
         <v>300</v>
       </c>
       <c r="I43" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J43" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K43" s="3">
         <v>1600</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="E44" s="3">
-        <v>11900</v>
+        <v>12500</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>53500</v>
+        <v>56000</v>
       </c>
       <c r="H44" s="3">
-        <v>63800</v>
+        <v>66900</v>
       </c>
       <c r="I44" s="3">
-        <v>75000</v>
+        <v>78500</v>
       </c>
       <c r="J44" s="3">
-        <v>68400</v>
+        <v>71600</v>
       </c>
       <c r="K44" s="3">
         <v>40500</v>
@@ -1790,19 +1790,19 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="G45" s="3">
-        <v>8000</v>
+        <v>8400</v>
       </c>
       <c r="H45" s="3">
-        <v>5200</v>
+        <v>5500</v>
       </c>
       <c r="I45" s="3">
-        <v>8500</v>
+        <v>8900</v>
       </c>
       <c r="J45" s="3">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="K45" s="3">
         <v>16100</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10100</v>
+        <v>10500</v>
       </c>
       <c r="E46" s="3">
-        <v>31200</v>
+        <v>32700</v>
       </c>
       <c r="F46" s="3">
-        <v>12900</v>
+        <v>13500</v>
       </c>
       <c r="G46" s="3">
-        <v>69400</v>
+        <v>72700</v>
       </c>
       <c r="H46" s="3">
-        <v>79000</v>
+        <v>82700</v>
       </c>
       <c r="I46" s="3">
-        <v>90800</v>
+        <v>95100</v>
       </c>
       <c r="J46" s="3">
-        <v>99400</v>
+        <v>104100</v>
       </c>
       <c r="K46" s="3">
         <v>80200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="E47" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F47" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G47" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H47" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I47" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J47" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="K47" s="3">
         <v>3200</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21700</v>
+        <v>22700</v>
       </c>
       <c r="E48" s="3">
-        <v>25100</v>
+        <v>26300</v>
       </c>
       <c r="F48" s="3">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="G48" s="3">
-        <v>45600</v>
+        <v>47700</v>
       </c>
       <c r="H48" s="3">
-        <v>47200</v>
+        <v>49400</v>
       </c>
       <c r="I48" s="3">
-        <v>49200</v>
+        <v>51500</v>
       </c>
       <c r="J48" s="3">
-        <v>51500</v>
+        <v>54000</v>
       </c>
       <c r="K48" s="3">
         <v>45500</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E49" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="F49" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="G49" s="3">
-        <v>9800</v>
+        <v>10300</v>
       </c>
       <c r="H49" s="3">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="I49" s="3">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="J49" s="3">
-        <v>9900</v>
+        <v>10400</v>
       </c>
       <c r="K49" s="3">
         <v>10000</v>
@@ -2021,19 +2021,19 @@
         <v>200</v>
       </c>
       <c r="F52" s="3">
-        <v>6100</v>
+        <v>6400</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="I52" s="3">
         <v>600</v>
       </c>
       <c r="J52" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="K52" s="3">
         <v>1000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37900</v>
+        <v>39700</v>
       </c>
       <c r="E54" s="3">
-        <v>62500</v>
+        <v>65400</v>
       </c>
       <c r="F54" s="3">
-        <v>47100</v>
+        <v>49300</v>
       </c>
       <c r="G54" s="3">
-        <v>127900</v>
+        <v>134000</v>
       </c>
       <c r="H54" s="3">
-        <v>143200</v>
+        <v>150000</v>
       </c>
       <c r="I54" s="3">
-        <v>154700</v>
+        <v>162000</v>
       </c>
       <c r="J54" s="3">
-        <v>168200</v>
+        <v>176200</v>
       </c>
       <c r="K54" s="3">
         <v>140000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E57" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="H57" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I57" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J57" s="3">
-        <v>6200</v>
+        <v>6500</v>
       </c>
       <c r="K57" s="3">
         <v>1300</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11400</v>
+        <v>12000</v>
       </c>
       <c r="E58" s="3">
-        <v>11400</v>
+        <v>11900</v>
       </c>
       <c r="F58" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="G58" s="3">
-        <v>31500</v>
+        <v>33000</v>
       </c>
       <c r="H58" s="3">
-        <v>35400</v>
+        <v>37100</v>
       </c>
       <c r="I58" s="3">
-        <v>37600</v>
+        <v>39400</v>
       </c>
       <c r="J58" s="3">
-        <v>32200</v>
+        <v>33700</v>
       </c>
       <c r="K58" s="3">
         <v>5600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>22100</v>
+        <v>23200</v>
       </c>
       <c r="E59" s="3">
-        <v>49100</v>
+        <v>51400</v>
       </c>
       <c r="F59" s="3">
-        <v>11900</v>
+        <v>12500</v>
       </c>
       <c r="G59" s="3">
-        <v>54200</v>
+        <v>56800</v>
       </c>
       <c r="H59" s="3">
-        <v>53500</v>
+        <v>56000</v>
       </c>
       <c r="I59" s="3">
-        <v>61500</v>
+        <v>64400</v>
       </c>
       <c r="J59" s="3">
-        <v>70900</v>
+        <v>74200</v>
       </c>
       <c r="K59" s="3">
         <v>79900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>36000</v>
+        <v>37700</v>
       </c>
       <c r="E60" s="3">
-        <v>62800</v>
+        <v>65700</v>
       </c>
       <c r="F60" s="3">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="G60" s="3">
-        <v>89200</v>
+        <v>93500</v>
       </c>
       <c r="H60" s="3">
-        <v>92100</v>
+        <v>96500</v>
       </c>
       <c r="I60" s="3">
-        <v>102300</v>
+        <v>107200</v>
       </c>
       <c r="J60" s="3">
-        <v>109200</v>
+        <v>114400</v>
       </c>
       <c r="K60" s="3">
         <v>86800</v>
@@ -2282,19 +2282,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="G61" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H61" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I61" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="J61" s="3">
-        <v>9400</v>
+        <v>9900</v>
       </c>
       <c r="K61" s="3">
         <v>5000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G62" s="3">
         <v>4200</v>
       </c>
-      <c r="E62" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
-      <c r="G62" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H62" s="3">
-        <v>2900</v>
-      </c>
       <c r="I62" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="J62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K62" s="3">
         <v>3100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41200</v>
+        <v>43200</v>
       </c>
       <c r="E66" s="3">
-        <v>66100</v>
+        <v>69200</v>
       </c>
       <c r="F66" s="3">
-        <v>30800</v>
+        <v>32200</v>
       </c>
       <c r="G66" s="3">
-        <v>101700</v>
+        <v>106500</v>
       </c>
       <c r="H66" s="3">
-        <v>108100</v>
+        <v>113300</v>
       </c>
       <c r="I66" s="3">
-        <v>117500</v>
+        <v>123000</v>
       </c>
       <c r="J66" s="3">
-        <v>129500</v>
+        <v>135700</v>
       </c>
       <c r="K66" s="3">
         <v>102500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-68800</v>
+        <v>-72100</v>
       </c>
       <c r="E72" s="3">
-        <v>-59800</v>
+        <v>-62600</v>
       </c>
       <c r="F72" s="3">
-        <v>-37500</v>
+        <v>-39300</v>
       </c>
       <c r="G72" s="3">
-        <v>-26500</v>
+        <v>-27700</v>
       </c>
       <c r="H72" s="3">
-        <v>-17000</v>
+        <v>-17800</v>
       </c>
       <c r="I72" s="3">
-        <v>-15000</v>
+        <v>-15700</v>
       </c>
       <c r="J72" s="3">
-        <v>-13600</v>
+        <v>-14200</v>
       </c>
       <c r="K72" s="3">
         <v>-14500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="E76" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="F76" s="3">
-        <v>16300</v>
+        <v>17100</v>
       </c>
       <c r="G76" s="3">
-        <v>26200</v>
+        <v>27400</v>
       </c>
       <c r="H76" s="3">
-        <v>35000</v>
+        <v>36700</v>
       </c>
       <c r="I76" s="3">
-        <v>37200</v>
+        <v>38900</v>
       </c>
       <c r="J76" s="3">
-        <v>38600</v>
+        <v>40500</v>
       </c>
       <c r="K76" s="3">
         <v>37500</v>
@@ -2857,19 +2857,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9000</v>
+        <v>-9400</v>
       </c>
       <c r="E81" s="3">
-        <v>-22300</v>
+        <v>-23400</v>
       </c>
       <c r="F81" s="3">
-        <v>-11200</v>
+        <v>-11700</v>
       </c>
       <c r="G81" s="3">
-        <v>-9500</v>
+        <v>-10000</v>
       </c>
       <c r="H81" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I81" s="3">
         <v>-1400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E83" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F83" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G83" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H83" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="I83" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="J83" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="K83" s="3">
         <v>2800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8700</v>
+        <v>-9100</v>
       </c>
       <c r="E89" s="3">
         <v>-1500</v>
       </c>
       <c r="F89" s="3">
-        <v>-17500</v>
+        <v>-18300</v>
       </c>
       <c r="G89" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="H89" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="I89" s="3">
-        <v>-12400</v>
+        <v>-13000</v>
       </c>
       <c r="J89" s="3">
-        <v>-21200</v>
+        <v>-22200</v>
       </c>
       <c r="K89" s="3">
         <v>11900</v>
@@ -3154,22 +3154,22 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F91" s="3">
         <v>-400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J91" s="3">
-        <v>-10000</v>
+        <v>-10500</v>
       </c>
       <c r="K91" s="3">
         <v>-21200</v>
@@ -3253,22 +3253,22 @@
         <v>1400</v>
       </c>
       <c r="E94" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="F94" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="G94" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>-9900</v>
+        <v>-10400</v>
       </c>
       <c r="K94" s="3">
         <v>-20600</v>
@@ -3430,16 +3430,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="E100" s="3">
-        <v>-5100</v>
+        <v>-5400</v>
       </c>
       <c r="F100" s="3">
-        <v>6800</v>
+        <v>7200</v>
       </c>
       <c r="G100" s="3">
-        <v>-7100</v>
+        <v>-7400</v>
       </c>
       <c r="H100" s="3">
         <v>-1400</v>
@@ -3448,7 +3448,7 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>27800</v>
+        <v>29200</v>
       </c>
       <c r="K100" s="3">
         <v>12000</v>
@@ -3469,7 +3469,7 @@
         <v>-500</v>
       </c>
       <c r="F101" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="G101" s="3">
         <v>-600</v>
@@ -3502,19 +3502,19 @@
         <v>-200</v>
       </c>
       <c r="F102" s="3">
-        <v>-7400</v>
+        <v>-7800</v>
       </c>
       <c r="G102" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H102" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="I102" s="3">
-        <v>-12400</v>
+        <v>-13000</v>
       </c>
       <c r="J102" s="3">
-        <v>-3000</v>
+        <v>-3200</v>
       </c>
       <c r="K102" s="3">
         <v>3300</v>

--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>SEED</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42643</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42277</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41912</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41547</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41182</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40816</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E8" s="3">
         <v>14100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>57200</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>63100</v>
+        <v>57500</v>
       </c>
       <c r="J8" s="3">
+        <v>63400</v>
+      </c>
+      <c r="K8" s="3">
         <v>73300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>79200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>84200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>16000</v>
+        <v>7500</v>
       </c>
       <c r="E9" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>40200</v>
-      </c>
       <c r="I9" s="3">
-        <v>45800</v>
+        <v>40300</v>
       </c>
       <c r="J9" s="3">
+        <v>46000</v>
+      </c>
+      <c r="K9" s="3">
         <v>47900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>55600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>55100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>500</v>
+      </c>
+      <c r="E10" s="3">
         <v>-2000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17100</v>
       </c>
-      <c r="I10" s="3">
-        <v>17300</v>
-      </c>
       <c r="J10" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K10" s="3">
         <v>25300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29100</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>7400</v>
       </c>
-      <c r="I12" s="3">
-        <v>6100</v>
-      </c>
       <c r="J12" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K12" s="3">
         <v>6400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6600</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,26 +906,29 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>600</v>
+        <v>5200</v>
       </c>
       <c r="E14" s="3">
         <v>600</v>
       </c>
       <c r="F14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G14" s="3">
         <v>6800</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -920,12 +939,15 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23300</v>
+        <v>22900</v>
       </c>
       <c r="E17" s="3">
-        <v>7900</v>
+        <v>23500</v>
       </c>
       <c r="F17" s="3">
-        <v>17500</v>
+        <v>8600</v>
       </c>
       <c r="G17" s="3">
-        <v>10000</v>
+        <v>17600</v>
       </c>
       <c r="H17" s="3">
-        <v>57000</v>
+        <v>10100</v>
       </c>
       <c r="I17" s="3">
-        <v>66800</v>
+        <v>57300</v>
       </c>
       <c r="J17" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K17" s="3">
         <v>70500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>79700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>82300</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-9200</v>
+        <v>-14900</v>
       </c>
       <c r="E18" s="3">
-        <v>-6000</v>
+        <v>-9400</v>
       </c>
       <c r="F18" s="3">
-        <v>-17400</v>
+        <v>-6600</v>
       </c>
       <c r="G18" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-10000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,140 +1082,153 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-13800</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-17300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5000</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>8100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3800</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9900</v>
+        <v>-15600</v>
       </c>
       <c r="E23" s="3">
-        <v>-23200</v>
+        <v>-10000</v>
       </c>
       <c r="F23" s="3">
-        <v>-18500</v>
+        <v>-23300</v>
       </c>
       <c r="G23" s="3">
-        <v>-11100</v>
+        <v>-18600</v>
       </c>
       <c r="H23" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1191,7 +1236,7 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1200,23 +1245,26 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>-5800</v>
-      </c>
       <c r="J24" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10000</v>
       </c>
-      <c r="E26" s="3">
-        <v>-23200</v>
-      </c>
       <c r="F26" s="3">
-        <v>-18500</v>
+        <v>-23300</v>
       </c>
       <c r="G26" s="3">
-        <v>-11100</v>
+        <v>-18600</v>
       </c>
       <c r="H26" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="H27" s="3">
         <v>-9400</v>
       </c>
-      <c r="E27" s="3">
-        <v>-23400</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,26 +1403,29 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>2200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-600</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>4</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>13800</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>13200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9400</v>
+        <v>-13000</v>
       </c>
       <c r="E33" s="3">
-        <v>-23400</v>
+        <v>-9500</v>
       </c>
       <c r="F33" s="3">
-        <v>-11700</v>
+        <v>-23500</v>
       </c>
       <c r="G33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="H33" s="3">
         <v>-10000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9400</v>
+        <v>-13000</v>
       </c>
       <c r="E35" s="3">
-        <v>-23400</v>
+        <v>-9500</v>
       </c>
       <c r="F35" s="3">
-        <v>-11700</v>
+        <v>-23500</v>
       </c>
       <c r="G35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="H35" s="3">
         <v>-10000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42643</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42277</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41912</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41547</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41182</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40816</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,41 +1731,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8300</v>
       </c>
-      <c r="H41" s="3">
-        <v>10000</v>
-      </c>
       <c r="I41" s="3">
-        <v>7000</v>
+        <v>10100</v>
       </c>
       <c r="J41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K41" s="3">
         <v>20100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19300</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1711,240 +1800,264 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
         <v>5400</v>
       </c>
-      <c r="E43" s="3">
-        <v>19700</v>
-      </c>
       <c r="F43" s="3">
+        <v>19800</v>
+      </c>
+      <c r="G43" s="3">
         <v>8500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4300</v>
+        <v>2100</v>
       </c>
       <c r="E44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F44" s="3">
         <v>12500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>56000</v>
-      </c>
       <c r="H44" s="3">
-        <v>66900</v>
+        <v>56200</v>
       </c>
       <c r="I44" s="3">
-        <v>78500</v>
+        <v>67200</v>
       </c>
       <c r="J44" s="3">
+        <v>78900</v>
+      </c>
+      <c r="K44" s="3">
         <v>71600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>40500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>31300</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>400</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15700</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="E46" s="3">
-        <v>32700</v>
+        <v>10600</v>
       </c>
       <c r="F46" s="3">
-        <v>13500</v>
+        <v>32800</v>
       </c>
       <c r="G46" s="3">
-        <v>72700</v>
+        <v>13600</v>
       </c>
       <c r="H46" s="3">
-        <v>82700</v>
+        <v>73000</v>
       </c>
       <c r="I46" s="3">
-        <v>95100</v>
+        <v>83100</v>
       </c>
       <c r="J46" s="3">
+        <v>95500</v>
+      </c>
+      <c r="K46" s="3">
         <v>104100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>80200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>75800</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2500</v>
+        <v>8000</v>
       </c>
       <c r="E47" s="3">
         <v>2500</v>
       </c>
       <c r="F47" s="3">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="G47" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H47" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I47" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K47" s="3">
         <v>3800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22700</v>
+        <v>18000</v>
       </c>
       <c r="E48" s="3">
-        <v>26300</v>
+        <v>22800</v>
       </c>
       <c r="F48" s="3">
-        <v>22000</v>
+        <v>26400</v>
       </c>
       <c r="G48" s="3">
-        <v>47700</v>
+        <v>22100</v>
       </c>
       <c r="H48" s="3">
-        <v>49400</v>
+        <v>47900</v>
       </c>
       <c r="I48" s="3">
-        <v>51500</v>
+        <v>49600</v>
       </c>
       <c r="J48" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K48" s="3">
         <v>54000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10300</v>
       </c>
-      <c r="H49" s="3">
-        <v>11400</v>
-      </c>
       <c r="I49" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J49" s="3">
         <v>12000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39700</v>
+        <v>38900</v>
       </c>
       <c r="E54" s="3">
-        <v>65400</v>
+        <v>39900</v>
       </c>
       <c r="F54" s="3">
-        <v>49300</v>
+        <v>65700</v>
       </c>
       <c r="G54" s="3">
-        <v>134000</v>
+        <v>49500</v>
       </c>
       <c r="H54" s="3">
-        <v>150000</v>
+        <v>134500</v>
       </c>
       <c r="I54" s="3">
-        <v>162000</v>
+        <v>150600</v>
       </c>
       <c r="J54" s="3">
+        <v>162700</v>
+      </c>
+      <c r="K54" s="3">
         <v>176200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>140000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>121500</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>12000</v>
       </c>
-      <c r="E58" s="3">
-        <v>11900</v>
-      </c>
       <c r="F58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G58" s="3">
         <v>7700</v>
       </c>
-      <c r="G58" s="3">
-        <v>33000</v>
-      </c>
       <c r="H58" s="3">
-        <v>37100</v>
+        <v>33200</v>
       </c>
       <c r="I58" s="3">
-        <v>39400</v>
+        <v>37300</v>
       </c>
       <c r="J58" s="3">
+        <v>39500</v>
+      </c>
+      <c r="K58" s="3">
         <v>33700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23200</v>
+        <v>24500</v>
       </c>
       <c r="E59" s="3">
-        <v>51400</v>
+        <v>23300</v>
       </c>
       <c r="F59" s="3">
-        <v>12500</v>
+        <v>51600</v>
       </c>
       <c r="G59" s="3">
-        <v>56800</v>
+        <v>12600</v>
       </c>
       <c r="H59" s="3">
-        <v>56000</v>
+        <v>57000</v>
       </c>
       <c r="I59" s="3">
-        <v>64400</v>
+        <v>56300</v>
       </c>
       <c r="J59" s="3">
+        <v>64700</v>
+      </c>
+      <c r="K59" s="3">
         <v>74200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>79900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>70100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>37700</v>
+        <v>27000</v>
       </c>
       <c r="E60" s="3">
-        <v>65700</v>
+        <v>37900</v>
       </c>
       <c r="F60" s="3">
-        <v>20400</v>
+        <v>66000</v>
       </c>
       <c r="G60" s="3">
-        <v>93500</v>
+        <v>20500</v>
       </c>
       <c r="H60" s="3">
-        <v>96500</v>
+        <v>93900</v>
       </c>
       <c r="I60" s="3">
-        <v>107200</v>
+        <v>96900</v>
       </c>
       <c r="J60" s="3">
+        <v>107700</v>
+      </c>
+      <c r="K60" s="3">
         <v>114400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>86800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>79000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>3000</v>
+        <v>8700</v>
       </c>
       <c r="H61" s="3">
-        <v>6200</v>
+        <v>3100</v>
       </c>
       <c r="I61" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J61" s="3">
         <v>4700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E62" s="3">
         <v>4400</v>
       </c>
-      <c r="E62" s="3">
-        <v>3200</v>
-      </c>
       <c r="F62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G62" s="3">
         <v>3100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>4200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3000</v>
       </c>
       <c r="I62" s="3">
         <v>3000</v>
       </c>
       <c r="J62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K62" s="3">
         <v>3200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43200</v>
+        <v>50700</v>
       </c>
       <c r="E66" s="3">
-        <v>69200</v>
+        <v>43400</v>
       </c>
       <c r="F66" s="3">
-        <v>32200</v>
+        <v>69500</v>
       </c>
       <c r="G66" s="3">
-        <v>106500</v>
+        <v>32400</v>
       </c>
       <c r="H66" s="3">
-        <v>113300</v>
+        <v>107000</v>
       </c>
       <c r="I66" s="3">
-        <v>123000</v>
+        <v>113800</v>
       </c>
       <c r="J66" s="3">
+        <v>123600</v>
+      </c>
+      <c r="K66" s="3">
         <v>135700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>102500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>83000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-72100</v>
+        <v>-85400</v>
       </c>
       <c r="E72" s="3">
-        <v>-62600</v>
+        <v>-72400</v>
       </c>
       <c r="F72" s="3">
-        <v>-39300</v>
+        <v>-62900</v>
       </c>
       <c r="G72" s="3">
-        <v>-27700</v>
+        <v>-39400</v>
       </c>
       <c r="H72" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-17800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-14200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3800</v>
       </c>
-      <c r="F76" s="3">
-        <v>17100</v>
-      </c>
       <c r="G76" s="3">
-        <v>27400</v>
+        <v>17200</v>
       </c>
       <c r="H76" s="3">
-        <v>36700</v>
+        <v>27500</v>
       </c>
       <c r="I76" s="3">
-        <v>38900</v>
+        <v>36800</v>
       </c>
       <c r="J76" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K76" s="3">
         <v>40500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38400</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42643</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42277</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41912</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41547</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41182</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40816</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9400</v>
+        <v>-13000</v>
       </c>
       <c r="E81" s="3">
-        <v>-23400</v>
+        <v>-9500</v>
       </c>
       <c r="F81" s="3">
-        <v>-11700</v>
+        <v>-23500</v>
       </c>
       <c r="G81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="H81" s="3">
         <v>-10000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
-        <v>-1400</v>
-      </c>
       <c r="J81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I83" s="3">
         <v>4700</v>
       </c>
-      <c r="H83" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K83" s="3">
         <v>4300</v>
       </c>
-      <c r="J83" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3500</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9100</v>
+        <v>-900</v>
       </c>
       <c r="E89" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
-        <v>-18300</v>
-      </c>
       <c r="G89" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="H89" s="3">
         <v>7300</v>
       </c>
-      <c r="H89" s="3">
-        <v>7900</v>
-      </c>
       <c r="I89" s="3">
-        <v>-13000</v>
+        <v>8000</v>
       </c>
       <c r="J89" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-22200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,8 +3364,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3154,32 +3374,35 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
-        <v>-2200</v>
-      </c>
       <c r="I91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10100</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1400</v>
+        <v>-6500</v>
       </c>
       <c r="E94" s="3">
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G94" s="3">
         <v>4500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-22900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8200</v>
+        <v>10100</v>
       </c>
       <c r="E100" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-5400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7200</v>
       </c>
-      <c r="G100" s="3">
-        <v>-7400</v>
-      </c>
       <c r="H100" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>29200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>12000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3000</v>
       </c>
-      <c r="I102" s="3">
-        <v>-13000</v>
-      </c>
       <c r="J102" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-25200</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -720,10 +720,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E8" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="F8" s="3">
         <v>2000</v>
@@ -735,10 +735,10 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>57500</v>
+        <v>58700</v>
       </c>
       <c r="J8" s="3">
-        <v>63400</v>
+        <v>64700</v>
       </c>
       <c r="K8" s="3">
         <v>73300</v>
@@ -756,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="E9" s="3">
-        <v>16100</v>
+        <v>16400</v>
       </c>
       <c r="F9" s="3">
         <v>1100</v>
@@ -771,10 +771,10 @@
         <v>4</v>
       </c>
       <c r="I9" s="3">
-        <v>40300</v>
+        <v>41200</v>
       </c>
       <c r="J9" s="3">
-        <v>46000</v>
+        <v>47000</v>
       </c>
       <c r="K9" s="3">
         <v>47900</v>
@@ -807,10 +807,10 @@
         <v>4</v>
       </c>
       <c r="I10" s="3">
-        <v>17100</v>
+        <v>17500</v>
       </c>
       <c r="J10" s="3">
-        <v>17400</v>
+        <v>17700</v>
       </c>
       <c r="K10" s="3">
         <v>25300</v>
@@ -847,22 +847,22 @@
         <v>600</v>
       </c>
       <c r="E12" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F12" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G12" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="H12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J12" s="3">
         <v>6300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6200</v>
       </c>
       <c r="K12" s="3">
         <v>6400</v>
@@ -916,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E14" s="3">
         <v>600</v>
@@ -925,7 +925,7 @@
         <v>1200</v>
       </c>
       <c r="G14" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22900</v>
+        <v>23400</v>
       </c>
       <c r="E17" s="3">
-        <v>23500</v>
+        <v>24000</v>
       </c>
       <c r="F17" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="G17" s="3">
-        <v>17600</v>
+        <v>18000</v>
       </c>
       <c r="H17" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="I17" s="3">
-        <v>57300</v>
+        <v>58500</v>
       </c>
       <c r="J17" s="3">
-        <v>67100</v>
+        <v>68500</v>
       </c>
       <c r="K17" s="3">
         <v>70500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-14900</v>
+        <v>-15200</v>
       </c>
       <c r="E18" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="F18" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="G18" s="3">
-        <v>-17500</v>
+        <v>-17800</v>
       </c>
       <c r="H18" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="I18" s="3">
         <v>200</v>
       </c>
       <c r="J18" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="K18" s="3">
         <v>2800</v>
@@ -1095,7 +1095,7 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>-13200</v>
+        <v>-13500</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1125,22 +1125,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="E21" s="3">
-        <v>-7100</v>
+        <v>-7300</v>
       </c>
       <c r="F21" s="3">
-        <v>-17300</v>
+        <v>-17700</v>
       </c>
       <c r="G21" s="3">
-        <v>-13000</v>
+        <v>-13300</v>
       </c>
       <c r="H21" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="I21" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>700</v>
       </c>
       <c r="F22" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G22" s="3">
         <v>1400</v>
@@ -1176,10 +1176,10 @@
         <v>1200</v>
       </c>
       <c r="I22" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J22" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K22" s="3">
         <v>1700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15600</v>
+        <v>-16000</v>
       </c>
       <c r="E23" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="F23" s="3">
-        <v>-23300</v>
+        <v>-23800</v>
       </c>
       <c r="G23" s="3">
-        <v>-18600</v>
+        <v>-19000</v>
       </c>
       <c r="H23" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="I23" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="J23" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="K23" s="3">
         <v>2100</v>
@@ -1251,7 +1251,7 @@
         <v>200</v>
       </c>
       <c r="J24" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="K24" s="3">
         <v>700</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15700</v>
+        <v>-16000</v>
       </c>
       <c r="E26" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="F26" s="3">
-        <v>-23300</v>
+        <v>-23800</v>
       </c>
       <c r="G26" s="3">
-        <v>-18600</v>
+        <v>-19000</v>
       </c>
       <c r="H26" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="I26" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="J26" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="K26" s="3">
         <v>1400</v>
@@ -1341,22 +1341,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13000</v>
+        <v>-13300</v>
       </c>
       <c r="E27" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="F27" s="3">
-        <v>-23500</v>
+        <v>-24000</v>
       </c>
       <c r="G27" s="3">
-        <v>-13900</v>
+        <v>-14200</v>
       </c>
       <c r="H27" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="I27" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J27" s="3">
         <v>-1500</v>
@@ -1527,7 +1527,7 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -1557,22 +1557,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13000</v>
+        <v>-13300</v>
       </c>
       <c r="E33" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="F33" s="3">
-        <v>-23500</v>
+        <v>-24000</v>
       </c>
       <c r="G33" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="H33" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="I33" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J33" s="3">
         <v>-1500</v>
@@ -1629,22 +1629,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13000</v>
+        <v>-13300</v>
       </c>
       <c r="E35" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="F35" s="3">
-        <v>-23500</v>
+        <v>-24000</v>
       </c>
       <c r="G35" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="H35" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="I35" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J35" s="3">
         <v>-1500</v>
@@ -1738,7 +1738,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E41" s="3">
         <v>500</v>
@@ -1750,13 +1750,13 @@
         <v>500</v>
       </c>
       <c r="H41" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="I41" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="J41" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="K41" s="3">
         <v>20100</v>
@@ -1810,16 +1810,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E43" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F43" s="3">
-        <v>19800</v>
+        <v>20200</v>
       </c>
       <c r="G43" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -1849,22 +1849,22 @@
         <v>2100</v>
       </c>
       <c r="E44" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F44" s="3">
-        <v>12500</v>
+        <v>12800</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>56200</v>
+        <v>57400</v>
       </c>
       <c r="I44" s="3">
-        <v>67200</v>
+        <v>68600</v>
       </c>
       <c r="J44" s="3">
-        <v>78900</v>
+        <v>80600</v>
       </c>
       <c r="K44" s="3">
         <v>71600</v>
@@ -1882,7 +1882,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -1891,16 +1891,16 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H45" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="I45" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="J45" s="3">
-        <v>8900</v>
+        <v>9100</v>
       </c>
       <c r="K45" s="3">
         <v>11400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="E46" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="F46" s="3">
-        <v>32800</v>
+        <v>33500</v>
       </c>
       <c r="G46" s="3">
-        <v>13600</v>
+        <v>13900</v>
       </c>
       <c r="H46" s="3">
-        <v>73000</v>
+        <v>74600</v>
       </c>
       <c r="I46" s="3">
-        <v>83100</v>
+        <v>84800</v>
       </c>
       <c r="J46" s="3">
-        <v>95500</v>
+        <v>97500</v>
       </c>
       <c r="K46" s="3">
         <v>104100</v>
@@ -1954,13 +1954,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="E47" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F47" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G47" s="3">
         <v>2900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="E48" s="3">
-        <v>22800</v>
+        <v>23300</v>
       </c>
       <c r="F48" s="3">
-        <v>26400</v>
+        <v>27000</v>
       </c>
       <c r="G48" s="3">
-        <v>22100</v>
+        <v>22600</v>
       </c>
       <c r="H48" s="3">
-        <v>47900</v>
+        <v>48900</v>
       </c>
       <c r="I48" s="3">
-        <v>49600</v>
+        <v>50700</v>
       </c>
       <c r="J48" s="3">
-        <v>51700</v>
+        <v>52800</v>
       </c>
       <c r="K48" s="3">
         <v>54000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E49" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F49" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G49" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H49" s="3">
-        <v>10300</v>
+        <v>10600</v>
       </c>
       <c r="I49" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="J49" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="K49" s="3">
         <v>10400</v>
@@ -2137,13 +2137,13 @@
         <v>900</v>
       </c>
       <c r="E52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38900</v>
+        <v>39800</v>
       </c>
       <c r="E54" s="3">
-        <v>39900</v>
+        <v>40700</v>
       </c>
       <c r="F54" s="3">
-        <v>65700</v>
+        <v>67100</v>
       </c>
       <c r="G54" s="3">
-        <v>49500</v>
+        <v>50600</v>
       </c>
       <c r="H54" s="3">
-        <v>134500</v>
+        <v>137400</v>
       </c>
       <c r="I54" s="3">
-        <v>150600</v>
+        <v>153800</v>
       </c>
       <c r="J54" s="3">
-        <v>162700</v>
+        <v>166100</v>
       </c>
       <c r="K54" s="3">
         <v>176200</v>
@@ -2280,19 +2280,19 @@
         <v>2600</v>
       </c>
       <c r="F57" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I57" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J57" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K57" s="3">
         <v>6500</v>
@@ -2313,22 +2313,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="F58" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="G58" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="H58" s="3">
-        <v>33200</v>
+        <v>33900</v>
       </c>
       <c r="I58" s="3">
-        <v>37300</v>
+        <v>38100</v>
       </c>
       <c r="J58" s="3">
-        <v>39500</v>
+        <v>40400</v>
       </c>
       <c r="K58" s="3">
         <v>33700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24500</v>
+        <v>25100</v>
       </c>
       <c r="E59" s="3">
-        <v>23300</v>
+        <v>23700</v>
       </c>
       <c r="F59" s="3">
-        <v>51600</v>
+        <v>52700</v>
       </c>
       <c r="G59" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="H59" s="3">
-        <v>57000</v>
+        <v>58200</v>
       </c>
       <c r="I59" s="3">
-        <v>56300</v>
+        <v>57500</v>
       </c>
       <c r="J59" s="3">
-        <v>64700</v>
+        <v>66000</v>
       </c>
       <c r="K59" s="3">
         <v>74200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27000</v>
+        <v>27600</v>
       </c>
       <c r="E60" s="3">
-        <v>37900</v>
+        <v>38700</v>
       </c>
       <c r="F60" s="3">
-        <v>66000</v>
+        <v>67400</v>
       </c>
       <c r="G60" s="3">
-        <v>20500</v>
+        <v>20900</v>
       </c>
       <c r="H60" s="3">
-        <v>93900</v>
+        <v>95900</v>
       </c>
       <c r="I60" s="3">
-        <v>96900</v>
+        <v>98900</v>
       </c>
       <c r="J60" s="3">
-        <v>107700</v>
+        <v>109900</v>
       </c>
       <c r="K60" s="3">
         <v>114400</v>
@@ -2418,7 +2418,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21000</v>
+        <v>21500</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2427,16 +2427,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="H61" s="3">
         <v>3100</v>
       </c>
       <c r="I61" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="J61" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="K61" s="3">
         <v>9900</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E62" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F62" s="3">
         <v>3300</v>
       </c>
       <c r="G62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I62" s="3">
         <v>3100</v>
       </c>
-      <c r="H62" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3000</v>
-      </c>
       <c r="J62" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K62" s="3">
         <v>3200</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50700</v>
+        <v>51800</v>
       </c>
       <c r="E66" s="3">
-        <v>43400</v>
+        <v>44300</v>
       </c>
       <c r="F66" s="3">
-        <v>69500</v>
+        <v>71000</v>
       </c>
       <c r="G66" s="3">
-        <v>32400</v>
+        <v>33000</v>
       </c>
       <c r="H66" s="3">
-        <v>107000</v>
+        <v>109300</v>
       </c>
       <c r="I66" s="3">
-        <v>113800</v>
+        <v>116200</v>
       </c>
       <c r="J66" s="3">
-        <v>123600</v>
+        <v>126200</v>
       </c>
       <c r="K66" s="3">
         <v>135700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-85400</v>
+        <v>-87200</v>
       </c>
       <c r="E72" s="3">
-        <v>-72400</v>
+        <v>-73900</v>
       </c>
       <c r="F72" s="3">
-        <v>-62900</v>
+        <v>-64200</v>
       </c>
       <c r="G72" s="3">
-        <v>-39400</v>
+        <v>-40300</v>
       </c>
       <c r="H72" s="3">
-        <v>-27900</v>
+        <v>-28500</v>
       </c>
       <c r="I72" s="3">
-        <v>-17800</v>
+        <v>-18200</v>
       </c>
       <c r="J72" s="3">
-        <v>-15700</v>
+        <v>-16100</v>
       </c>
       <c r="K72" s="3">
         <v>-14200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="E76" s="3">
         <v>-3500</v>
       </c>
       <c r="F76" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="G76" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="H76" s="3">
-        <v>27500</v>
+        <v>28100</v>
       </c>
       <c r="I76" s="3">
-        <v>36800</v>
+        <v>37600</v>
       </c>
       <c r="J76" s="3">
-        <v>39100</v>
+        <v>39900</v>
       </c>
       <c r="K76" s="3">
         <v>40500</v>
@@ -3051,22 +3051,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13000</v>
+        <v>-13300</v>
       </c>
       <c r="E81" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="F81" s="3">
-        <v>-23500</v>
+        <v>-24000</v>
       </c>
       <c r="G81" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="H81" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="I81" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J81" s="3">
         <v>-1500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E83" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G83" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I83" s="3">
         <v>4800</v>
       </c>
-      <c r="I83" s="3">
-        <v>4700</v>
-      </c>
       <c r="J83" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K83" s="3">
         <v>4300</v>
@@ -3322,22 +3322,22 @@
         <v>-900</v>
       </c>
       <c r="E89" s="3">
-        <v>-9200</v>
+        <v>-9400</v>
       </c>
       <c r="F89" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G89" s="3">
-        <v>-18400</v>
+        <v>-18700</v>
       </c>
       <c r="H89" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="I89" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="J89" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="K89" s="3">
         <v>-22200</v>
@@ -3383,7 +3383,7 @@
         <v>-400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I91" s="3">
         <v>-2300</v>
@@ -3479,22 +3479,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="G94" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H94" s="3">
         <v>-1000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -3675,22 +3675,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10100</v>
+        <v>10300</v>
       </c>
       <c r="E100" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="F100" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="G100" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="H100" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -3747,7 +3747,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E102" s="3">
         <v>200</v>
@@ -3756,16 +3756,16 @@
         <v>-200</v>
       </c>
       <c r="G102" s="3">
-        <v>-7800</v>
+        <v>-8000</v>
       </c>
       <c r="H102" s="3">
         <v>-1800</v>
       </c>
       <c r="I102" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J102" s="3">
-        <v>-13100</v>
+        <v>-13400</v>
       </c>
       <c r="K102" s="3">
         <v>-3200</v>

--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -720,10 +720,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="E8" s="3">
-        <v>14400</v>
+        <v>14200</v>
       </c>
       <c r="F8" s="3">
         <v>2000</v>
@@ -735,10 +735,10 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>58700</v>
+        <v>57900</v>
       </c>
       <c r="J8" s="3">
-        <v>64700</v>
+        <v>63900</v>
       </c>
       <c r="K8" s="3">
         <v>73300</v>
@@ -756,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="E9" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="F9" s="3">
         <v>1100</v>
@@ -771,10 +771,10 @@
         <v>4</v>
       </c>
       <c r="I9" s="3">
-        <v>41200</v>
+        <v>40700</v>
       </c>
       <c r="J9" s="3">
-        <v>47000</v>
+        <v>46400</v>
       </c>
       <c r="K9" s="3">
         <v>47900</v>
@@ -807,10 +807,10 @@
         <v>4</v>
       </c>
       <c r="I10" s="3">
+        <v>17300</v>
+      </c>
+      <c r="J10" s="3">
         <v>17500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>17700</v>
       </c>
       <c r="K10" s="3">
         <v>25300</v>
@@ -847,7 +847,7 @@
         <v>600</v>
       </c>
       <c r="E12" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="3">
         <v>4200</v>
@@ -859,10 +859,10 @@
         <v>6400</v>
       </c>
       <c r="I12" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="J12" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="K12" s="3">
         <v>6400</v>
@@ -916,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="E14" s="3">
         <v>600</v>
@@ -925,7 +925,7 @@
         <v>1200</v>
       </c>
       <c r="G14" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="E17" s="3">
-        <v>24000</v>
+        <v>23700</v>
       </c>
       <c r="F17" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="G17" s="3">
-        <v>18000</v>
+        <v>17700</v>
       </c>
       <c r="H17" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="I17" s="3">
-        <v>58500</v>
+        <v>57700</v>
       </c>
       <c r="J17" s="3">
-        <v>68500</v>
+        <v>67700</v>
       </c>
       <c r="K17" s="3">
         <v>70500</v>
@@ -1037,19 +1037,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15200</v>
+        <v>-15000</v>
       </c>
       <c r="E18" s="3">
-        <v>-9600</v>
+        <v>-9500</v>
       </c>
       <c r="F18" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="G18" s="3">
-        <v>-17800</v>
+        <v>-17600</v>
       </c>
       <c r="H18" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="I18" s="3">
         <v>200</v>
@@ -1095,7 +1095,7 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>-13500</v>
+        <v>-13300</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1125,22 +1125,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13400</v>
+        <v>-13200</v>
       </c>
       <c r="E21" s="3">
-        <v>-7300</v>
+        <v>-7200</v>
       </c>
       <c r="F21" s="3">
-        <v>-17700</v>
+        <v>-17500</v>
       </c>
       <c r="G21" s="3">
-        <v>-13300</v>
+        <v>-13100</v>
       </c>
       <c r="H21" s="3">
         <v>-5300</v>
       </c>
       <c r="I21" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>700</v>
       </c>
       <c r="F22" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G22" s="3">
         <v>1400</v>
@@ -1179,7 +1179,7 @@
         <v>2900</v>
       </c>
       <c r="J22" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="K22" s="3">
         <v>1700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-16000</v>
+        <v>-15800</v>
       </c>
       <c r="E23" s="3">
-        <v>-10200</v>
+        <v>-10000</v>
       </c>
       <c r="F23" s="3">
-        <v>-23800</v>
+        <v>-23500</v>
       </c>
       <c r="G23" s="3">
-        <v>-19000</v>
+        <v>-18800</v>
       </c>
       <c r="H23" s="3">
-        <v>-11400</v>
+        <v>-11200</v>
       </c>
       <c r="I23" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="J23" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="K23" s="3">
         <v>2100</v>
@@ -1251,7 +1251,7 @@
         <v>200</v>
       </c>
       <c r="J24" s="3">
-        <v>-6000</v>
+        <v>-5900</v>
       </c>
       <c r="K24" s="3">
         <v>700</v>
@@ -1305,22 +1305,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16000</v>
+        <v>-15800</v>
       </c>
       <c r="E26" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="F26" s="3">
-        <v>-23800</v>
+        <v>-23500</v>
       </c>
       <c r="G26" s="3">
-        <v>-19000</v>
+        <v>-18800</v>
       </c>
       <c r="H26" s="3">
-        <v>-11400</v>
+        <v>-11200</v>
       </c>
       <c r="I26" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="J26" s="3">
         <v>-1600</v>
@@ -1341,22 +1341,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13300</v>
+        <v>-13100</v>
       </c>
       <c r="E27" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="F27" s="3">
-        <v>-24000</v>
+        <v>-23700</v>
       </c>
       <c r="G27" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="H27" s="3">
-        <v>-9600</v>
+        <v>-9500</v>
       </c>
       <c r="I27" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J27" s="3">
         <v>-1500</v>
@@ -1527,7 +1527,7 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>13500</v>
+        <v>13300</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -1557,22 +1557,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13300</v>
+        <v>-13100</v>
       </c>
       <c r="E33" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="F33" s="3">
-        <v>-24000</v>
+        <v>-23700</v>
       </c>
       <c r="G33" s="3">
-        <v>-12000</v>
+        <v>-11800</v>
       </c>
       <c r="H33" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="I33" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J33" s="3">
         <v>-1500</v>
@@ -1629,22 +1629,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13300</v>
+        <v>-13100</v>
       </c>
       <c r="E35" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="F35" s="3">
-        <v>-24000</v>
+        <v>-23700</v>
       </c>
       <c r="G35" s="3">
-        <v>-12000</v>
+        <v>-11800</v>
       </c>
       <c r="H35" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="I35" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J35" s="3">
         <v>-1500</v>
@@ -1750,13 +1750,13 @@
         <v>500</v>
       </c>
       <c r="H41" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="I41" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="J41" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="K41" s="3">
         <v>20100</v>
@@ -1810,16 +1810,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E43" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="F43" s="3">
-        <v>20200</v>
+        <v>19900</v>
       </c>
       <c r="G43" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -1849,22 +1849,22 @@
         <v>2100</v>
       </c>
       <c r="E44" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F44" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>57400</v>
+        <v>56700</v>
       </c>
       <c r="I44" s="3">
-        <v>68600</v>
+        <v>67700</v>
       </c>
       <c r="J44" s="3">
-        <v>80600</v>
+        <v>79500</v>
       </c>
       <c r="K44" s="3">
         <v>71600</v>
@@ -1891,16 +1891,16 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="H45" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="I45" s="3">
         <v>5600</v>
       </c>
       <c r="J45" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="K45" s="3">
         <v>11400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="E46" s="3">
-        <v>10800</v>
+        <v>10700</v>
       </c>
       <c r="F46" s="3">
-        <v>33500</v>
+        <v>33100</v>
       </c>
       <c r="G46" s="3">
-        <v>13900</v>
+        <v>13700</v>
       </c>
       <c r="H46" s="3">
-        <v>74600</v>
+        <v>73600</v>
       </c>
       <c r="I46" s="3">
-        <v>84800</v>
+        <v>83700</v>
       </c>
       <c r="J46" s="3">
-        <v>97500</v>
+        <v>96200</v>
       </c>
       <c r="K46" s="3">
         <v>104100</v>
@@ -1954,13 +1954,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="E47" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F47" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G47" s="3">
         <v>2900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18400</v>
+        <v>18100</v>
       </c>
       <c r="E48" s="3">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="F48" s="3">
-        <v>27000</v>
+        <v>26600</v>
       </c>
       <c r="G48" s="3">
-        <v>22600</v>
+        <v>22300</v>
       </c>
       <c r="H48" s="3">
-        <v>48900</v>
+        <v>48300</v>
       </c>
       <c r="I48" s="3">
-        <v>50700</v>
+        <v>50000</v>
       </c>
       <c r="J48" s="3">
-        <v>52800</v>
+        <v>52100</v>
       </c>
       <c r="K48" s="3">
         <v>54000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E49" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F49" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G49" s="3">
         <v>4600</v>
       </c>
       <c r="H49" s="3">
-        <v>10600</v>
+        <v>10400</v>
       </c>
       <c r="I49" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="J49" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="K49" s="3">
         <v>10400</v>
@@ -2137,7 +2137,7 @@
         <v>900</v>
       </c>
       <c r="E52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39800</v>
+        <v>39200</v>
       </c>
       <c r="E54" s="3">
-        <v>40700</v>
+        <v>40200</v>
       </c>
       <c r="F54" s="3">
-        <v>67100</v>
+        <v>66200</v>
       </c>
       <c r="G54" s="3">
-        <v>50600</v>
+        <v>49900</v>
       </c>
       <c r="H54" s="3">
-        <v>137400</v>
+        <v>135600</v>
       </c>
       <c r="I54" s="3">
-        <v>153800</v>
+        <v>151800</v>
       </c>
       <c r="J54" s="3">
-        <v>166100</v>
+        <v>164000</v>
       </c>
       <c r="K54" s="3">
         <v>176200</v>
@@ -2286,10 +2286,10 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I57" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J57" s="3">
         <v>3500</v>
@@ -2313,22 +2313,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="F58" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="G58" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="H58" s="3">
-        <v>33900</v>
+        <v>33400</v>
       </c>
       <c r="I58" s="3">
-        <v>38100</v>
+        <v>37600</v>
       </c>
       <c r="J58" s="3">
-        <v>40400</v>
+        <v>39900</v>
       </c>
       <c r="K58" s="3">
         <v>33700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25100</v>
+        <v>24700</v>
       </c>
       <c r="E59" s="3">
-        <v>23700</v>
+        <v>23400</v>
       </c>
       <c r="F59" s="3">
-        <v>52700</v>
+        <v>52000</v>
       </c>
       <c r="G59" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="H59" s="3">
-        <v>58200</v>
+        <v>57500</v>
       </c>
       <c r="I59" s="3">
-        <v>57500</v>
+        <v>56700</v>
       </c>
       <c r="J59" s="3">
-        <v>66000</v>
+        <v>65200</v>
       </c>
       <c r="K59" s="3">
         <v>74200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27600</v>
+        <v>27200</v>
       </c>
       <c r="E60" s="3">
-        <v>38700</v>
+        <v>38200</v>
       </c>
       <c r="F60" s="3">
-        <v>67400</v>
+        <v>66500</v>
       </c>
       <c r="G60" s="3">
-        <v>20900</v>
+        <v>20600</v>
       </c>
       <c r="H60" s="3">
-        <v>95900</v>
+        <v>94600</v>
       </c>
       <c r="I60" s="3">
-        <v>98900</v>
+        <v>97600</v>
       </c>
       <c r="J60" s="3">
-        <v>109900</v>
+        <v>108500</v>
       </c>
       <c r="K60" s="3">
         <v>114400</v>
@@ -2418,7 +2418,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21500</v>
+        <v>21200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2427,13 +2427,13 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="H61" s="3">
         <v>3100</v>
       </c>
       <c r="I61" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="J61" s="3">
         <v>4800</v>
@@ -2457,7 +2457,7 @@
         <v>4000</v>
       </c>
       <c r="E62" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F62" s="3">
         <v>3300</v>
@@ -2466,13 +2466,13 @@
         <v>3200</v>
       </c>
       <c r="H62" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I62" s="3">
         <v>3100</v>
       </c>
       <c r="J62" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="K62" s="3">
         <v>3200</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51800</v>
+        <v>51100</v>
       </c>
       <c r="E66" s="3">
-        <v>44300</v>
+        <v>43700</v>
       </c>
       <c r="F66" s="3">
-        <v>71000</v>
+        <v>70000</v>
       </c>
       <c r="G66" s="3">
-        <v>33000</v>
+        <v>32600</v>
       </c>
       <c r="H66" s="3">
-        <v>109300</v>
+        <v>107800</v>
       </c>
       <c r="I66" s="3">
-        <v>116200</v>
+        <v>114700</v>
       </c>
       <c r="J66" s="3">
-        <v>126200</v>
+        <v>124600</v>
       </c>
       <c r="K66" s="3">
         <v>135700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-87200</v>
+        <v>-86100</v>
       </c>
       <c r="E72" s="3">
-        <v>-73900</v>
+        <v>-73000</v>
       </c>
       <c r="F72" s="3">
-        <v>-64200</v>
+        <v>-63400</v>
       </c>
       <c r="G72" s="3">
-        <v>-40300</v>
+        <v>-39700</v>
       </c>
       <c r="H72" s="3">
-        <v>-28500</v>
+        <v>-28100</v>
       </c>
       <c r="I72" s="3">
-        <v>-18200</v>
+        <v>-18000</v>
       </c>
       <c r="J72" s="3">
-        <v>-16100</v>
+        <v>-15900</v>
       </c>
       <c r="K72" s="3">
         <v>-14200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-12000</v>
+        <v>-11900</v>
       </c>
       <c r="E76" s="3">
         <v>-3500</v>
       </c>
       <c r="F76" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="G76" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="H76" s="3">
-        <v>28100</v>
+        <v>27800</v>
       </c>
       <c r="I76" s="3">
-        <v>37600</v>
+        <v>37100</v>
       </c>
       <c r="J76" s="3">
-        <v>39900</v>
+        <v>39400</v>
       </c>
       <c r="K76" s="3">
         <v>40500</v>
@@ -3051,22 +3051,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13300</v>
+        <v>-13100</v>
       </c>
       <c r="E81" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="F81" s="3">
-        <v>-24000</v>
+        <v>-23700</v>
       </c>
       <c r="G81" s="3">
-        <v>-12000</v>
+        <v>-11800</v>
       </c>
       <c r="H81" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="I81" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="J81" s="3">
         <v>-1500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F83" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G83" s="3">
         <v>4300</v>
       </c>
       <c r="H83" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="I83" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J83" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K83" s="3">
         <v>4300</v>
@@ -3322,22 +3322,22 @@
         <v>-900</v>
       </c>
       <c r="E89" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="F89" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="G89" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="H89" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I89" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="J89" s="3">
-        <v>-13400</v>
+        <v>-13200</v>
       </c>
       <c r="K89" s="3">
         <v>-22200</v>
@@ -3383,7 +3383,7 @@
         <v>-400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="I91" s="3">
         <v>-2300</v>
@@ -3479,22 +3479,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="G94" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="H94" s="3">
         <v>-1000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -3675,19 +3675,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="E100" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="F100" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="G100" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="H100" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="I100" s="3">
         <v>-1500</v>
@@ -3756,16 +3756,16 @@
         <v>-200</v>
       </c>
       <c r="G102" s="3">
-        <v>-8000</v>
+        <v>-7900</v>
       </c>
       <c r="H102" s="3">
         <v>-1800</v>
       </c>
       <c r="I102" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J102" s="3">
-        <v>-13400</v>
+        <v>-13200</v>
       </c>
       <c r="K102" s="3">
         <v>-3200</v>

--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -720,10 +720,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="E8" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="F8" s="3">
         <v>2000</v>
@@ -735,10 +735,10 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>57900</v>
+        <v>58900</v>
       </c>
       <c r="J8" s="3">
-        <v>63900</v>
+        <v>65000</v>
       </c>
       <c r="K8" s="3">
         <v>73300</v>
@@ -756,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="E9" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="F9" s="3">
         <v>1100</v>
@@ -771,10 +771,10 @@
         <v>4</v>
       </c>
       <c r="I9" s="3">
-        <v>40700</v>
+        <v>41300</v>
       </c>
       <c r="J9" s="3">
-        <v>46400</v>
+        <v>47100</v>
       </c>
       <c r="K9" s="3">
         <v>47900</v>
@@ -807,10 +807,10 @@
         <v>4</v>
       </c>
       <c r="I10" s="3">
-        <v>17300</v>
+        <v>17600</v>
       </c>
       <c r="J10" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="K10" s="3">
         <v>25300</v>
@@ -847,22 +847,22 @@
         <v>600</v>
       </c>
       <c r="E12" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F12" s="3">
         <v>4200</v>
       </c>
       <c r="G12" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="H12" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="I12" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="J12" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="K12" s="3">
         <v>6400</v>
@@ -916,7 +916,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E14" s="3">
         <v>600</v>
@@ -925,7 +925,7 @@
         <v>1200</v>
       </c>
       <c r="G14" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="E17" s="3">
-        <v>23700</v>
+        <v>24100</v>
       </c>
       <c r="F17" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="G17" s="3">
-        <v>17700</v>
+        <v>18000</v>
       </c>
       <c r="H17" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="I17" s="3">
-        <v>57700</v>
+        <v>58700</v>
       </c>
       <c r="J17" s="3">
-        <v>67700</v>
+        <v>68800</v>
       </c>
       <c r="K17" s="3">
         <v>70500</v>
@@ -1037,19 +1037,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="E18" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="F18" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="G18" s="3">
-        <v>-17600</v>
+        <v>-17900</v>
       </c>
       <c r="H18" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="I18" s="3">
         <v>200</v>
@@ -1095,7 +1095,7 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>-13300</v>
+        <v>-13500</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1125,22 +1125,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13200</v>
+        <v>-13500</v>
       </c>
       <c r="E21" s="3">
-        <v>-7200</v>
+        <v>-7300</v>
       </c>
       <c r="F21" s="3">
-        <v>-17500</v>
+        <v>-17800</v>
       </c>
       <c r="G21" s="3">
-        <v>-13100</v>
+        <v>-13300</v>
       </c>
       <c r="H21" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="I21" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>700</v>
       </c>
       <c r="F22" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G22" s="3">
         <v>1400</v>
@@ -1179,7 +1179,7 @@
         <v>2900</v>
       </c>
       <c r="J22" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K22" s="3">
         <v>1700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15800</v>
+        <v>-16000</v>
       </c>
       <c r="E23" s="3">
-        <v>-10000</v>
+        <v>-10200</v>
       </c>
       <c r="F23" s="3">
-        <v>-23500</v>
+        <v>-23900</v>
       </c>
       <c r="G23" s="3">
-        <v>-18800</v>
+        <v>-19100</v>
       </c>
       <c r="H23" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="I23" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="J23" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="K23" s="3">
         <v>2100</v>
@@ -1251,7 +1251,7 @@
         <v>200</v>
       </c>
       <c r="J24" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="K24" s="3">
         <v>700</v>
@@ -1305,22 +1305,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15800</v>
+        <v>-16100</v>
       </c>
       <c r="E26" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="F26" s="3">
-        <v>-23500</v>
+        <v>-23900</v>
       </c>
       <c r="G26" s="3">
-        <v>-18800</v>
+        <v>-19100</v>
       </c>
       <c r="H26" s="3">
-        <v>-11200</v>
+        <v>-11400</v>
       </c>
       <c r="I26" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="J26" s="3">
         <v>-1600</v>
@@ -1341,22 +1341,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13100</v>
+        <v>-13300</v>
       </c>
       <c r="E27" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="F27" s="3">
-        <v>-23700</v>
+        <v>-24100</v>
       </c>
       <c r="G27" s="3">
-        <v>-14100</v>
+        <v>-14300</v>
       </c>
       <c r="H27" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="I27" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J27" s="3">
         <v>-1500</v>
@@ -1527,7 +1527,7 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>13300</v>
+        <v>13500</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -1557,22 +1557,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13100</v>
+        <v>-13300</v>
       </c>
       <c r="E33" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="F33" s="3">
-        <v>-23700</v>
+        <v>-24100</v>
       </c>
       <c r="G33" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="H33" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="I33" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J33" s="3">
         <v>-1500</v>
@@ -1629,22 +1629,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13100</v>
+        <v>-13300</v>
       </c>
       <c r="E35" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="F35" s="3">
-        <v>-23700</v>
+        <v>-24100</v>
       </c>
       <c r="G35" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="H35" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="I35" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J35" s="3">
         <v>-1500</v>
@@ -1750,13 +1750,13 @@
         <v>500</v>
       </c>
       <c r="H41" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="I41" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="J41" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="K41" s="3">
         <v>20100</v>
@@ -1810,16 +1810,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E43" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F43" s="3">
-        <v>19900</v>
+        <v>20300</v>
       </c>
       <c r="G43" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -1849,22 +1849,22 @@
         <v>2100</v>
       </c>
       <c r="E44" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F44" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>56700</v>
+        <v>57600</v>
       </c>
       <c r="I44" s="3">
-        <v>67700</v>
+        <v>68800</v>
       </c>
       <c r="J44" s="3">
-        <v>79500</v>
+        <v>80800</v>
       </c>
       <c r="K44" s="3">
         <v>71600</v>
@@ -1891,16 +1891,16 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="H45" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="I45" s="3">
         <v>5600</v>
       </c>
       <c r="J45" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="K45" s="3">
         <v>11400</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9900</v>
+        <v>10100</v>
       </c>
       <c r="E46" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="F46" s="3">
-        <v>33100</v>
+        <v>33600</v>
       </c>
       <c r="G46" s="3">
-        <v>13700</v>
+        <v>13900</v>
       </c>
       <c r="H46" s="3">
-        <v>73600</v>
+        <v>74900</v>
       </c>
       <c r="I46" s="3">
-        <v>83700</v>
+        <v>85100</v>
       </c>
       <c r="J46" s="3">
-        <v>96200</v>
+        <v>97800</v>
       </c>
       <c r="K46" s="3">
         <v>104100</v>
@@ -1954,13 +1954,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="E47" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="F47" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G47" s="3">
         <v>2900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="E48" s="3">
-        <v>23000</v>
+        <v>23300</v>
       </c>
       <c r="F48" s="3">
-        <v>26600</v>
+        <v>27000</v>
       </c>
       <c r="G48" s="3">
-        <v>22300</v>
+        <v>22700</v>
       </c>
       <c r="H48" s="3">
-        <v>48300</v>
+        <v>49100</v>
       </c>
       <c r="I48" s="3">
-        <v>50000</v>
+        <v>50900</v>
       </c>
       <c r="J48" s="3">
-        <v>52100</v>
+        <v>53000</v>
       </c>
       <c r="K48" s="3">
         <v>54000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E49" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F49" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G49" s="3">
         <v>4600</v>
       </c>
       <c r="H49" s="3">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="I49" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="J49" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="K49" s="3">
         <v>10400</v>
@@ -2137,19 +2137,19 @@
         <v>900</v>
       </c>
       <c r="E52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
       </c>
       <c r="G52" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
       </c>
       <c r="I52" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J52" s="3">
         <v>600</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39200</v>
+        <v>39900</v>
       </c>
       <c r="E54" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="F54" s="3">
-        <v>66200</v>
+        <v>67300</v>
       </c>
       <c r="G54" s="3">
-        <v>49900</v>
+        <v>50700</v>
       </c>
       <c r="H54" s="3">
-        <v>135600</v>
+        <v>137900</v>
       </c>
       <c r="I54" s="3">
-        <v>151800</v>
+        <v>154300</v>
       </c>
       <c r="J54" s="3">
-        <v>164000</v>
+        <v>166700</v>
       </c>
       <c r="K54" s="3">
         <v>176200</v>
@@ -2277,7 +2277,7 @@
         <v>2500</v>
       </c>
       <c r="E57" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F57" s="3">
         <v>2500</v>
@@ -2286,10 +2286,10 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I57" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J57" s="3">
         <v>3500</v>
@@ -2313,22 +2313,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>12100</v>
+        <v>12300</v>
       </c>
       <c r="F58" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="G58" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H58" s="3">
-        <v>33400</v>
+        <v>34000</v>
       </c>
       <c r="I58" s="3">
-        <v>37600</v>
+        <v>38200</v>
       </c>
       <c r="J58" s="3">
-        <v>39900</v>
+        <v>40500</v>
       </c>
       <c r="K58" s="3">
         <v>33700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24700</v>
+        <v>25200</v>
       </c>
       <c r="E59" s="3">
-        <v>23400</v>
+        <v>23800</v>
       </c>
       <c r="F59" s="3">
-        <v>52000</v>
+        <v>52900</v>
       </c>
       <c r="G59" s="3">
-        <v>12600</v>
+        <v>12900</v>
       </c>
       <c r="H59" s="3">
-        <v>57500</v>
+        <v>58400</v>
       </c>
       <c r="I59" s="3">
-        <v>56700</v>
+        <v>57700</v>
       </c>
       <c r="J59" s="3">
-        <v>65200</v>
+        <v>66300</v>
       </c>
       <c r="K59" s="3">
         <v>74200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27200</v>
+        <v>27700</v>
       </c>
       <c r="E60" s="3">
-        <v>38200</v>
+        <v>38800</v>
       </c>
       <c r="F60" s="3">
-        <v>66500</v>
+        <v>67700</v>
       </c>
       <c r="G60" s="3">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="H60" s="3">
-        <v>94600</v>
+        <v>96200</v>
       </c>
       <c r="I60" s="3">
-        <v>97600</v>
+        <v>99300</v>
       </c>
       <c r="J60" s="3">
-        <v>108500</v>
+        <v>110300</v>
       </c>
       <c r="K60" s="3">
         <v>114400</v>
@@ -2418,7 +2418,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21200</v>
+        <v>21600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2427,16 +2427,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="H61" s="3">
         <v>3100</v>
       </c>
       <c r="I61" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="J61" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K61" s="3">
         <v>9900</v>
@@ -2457,7 +2457,7 @@
         <v>4000</v>
       </c>
       <c r="E62" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F62" s="3">
         <v>3300</v>
@@ -2466,13 +2466,13 @@
         <v>3200</v>
       </c>
       <c r="H62" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I62" s="3">
         <v>3100</v>
       </c>
       <c r="J62" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K62" s="3">
         <v>3200</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51100</v>
+        <v>52000</v>
       </c>
       <c r="E66" s="3">
-        <v>43700</v>
+        <v>44400</v>
       </c>
       <c r="F66" s="3">
-        <v>70000</v>
+        <v>71200</v>
       </c>
       <c r="G66" s="3">
-        <v>32600</v>
+        <v>33200</v>
       </c>
       <c r="H66" s="3">
-        <v>107800</v>
+        <v>109600</v>
       </c>
       <c r="I66" s="3">
-        <v>114700</v>
+        <v>116600</v>
       </c>
       <c r="J66" s="3">
-        <v>124600</v>
+        <v>126600</v>
       </c>
       <c r="K66" s="3">
         <v>135700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-86100</v>
+        <v>-87500</v>
       </c>
       <c r="E72" s="3">
-        <v>-73000</v>
+        <v>-74200</v>
       </c>
       <c r="F72" s="3">
-        <v>-63400</v>
+        <v>-64500</v>
       </c>
       <c r="G72" s="3">
-        <v>-39700</v>
+        <v>-40400</v>
       </c>
       <c r="H72" s="3">
-        <v>-28100</v>
+        <v>-28600</v>
       </c>
       <c r="I72" s="3">
-        <v>-18000</v>
+        <v>-18300</v>
       </c>
       <c r="J72" s="3">
-        <v>-15900</v>
+        <v>-16100</v>
       </c>
       <c r="K72" s="3">
         <v>-14200</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-11900</v>
+        <v>-12100</v>
       </c>
       <c r="E76" s="3">
-        <v>-3500</v>
+        <v>-3600</v>
       </c>
       <c r="F76" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="G76" s="3">
-        <v>17300</v>
+        <v>17600</v>
       </c>
       <c r="H76" s="3">
-        <v>27800</v>
+        <v>28200</v>
       </c>
       <c r="I76" s="3">
-        <v>37100</v>
+        <v>37800</v>
       </c>
       <c r="J76" s="3">
-        <v>39400</v>
+        <v>40100</v>
       </c>
       <c r="K76" s="3">
         <v>40500</v>
@@ -3051,22 +3051,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13100</v>
+        <v>-13300</v>
       </c>
       <c r="E81" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="F81" s="3">
-        <v>-23700</v>
+        <v>-24100</v>
       </c>
       <c r="G81" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="H81" s="3">
-        <v>-10100</v>
+        <v>-10300</v>
       </c>
       <c r="I81" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="J81" s="3">
         <v>-1500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E83" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F83" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G83" s="3">
         <v>4300</v>
       </c>
       <c r="H83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I83" s="3">
         <v>4800</v>
       </c>
-      <c r="I83" s="3">
-        <v>4700</v>
-      </c>
       <c r="J83" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K83" s="3">
         <v>4300</v>
@@ -3322,22 +3322,22 @@
         <v>-900</v>
       </c>
       <c r="E89" s="3">
-        <v>-9300</v>
+        <v>-9400</v>
       </c>
       <c r="F89" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="G89" s="3">
-        <v>-18500</v>
+        <v>-18800</v>
       </c>
       <c r="H89" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="I89" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="J89" s="3">
-        <v>-13200</v>
+        <v>-13400</v>
       </c>
       <c r="K89" s="3">
         <v>-22200</v>
@@ -3383,7 +3383,7 @@
         <v>-400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I91" s="3">
         <v>-2300</v>
@@ -3479,22 +3479,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="G94" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H94" s="3">
         <v>-1000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -3675,19 +3675,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="E100" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="F100" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="G100" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="H100" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="I100" s="3">
         <v>-1500</v>
@@ -3756,16 +3756,16 @@
         <v>-200</v>
       </c>
       <c r="G102" s="3">
-        <v>-7900</v>
+        <v>-8000</v>
       </c>
       <c r="H102" s="3">
         <v>-1800</v>
       </c>
       <c r="I102" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J102" s="3">
-        <v>-13200</v>
+        <v>-13400</v>
       </c>
       <c r="K102" s="3">
         <v>-3200</v>

--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>SEED</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42643</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42277</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41912</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41547</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41182</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40816</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8200</v>
+        <v>7300</v>
       </c>
       <c r="E8" s="3">
-        <v>14500</v>
+        <v>8300</v>
       </c>
       <c r="F8" s="3">
+        <v>14600</v>
+      </c>
+      <c r="G8" s="3">
         <v>2000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>58900</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>59400</v>
+      </c>
+      <c r="K8" s="3">
         <v>65000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>79200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>84200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E9" s="3">
         <v>7700</v>
       </c>
-      <c r="E9" s="3">
-        <v>16500</v>
-      </c>
       <c r="F9" s="3">
+        <v>16600</v>
+      </c>
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>41300</v>
-      </c>
       <c r="J9" s="3">
+        <v>41700</v>
+      </c>
+      <c r="K9" s="3">
         <v>47100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>55600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>55100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="E10" s="3">
+        <v>600</v>
+      </c>
+      <c r="F10" s="3">
         <v>-2000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>17600</v>
-      </c>
       <c r="J10" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K10" s="3">
         <v>17800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>25300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29100</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
-        <v>4200</v>
-      </c>
       <c r="G12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H12" s="3">
         <v>6100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>6500</v>
       </c>
-      <c r="I12" s="3">
-        <v>7600</v>
-      </c>
       <c r="J12" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K12" s="3">
         <v>6300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6600</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,29 +925,32 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5300</v>
+        <v>12000</v>
       </c>
       <c r="E14" s="3">
-        <v>600</v>
+        <v>5400</v>
       </c>
       <c r="F14" s="3">
+        <v>700</v>
+      </c>
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
-        <v>7000</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+        <v>7100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -942,12 +961,15 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>23500</v>
+        <v>30000</v>
       </c>
       <c r="E17" s="3">
-        <v>24100</v>
+        <v>23700</v>
       </c>
       <c r="F17" s="3">
-        <v>8800</v>
+        <v>24300</v>
       </c>
       <c r="G17" s="3">
-        <v>18000</v>
+        <v>8900</v>
       </c>
       <c r="H17" s="3">
-        <v>10300</v>
+        <v>18200</v>
       </c>
       <c r="I17" s="3">
-        <v>58700</v>
+        <v>10400</v>
       </c>
       <c r="J17" s="3">
+        <v>59100</v>
+      </c>
+      <c r="K17" s="3">
         <v>68800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>79700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>82300</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-15300</v>
+        <v>-22700</v>
       </c>
       <c r="E18" s="3">
-        <v>-9600</v>
+        <v>-15400</v>
       </c>
       <c r="F18" s="3">
-        <v>-6800</v>
+        <v>-9700</v>
       </c>
       <c r="G18" s="3">
-        <v>-17900</v>
+        <v>-6900</v>
       </c>
       <c r="H18" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-10300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,163 +1115,176 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>-13500</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13500</v>
+        <v>-17400</v>
       </c>
       <c r="E21" s="3">
-        <v>-7300</v>
+        <v>-13600</v>
       </c>
       <c r="F21" s="3">
-        <v>-17800</v>
+        <v>-7400</v>
       </c>
       <c r="G21" s="3">
-        <v>-13300</v>
+        <v>-17900</v>
       </c>
       <c r="H21" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-5400</v>
       </c>
-      <c r="I21" s="3">
-        <v>5100</v>
-      </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>8100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3800</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-16000</v>
+        <v>-20000</v>
       </c>
       <c r="E23" s="3">
-        <v>-10200</v>
+        <v>-16200</v>
       </c>
       <c r="F23" s="3">
-        <v>-23900</v>
+        <v>-10300</v>
       </c>
       <c r="G23" s="3">
-        <v>-19100</v>
+        <v>-24100</v>
       </c>
       <c r="H23" s="3">
-        <v>-11400</v>
+        <v>-19200</v>
       </c>
       <c r="I23" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1248,23 +1293,26 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-16100</v>
+        <v>-20000</v>
       </c>
       <c r="E26" s="3">
-        <v>-10300</v>
+        <v>-16200</v>
       </c>
       <c r="F26" s="3">
-        <v>-23900</v>
+        <v>-10400</v>
       </c>
       <c r="G26" s="3">
-        <v>-19100</v>
+        <v>-24100</v>
       </c>
       <c r="H26" s="3">
-        <v>-11400</v>
+        <v>-19200</v>
       </c>
       <c r="I26" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13300</v>
+        <v>-14400</v>
       </c>
       <c r="E27" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-9700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-24100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-14300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,29 +1463,32 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I29" s="3">
         <v>-600</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>4</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-4000</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>13500</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>13700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13300</v>
+        <v>-14400</v>
       </c>
       <c r="E33" s="3">
-        <v>-9700</v>
+        <v>-13500</v>
       </c>
       <c r="F33" s="3">
-        <v>-24100</v>
+        <v>-9800</v>
       </c>
       <c r="G33" s="3">
-        <v>-12000</v>
+        <v>-24200</v>
       </c>
       <c r="H33" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-10300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13300</v>
+        <v>-14400</v>
       </c>
       <c r="E35" s="3">
-        <v>-9700</v>
+        <v>-13500</v>
       </c>
       <c r="F35" s="3">
-        <v>-24100</v>
+        <v>-9800</v>
       </c>
       <c r="G35" s="3">
-        <v>-12000</v>
+        <v>-24200</v>
       </c>
       <c r="H35" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-10300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42643</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42277</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41912</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41547</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41182</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40816</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
-        <v>8500</v>
-      </c>
       <c r="I41" s="3">
-        <v>10300</v>
+        <v>8600</v>
       </c>
       <c r="J41" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K41" s="3">
         <v>7200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>19300</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1803,261 +1892,285 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
-        <v>5500</v>
-      </c>
       <c r="F43" s="3">
-        <v>20300</v>
+        <v>5600</v>
       </c>
       <c r="G43" s="3">
+        <v>20400</v>
+      </c>
+      <c r="H43" s="3">
         <v>8800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>700</v>
+      </c>
+      <c r="E44" s="3">
         <v>2100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4500</v>
       </c>
-      <c r="F44" s="3">
-        <v>12800</v>
-      </c>
       <c r="G44" s="3">
+        <v>12900</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
-        <v>57600</v>
-      </c>
       <c r="I44" s="3">
-        <v>68800</v>
+        <v>58100</v>
       </c>
       <c r="J44" s="3">
+        <v>69300</v>
+      </c>
+      <c r="K44" s="3">
         <v>80800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>71600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>40500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>31300</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4500</v>
       </c>
-      <c r="H45" s="3">
-        <v>8600</v>
-      </c>
       <c r="I45" s="3">
-        <v>5600</v>
+        <v>8700</v>
       </c>
       <c r="J45" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K45" s="3">
         <v>9200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15700</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10100</v>
+        <v>9200</v>
       </c>
       <c r="E46" s="3">
-        <v>10800</v>
+        <v>10200</v>
       </c>
       <c r="F46" s="3">
-        <v>33600</v>
+        <v>10900</v>
       </c>
       <c r="G46" s="3">
-        <v>13900</v>
+        <v>33900</v>
       </c>
       <c r="H46" s="3">
-        <v>74900</v>
+        <v>14000</v>
       </c>
       <c r="I46" s="3">
-        <v>85100</v>
+        <v>75400</v>
       </c>
       <c r="J46" s="3">
+        <v>85800</v>
+      </c>
+      <c r="K46" s="3">
         <v>97800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>104100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>80200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>75800</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8200</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
-        <v>2600</v>
+        <v>8300</v>
       </c>
       <c r="F47" s="3">
         <v>2600</v>
       </c>
       <c r="G47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2900</v>
       </c>
-      <c r="H47" s="3">
-        <v>2900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18400</v>
+        <v>8000</v>
       </c>
       <c r="E48" s="3">
-        <v>23300</v>
+        <v>18600</v>
       </c>
       <c r="F48" s="3">
-        <v>27000</v>
+        <v>23500</v>
       </c>
       <c r="G48" s="3">
-        <v>22700</v>
+        <v>27300</v>
       </c>
       <c r="H48" s="3">
-        <v>49100</v>
+        <v>22800</v>
       </c>
       <c r="I48" s="3">
-        <v>50900</v>
+        <v>49500</v>
       </c>
       <c r="J48" s="3">
+        <v>51300</v>
+      </c>
+      <c r="K48" s="3">
         <v>53000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>54000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>45500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>900</v>
+      </c>
+      <c r="E49" s="3">
         <v>2300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3900</v>
       </c>
-      <c r="G49" s="3">
-        <v>4600</v>
-      </c>
       <c r="H49" s="3">
-        <v>10600</v>
+        <v>4700</v>
       </c>
       <c r="I49" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J49" s="3">
         <v>11800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39900</v>
+        <v>18800</v>
       </c>
       <c r="E54" s="3">
-        <v>40900</v>
+        <v>40200</v>
       </c>
       <c r="F54" s="3">
-        <v>67300</v>
+        <v>41200</v>
       </c>
       <c r="G54" s="3">
-        <v>50700</v>
+        <v>67900</v>
       </c>
       <c r="H54" s="3">
-        <v>137900</v>
+        <v>51100</v>
       </c>
       <c r="I54" s="3">
-        <v>154300</v>
+        <v>138900</v>
       </c>
       <c r="J54" s="3">
+        <v>155500</v>
+      </c>
+      <c r="K54" s="3">
         <v>166700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>176200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>140000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>121500</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,8 +2397,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2277,215 +2407,233 @@
         <v>2500</v>
       </c>
       <c r="E57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>21700</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>12400</v>
+      </c>
+      <c r="G58" s="3">
         <v>12300</v>
       </c>
-      <c r="F58" s="3">
-        <v>12200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>7900</v>
-      </c>
       <c r="H58" s="3">
-        <v>34000</v>
+        <v>8000</v>
       </c>
       <c r="I58" s="3">
-        <v>38200</v>
+        <v>34200</v>
       </c>
       <c r="J58" s="3">
+        <v>38500</v>
+      </c>
+      <c r="K58" s="3">
         <v>40500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>33700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25200</v>
+        <v>21000</v>
       </c>
       <c r="E59" s="3">
-        <v>23800</v>
+        <v>25300</v>
       </c>
       <c r="F59" s="3">
-        <v>52900</v>
+        <v>24000</v>
       </c>
       <c r="G59" s="3">
-        <v>12900</v>
+        <v>53300</v>
       </c>
       <c r="H59" s="3">
-        <v>58400</v>
+        <v>13000</v>
       </c>
       <c r="I59" s="3">
-        <v>57700</v>
+        <v>58900</v>
       </c>
       <c r="J59" s="3">
+        <v>58100</v>
+      </c>
+      <c r="K59" s="3">
         <v>66300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>74200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>79900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>70100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>27700</v>
+        <v>45200</v>
       </c>
       <c r="E60" s="3">
-        <v>38800</v>
+        <v>27900</v>
       </c>
       <c r="F60" s="3">
-        <v>67700</v>
+        <v>39100</v>
       </c>
       <c r="G60" s="3">
-        <v>21000</v>
+        <v>68200</v>
       </c>
       <c r="H60" s="3">
-        <v>96200</v>
+        <v>21200</v>
       </c>
       <c r="I60" s="3">
-        <v>99300</v>
+        <v>96900</v>
       </c>
       <c r="J60" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K60" s="3">
         <v>110300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>114400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>86800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>79000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>21700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>8900</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>3100</v>
+        <v>9000</v>
       </c>
       <c r="I61" s="3">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="J61" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K61" s="3">
         <v>4900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5000</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4000</v>
+        <v>2900</v>
       </c>
       <c r="E62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F62" s="3">
         <v>4500</v>
       </c>
-      <c r="F62" s="3">
-        <v>3300</v>
-      </c>
       <c r="G62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H62" s="3">
         <v>3200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>4300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>3100</v>
       </c>
       <c r="J62" s="3">
         <v>3100</v>
       </c>
       <c r="K62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L62" s="3">
         <v>3200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3100</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52000</v>
+        <v>41000</v>
       </c>
       <c r="E66" s="3">
-        <v>44400</v>
+        <v>52400</v>
       </c>
       <c r="F66" s="3">
-        <v>71200</v>
+        <v>44800</v>
       </c>
       <c r="G66" s="3">
-        <v>33200</v>
+        <v>71800</v>
       </c>
       <c r="H66" s="3">
-        <v>109600</v>
+        <v>33400</v>
       </c>
       <c r="I66" s="3">
-        <v>116600</v>
+        <v>110500</v>
       </c>
       <c r="J66" s="3">
+        <v>117500</v>
+      </c>
+      <c r="K66" s="3">
         <v>126600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>135700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>102500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>83000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-87500</v>
+        <v>-102600</v>
       </c>
       <c r="E72" s="3">
-        <v>-74200</v>
+        <v>-88200</v>
       </c>
       <c r="F72" s="3">
-        <v>-64500</v>
+        <v>-74800</v>
       </c>
       <c r="G72" s="3">
-        <v>-40400</v>
+        <v>-65000</v>
       </c>
       <c r="H72" s="3">
-        <v>-28600</v>
+        <v>-40700</v>
       </c>
       <c r="I72" s="3">
-        <v>-18300</v>
+        <v>-28800</v>
       </c>
       <c r="J72" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-16100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-12100</v>
+        <v>-22200</v>
       </c>
       <c r="E76" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3900</v>
       </c>
-      <c r="G76" s="3">
-        <v>17600</v>
-      </c>
       <c r="H76" s="3">
-        <v>28200</v>
+        <v>17700</v>
       </c>
       <c r="I76" s="3">
-        <v>37800</v>
+        <v>28400</v>
       </c>
       <c r="J76" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K76" s="3">
         <v>40100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38400</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42643</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42277</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41912</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41547</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41182</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40816</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13300</v>
+        <v>-14400</v>
       </c>
       <c r="E81" s="3">
-        <v>-9700</v>
+        <v>-13500</v>
       </c>
       <c r="F81" s="3">
-        <v>-24100</v>
+        <v>-9800</v>
       </c>
       <c r="G81" s="3">
-        <v>-12000</v>
+        <v>-24200</v>
       </c>
       <c r="H81" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-10300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L83" s="3">
         <v>4300</v>
       </c>
-      <c r="H83" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>4300</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3500</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
-        <v>-9400</v>
-      </c>
       <c r="F89" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-1600</v>
       </c>
-      <c r="G89" s="3">
-        <v>-18800</v>
-      </c>
       <c r="H89" s="3">
-        <v>7500</v>
+        <v>-19000</v>
       </c>
       <c r="I89" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J89" s="3">
         <v>8200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10100</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6600</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-6700</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>7500</v>
       </c>
-      <c r="G94" s="3">
-        <v>4600</v>
-      </c>
       <c r="H94" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-22900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3560,9 +3793,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10300</v>
+        <v>3100</v>
       </c>
       <c r="E100" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F100" s="3">
         <v>9900</v>
       </c>
-      <c r="F100" s="3">
-        <v>-5500</v>
-      </c>
       <c r="G100" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="H100" s="3">
         <v>7400</v>
       </c>
-      <c r="H100" s="3">
-        <v>-7600</v>
-      </c>
       <c r="I100" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>29200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>12000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-600</v>
-      </c>
       <c r="I101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>-8000</v>
-      </c>
       <c r="H102" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-25200</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -723,16 +723,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7300</v>
+        <v>6800</v>
       </c>
       <c r="E8" s="3">
-        <v>8300</v>
+        <v>7700</v>
       </c>
       <c r="F8" s="3">
-        <v>14600</v>
+        <v>13600</v>
       </c>
       <c r="G8" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -741,7 +741,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>59400</v>
+        <v>55400</v>
       </c>
       <c r="K8" s="3">
         <v>65000</v>
@@ -762,16 +762,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="E9" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="F9" s="3">
-        <v>16600</v>
+        <v>15500</v>
       </c>
       <c r="G9" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="3">
-        <v>41700</v>
+        <v>38900</v>
       </c>
       <c r="K9" s="3">
         <v>47100</v>
@@ -801,13 +801,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E10" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F10" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G10" s="3">
         <v>900</v>
@@ -819,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="K10" s="3">
         <v>17800</v>
@@ -863,19 +863,19 @@
         <v>600</v>
       </c>
       <c r="F12" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="H12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I12" s="3">
         <v>6100</v>
       </c>
-      <c r="I12" s="3">
-        <v>6500</v>
-      </c>
       <c r="J12" s="3">
-        <v>7700</v>
+        <v>7200</v>
       </c>
       <c r="K12" s="3">
         <v>6300</v>
@@ -935,19 +935,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="E14" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="F14" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G14" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H14" s="3">
-        <v>7100</v>
+        <v>6600</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30000</v>
+        <v>28000</v>
       </c>
       <c r="E17" s="3">
-        <v>23700</v>
+        <v>22100</v>
       </c>
       <c r="F17" s="3">
-        <v>24300</v>
+        <v>22700</v>
       </c>
       <c r="G17" s="3">
-        <v>8900</v>
+        <v>8300</v>
       </c>
       <c r="H17" s="3">
-        <v>18200</v>
+        <v>17000</v>
       </c>
       <c r="I17" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="J17" s="3">
-        <v>59100</v>
+        <v>55200</v>
       </c>
       <c r="K17" s="3">
         <v>68800</v>
@@ -1066,22 +1066,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-22700</v>
+        <v>-21200</v>
       </c>
       <c r="E18" s="3">
-        <v>-15400</v>
+        <v>-14400</v>
       </c>
       <c r="F18" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-9700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-10300</v>
       </c>
       <c r="J18" s="3">
         <v>200</v>
@@ -1122,16 +1122,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>-13700</v>
+        <v>-12800</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-17400</v>
+        <v>-16200</v>
       </c>
       <c r="E21" s="3">
-        <v>-13600</v>
+        <v>-12700</v>
       </c>
       <c r="F21" s="3">
-        <v>-7400</v>
+        <v>-6900</v>
       </c>
       <c r="G21" s="3">
-        <v>-17900</v>
+        <v>-16700</v>
       </c>
       <c r="H21" s="3">
-        <v>-13400</v>
+        <v>-12500</v>
       </c>
       <c r="I21" s="3">
-        <v>-5400</v>
+        <v>-5000</v>
       </c>
       <c r="J21" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
         <v>900</v>
@@ -1209,16 +1209,16 @@
         <v>700</v>
       </c>
       <c r="G22" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="H22" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J22" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="K22" s="3">
         <v>3100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-20000</v>
+        <v>-18700</v>
       </c>
       <c r="E23" s="3">
-        <v>-16200</v>
+        <v>-15100</v>
       </c>
       <c r="F23" s="3">
-        <v>-10300</v>
+        <v>-9600</v>
       </c>
       <c r="G23" s="3">
-        <v>-24100</v>
+        <v>-22500</v>
       </c>
       <c r="H23" s="3">
-        <v>-19200</v>
+        <v>-18000</v>
       </c>
       <c r="I23" s="3">
-        <v>-11500</v>
+        <v>-10800</v>
       </c>
       <c r="J23" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="K23" s="3">
         <v>-7600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20000</v>
+        <v>-18700</v>
       </c>
       <c r="E26" s="3">
-        <v>-16200</v>
+        <v>-15200</v>
       </c>
       <c r="F26" s="3">
-        <v>-10400</v>
+        <v>-9700</v>
       </c>
       <c r="G26" s="3">
-        <v>-24100</v>
+        <v>-22500</v>
       </c>
       <c r="H26" s="3">
-        <v>-19200</v>
+        <v>-18000</v>
       </c>
       <c r="I26" s="3">
-        <v>-11500</v>
+        <v>-10800</v>
       </c>
       <c r="J26" s="3">
-        <v>-2800</v>
+        <v>-2600</v>
       </c>
       <c r="K26" s="3">
         <v>-1600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14400</v>
+        <v>-13500</v>
       </c>
       <c r="E27" s="3">
-        <v>-13500</v>
+        <v>-12600</v>
       </c>
       <c r="F27" s="3">
-        <v>-9800</v>
+        <v>-9200</v>
       </c>
       <c r="G27" s="3">
-        <v>-24200</v>
+        <v>-22600</v>
       </c>
       <c r="H27" s="3">
-        <v>-14400</v>
+        <v>-13400</v>
       </c>
       <c r="I27" s="3">
-        <v>-9700</v>
+        <v>-9100</v>
       </c>
       <c r="J27" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="K27" s="3">
         <v>-1500</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="I29" s="3">
         <v>-600</v>
@@ -1590,16 +1590,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>13700</v>
+        <v>12800</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14400</v>
+        <v>-13500</v>
       </c>
       <c r="E33" s="3">
-        <v>-13500</v>
+        <v>-12600</v>
       </c>
       <c r="F33" s="3">
-        <v>-9800</v>
+        <v>-9200</v>
       </c>
       <c r="G33" s="3">
-        <v>-24200</v>
+        <v>-22600</v>
       </c>
       <c r="H33" s="3">
-        <v>-12100</v>
+        <v>-11300</v>
       </c>
       <c r="I33" s="3">
-        <v>-10300</v>
+        <v>-9700</v>
       </c>
       <c r="J33" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="K33" s="3">
         <v>-1500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14400</v>
+        <v>-13500</v>
       </c>
       <c r="E35" s="3">
-        <v>-13500</v>
+        <v>-12600</v>
       </c>
       <c r="F35" s="3">
-        <v>-9800</v>
+        <v>-9200</v>
       </c>
       <c r="G35" s="3">
-        <v>-24200</v>
+        <v>-22600</v>
       </c>
       <c r="H35" s="3">
-        <v>-12100</v>
+        <v>-11300</v>
       </c>
       <c r="I35" s="3">
-        <v>-10300</v>
+        <v>-9700</v>
       </c>
       <c r="J35" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="K35" s="3">
         <v>-1500</v>
@@ -1824,10 +1824,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E41" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
@@ -1839,10 +1839,10 @@
         <v>500</v>
       </c>
       <c r="I41" s="3">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="J41" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="K41" s="3">
         <v>7200</v>
@@ -1902,19 +1902,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="E43" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="F43" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="G43" s="3">
-        <v>20400</v>
+        <v>19100</v>
       </c>
       <c r="H43" s="3">
-        <v>8800</v>
+        <v>8200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F44" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="G44" s="3">
-        <v>12900</v>
+        <v>12100</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>58100</v>
+        <v>54200</v>
       </c>
       <c r="J44" s="3">
-        <v>69300</v>
+        <v>64800</v>
       </c>
       <c r="K44" s="3">
         <v>80800</v>
@@ -1983,7 +1983,7 @@
         <v>1400</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -1992,13 +1992,13 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="I45" s="3">
-        <v>8700</v>
+        <v>8100</v>
       </c>
       <c r="J45" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="K45" s="3">
         <v>9200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="E46" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F46" s="3">
         <v>10200</v>
       </c>
-      <c r="F46" s="3">
-        <v>10900</v>
-      </c>
       <c r="G46" s="3">
-        <v>33900</v>
+        <v>31700</v>
       </c>
       <c r="H46" s="3">
-        <v>14000</v>
+        <v>13100</v>
       </c>
       <c r="I46" s="3">
-        <v>75400</v>
+        <v>70500</v>
       </c>
       <c r="J46" s="3">
-        <v>85800</v>
+        <v>80100</v>
       </c>
       <c r="K46" s="3">
         <v>97800</v>
@@ -2061,22 +2061,22 @@
         <v>700</v>
       </c>
       <c r="E47" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="F47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="H47" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="I47" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="J47" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K47" s="3">
         <v>2900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="E48" s="3">
-        <v>18600</v>
+        <v>17300</v>
       </c>
       <c r="F48" s="3">
-        <v>23500</v>
+        <v>22000</v>
       </c>
       <c r="G48" s="3">
-        <v>27300</v>
+        <v>25500</v>
       </c>
       <c r="H48" s="3">
-        <v>22800</v>
+        <v>21300</v>
       </c>
       <c r="I48" s="3">
-        <v>49500</v>
+        <v>46200</v>
       </c>
       <c r="J48" s="3">
-        <v>51300</v>
+        <v>47900</v>
       </c>
       <c r="K48" s="3">
         <v>53000</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E49" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="F49" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="G49" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="H49" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="I49" s="3">
-        <v>10700</v>
+        <v>10000</v>
       </c>
       <c r="J49" s="3">
-        <v>11800</v>
+        <v>11100</v>
       </c>
       <c r="K49" s="3">
         <v>12300</v>
@@ -2256,22 +2256,22 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18800</v>
+        <v>17500</v>
       </c>
       <c r="E54" s="3">
-        <v>40200</v>
+        <v>37600</v>
       </c>
       <c r="F54" s="3">
-        <v>41200</v>
+        <v>38500</v>
       </c>
       <c r="G54" s="3">
-        <v>67900</v>
+        <v>63400</v>
       </c>
       <c r="H54" s="3">
-        <v>51100</v>
+        <v>47800</v>
       </c>
       <c r="I54" s="3">
-        <v>138900</v>
+        <v>129800</v>
       </c>
       <c r="J54" s="3">
-        <v>155500</v>
+        <v>145300</v>
       </c>
       <c r="K54" s="3">
         <v>166700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2500</v>
       </c>
-      <c r="E57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2700</v>
-      </c>
       <c r="G57" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="J57" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K57" s="3">
         <v>3500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21700</v>
+        <v>20300</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>12400</v>
+        <v>11600</v>
       </c>
       <c r="G58" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="H58" s="3">
-        <v>8000</v>
+        <v>7400</v>
       </c>
       <c r="I58" s="3">
-        <v>34200</v>
+        <v>32000</v>
       </c>
       <c r="J58" s="3">
-        <v>38500</v>
+        <v>36000</v>
       </c>
       <c r="K58" s="3">
         <v>40500</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21000</v>
+        <v>19600</v>
       </c>
       <c r="E59" s="3">
-        <v>25300</v>
+        <v>23700</v>
       </c>
       <c r="F59" s="3">
-        <v>24000</v>
+        <v>22400</v>
       </c>
       <c r="G59" s="3">
-        <v>53300</v>
+        <v>49800</v>
       </c>
       <c r="H59" s="3">
-        <v>13000</v>
+        <v>12100</v>
       </c>
       <c r="I59" s="3">
-        <v>58900</v>
+        <v>55000</v>
       </c>
       <c r="J59" s="3">
-        <v>58100</v>
+        <v>54300</v>
       </c>
       <c r="K59" s="3">
         <v>66300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>45200</v>
+        <v>42200</v>
       </c>
       <c r="E60" s="3">
-        <v>27900</v>
+        <v>26100</v>
       </c>
       <c r="F60" s="3">
-        <v>39100</v>
+        <v>36500</v>
       </c>
       <c r="G60" s="3">
-        <v>68200</v>
+        <v>63700</v>
       </c>
       <c r="H60" s="3">
-        <v>21200</v>
+        <v>19800</v>
       </c>
       <c r="I60" s="3">
-        <v>96900</v>
+        <v>90600</v>
       </c>
       <c r="J60" s="3">
-        <v>100000</v>
+        <v>93400</v>
       </c>
       <c r="K60" s="3">
         <v>110300</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>21700</v>
+        <v>20300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2572,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="I61" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="J61" s="3">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="K61" s="3">
         <v>4900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J62" s="3">
         <v>2900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>4100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J62" s="3">
-        <v>3100</v>
       </c>
       <c r="K62" s="3">
         <v>3100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41000</v>
+        <v>38300</v>
       </c>
       <c r="E66" s="3">
-        <v>52400</v>
+        <v>48900</v>
       </c>
       <c r="F66" s="3">
-        <v>44800</v>
+        <v>41800</v>
       </c>
       <c r="G66" s="3">
-        <v>71800</v>
+        <v>67000</v>
       </c>
       <c r="H66" s="3">
-        <v>33400</v>
+        <v>31200</v>
       </c>
       <c r="I66" s="3">
-        <v>110500</v>
+        <v>103200</v>
       </c>
       <c r="J66" s="3">
-        <v>117500</v>
+        <v>109700</v>
       </c>
       <c r="K66" s="3">
         <v>126600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-102600</v>
+        <v>-95900</v>
       </c>
       <c r="E72" s="3">
-        <v>-88200</v>
+        <v>-82400</v>
       </c>
       <c r="F72" s="3">
-        <v>-74800</v>
+        <v>-69800</v>
       </c>
       <c r="G72" s="3">
-        <v>-65000</v>
+        <v>-60700</v>
       </c>
       <c r="H72" s="3">
-        <v>-40700</v>
+        <v>-38000</v>
       </c>
       <c r="I72" s="3">
-        <v>-28800</v>
+        <v>-26900</v>
       </c>
       <c r="J72" s="3">
-        <v>-18400</v>
+        <v>-17200</v>
       </c>
       <c r="K72" s="3">
         <v>-16100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-22200</v>
+        <v>-20700</v>
       </c>
       <c r="E76" s="3">
-        <v>-12200</v>
+        <v>-11400</v>
       </c>
       <c r="F76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="G76" s="3">
-        <v>-3900</v>
-      </c>
       <c r="H76" s="3">
-        <v>17700</v>
+        <v>16500</v>
       </c>
       <c r="I76" s="3">
-        <v>28400</v>
+        <v>26600</v>
       </c>
       <c r="J76" s="3">
-        <v>38100</v>
+        <v>35500</v>
       </c>
       <c r="K76" s="3">
         <v>40100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14400</v>
+        <v>-13500</v>
       </c>
       <c r="E81" s="3">
-        <v>-13500</v>
+        <v>-12600</v>
       </c>
       <c r="F81" s="3">
-        <v>-9800</v>
+        <v>-9200</v>
       </c>
       <c r="G81" s="3">
-        <v>-24200</v>
+        <v>-22600</v>
       </c>
       <c r="H81" s="3">
-        <v>-12100</v>
+        <v>-11300</v>
       </c>
       <c r="I81" s="3">
-        <v>-10300</v>
+        <v>-9700</v>
       </c>
       <c r="J81" s="3">
-        <v>-2200</v>
+        <v>-2000</v>
       </c>
       <c r="K81" s="3">
         <v>-1500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F83" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="G83" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="H83" s="3">
-        <v>4400</v>
+        <v>4100</v>
       </c>
       <c r="I83" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="J83" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="K83" s="3">
         <v>4500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="E89" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F89" s="3">
-        <v>-9500</v>
+        <v>-8900</v>
       </c>
       <c r="G89" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="H89" s="3">
-        <v>-19000</v>
+        <v>-17700</v>
       </c>
       <c r="I89" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="J89" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="K89" s="3">
         <v>-13400</v>
@@ -3600,16 +3600,16 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K91" s="3">
         <v>-1600</v>
@@ -3711,22 +3711,22 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>-6700</v>
+        <v>-6200</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="H94" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="I94" s="3">
         <v>-1000</v>
       </c>
       <c r="J94" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="E100" s="3">
-        <v>10400</v>
+        <v>9700</v>
       </c>
       <c r="F100" s="3">
-        <v>9900</v>
+        <v>9300</v>
       </c>
       <c r="G100" s="3">
-        <v>-5600</v>
+        <v>-5200</v>
       </c>
       <c r="H100" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="I100" s="3">
-        <v>-7700</v>
+        <v>-7200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -3965,16 +3965,16 @@
         <v>200</v>
       </c>
       <c r="F101" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G101" s="3">
         <v>-500</v>
       </c>
       <c r="H101" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I101" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J101" s="3">
         <v>-400</v>
@@ -4001,7 +4001,7 @@
         <v>-1100</v>
       </c>
       <c r="E102" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F102" s="3">
         <v>200</v>
@@ -4010,13 +4010,13 @@
         <v>-200</v>
       </c>
       <c r="H102" s="3">
-        <v>-8100</v>
+        <v>-7600</v>
       </c>
       <c r="I102" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="J102" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="K102" s="3">
         <v>-13400</v>

--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -729,7 +729,7 @@
         <v>7700</v>
       </c>
       <c r="F8" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="G8" s="3">
         <v>1900</v>
@@ -741,7 +741,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>55400</v>
+        <v>54900</v>
       </c>
       <c r="K8" s="3">
         <v>65000</v>
@@ -762,13 +762,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="E9" s="3">
         <v>7200</v>
       </c>
       <c r="F9" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="G9" s="3">
         <v>1000</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="3">
-        <v>38900</v>
+        <v>38600</v>
       </c>
       <c r="K9" s="3">
         <v>47100</v>
@@ -819,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="K10" s="3">
         <v>17800</v>
@@ -863,19 +863,19 @@
         <v>600</v>
       </c>
       <c r="F12" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G12" s="3">
         <v>4000</v>
       </c>
       <c r="H12" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="I12" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="J12" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="K12" s="3">
         <v>6300</v>
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="E14" s="3">
         <v>5000</v>
@@ -947,7 +947,7 @@
         <v>1100</v>
       </c>
       <c r="H14" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>28000</v>
+        <v>27800</v>
       </c>
       <c r="E17" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="F17" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="G17" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="H17" s="3">
-        <v>17000</v>
+        <v>16800</v>
       </c>
       <c r="I17" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="J17" s="3">
-        <v>55200</v>
+        <v>54700</v>
       </c>
       <c r="K17" s="3">
         <v>68800</v>
@@ -1066,22 +1066,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="E18" s="3">
-        <v>-14400</v>
+        <v>-14200</v>
       </c>
       <c r="F18" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="G18" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="H18" s="3">
-        <v>-16800</v>
+        <v>-16700</v>
       </c>
       <c r="I18" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="J18" s="3">
         <v>200</v>
@@ -1122,7 +1122,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
@@ -1131,7 +1131,7 @@
         <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>-12800</v>
+        <v>-12600</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-16200</v>
+        <v>-16100</v>
       </c>
       <c r="E21" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="F21" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="G21" s="3">
-        <v>-16700</v>
+        <v>-16600</v>
       </c>
       <c r="H21" s="3">
-        <v>-12500</v>
+        <v>-12400</v>
       </c>
       <c r="I21" s="3">
         <v>-5000</v>
       </c>
       <c r="J21" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F22" s="3">
         <v>700</v>
       </c>
       <c r="G22" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H22" s="3">
         <v>1300</v>
@@ -1239,22 +1239,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="E23" s="3">
-        <v>-15100</v>
+        <v>-15000</v>
       </c>
       <c r="F23" s="3">
-        <v>-9600</v>
+        <v>-9500</v>
       </c>
       <c r="G23" s="3">
-        <v>-22500</v>
+        <v>-22300</v>
       </c>
       <c r="H23" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="I23" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="J23" s="3">
         <v>-2400</v>
@@ -1356,22 +1356,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18700</v>
+        <v>-18600</v>
       </c>
       <c r="E26" s="3">
-        <v>-15200</v>
+        <v>-15000</v>
       </c>
       <c r="F26" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="G26" s="3">
-        <v>-22500</v>
+        <v>-22300</v>
       </c>
       <c r="H26" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="I26" s="3">
-        <v>-10800</v>
+        <v>-10700</v>
       </c>
       <c r="J26" s="3">
         <v>-2600</v>
@@ -1395,22 +1395,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="E27" s="3">
-        <v>-12600</v>
+        <v>-12500</v>
       </c>
       <c r="F27" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="G27" s="3">
-        <v>-22600</v>
+        <v>-22400</v>
       </c>
       <c r="H27" s="3">
-        <v>-13400</v>
+        <v>-13300</v>
       </c>
       <c r="I27" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="J27" s="3">
         <v>-2000</v>
@@ -1590,7 +1590,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
@@ -1599,7 +1599,7 @@
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -1629,22 +1629,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="E33" s="3">
-        <v>-12600</v>
+        <v>-12500</v>
       </c>
       <c r="F33" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="G33" s="3">
-        <v>-22600</v>
+        <v>-22400</v>
       </c>
       <c r="H33" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="I33" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="J33" s="3">
         <v>-2000</v>
@@ -1707,22 +1707,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="E35" s="3">
-        <v>-12600</v>
+        <v>-12500</v>
       </c>
       <c r="F35" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="G35" s="3">
-        <v>-22600</v>
+        <v>-22400</v>
       </c>
       <c r="H35" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="I35" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="J35" s="3">
         <v>-2000</v>
@@ -1824,7 +1824,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E41" s="3">
         <v>3300</v>
@@ -1842,7 +1842,7 @@
         <v>8000</v>
       </c>
       <c r="J41" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="K41" s="3">
         <v>7200</v>
@@ -1911,7 +1911,7 @@
         <v>5200</v>
       </c>
       <c r="G43" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="H43" s="3">
         <v>8200</v>
@@ -1950,16 +1950,16 @@
         <v>4200</v>
       </c>
       <c r="G44" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>54200</v>
+        <v>53800</v>
       </c>
       <c r="J44" s="3">
-        <v>64800</v>
+        <v>64200</v>
       </c>
       <c r="K44" s="3">
         <v>80800</v>
@@ -1980,7 +1980,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
@@ -1995,7 +1995,7 @@
         <v>4200</v>
       </c>
       <c r="I45" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="J45" s="3">
         <v>5300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8600</v>
+        <v>8500</v>
       </c>
       <c r="E46" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="F46" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="G46" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="H46" s="3">
-        <v>13100</v>
+        <v>13000</v>
       </c>
       <c r="I46" s="3">
-        <v>70500</v>
+        <v>69800</v>
       </c>
       <c r="J46" s="3">
-        <v>80100</v>
+        <v>79400</v>
       </c>
       <c r="K46" s="3">
         <v>97800</v>
@@ -2061,7 +2061,7 @@
         <v>700</v>
       </c>
       <c r="E47" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F47" s="3">
         <v>2400</v>
@@ -2070,13 +2070,13 @@
         <v>2400</v>
       </c>
       <c r="H47" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I47" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="J47" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K47" s="3">
         <v>2900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="E48" s="3">
-        <v>17300</v>
+        <v>17200</v>
       </c>
       <c r="F48" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="G48" s="3">
-        <v>25500</v>
+        <v>25200</v>
       </c>
       <c r="H48" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="I48" s="3">
-        <v>46200</v>
+        <v>45800</v>
       </c>
       <c r="J48" s="3">
-        <v>47900</v>
+        <v>47400</v>
       </c>
       <c r="K48" s="3">
         <v>53000</v>
@@ -2145,16 +2145,16 @@
         <v>2700</v>
       </c>
       <c r="G49" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I49" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="J49" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="K49" s="3">
         <v>12300</v>
@@ -2265,7 +2265,7 @@
         <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17500</v>
+        <v>17400</v>
       </c>
       <c r="E54" s="3">
-        <v>37600</v>
+        <v>37200</v>
       </c>
       <c r="F54" s="3">
-        <v>38500</v>
+        <v>38100</v>
       </c>
       <c r="G54" s="3">
-        <v>63400</v>
+        <v>62800</v>
       </c>
       <c r="H54" s="3">
-        <v>47800</v>
+        <v>47300</v>
       </c>
       <c r="I54" s="3">
-        <v>129800</v>
+        <v>128600</v>
       </c>
       <c r="J54" s="3">
-        <v>145300</v>
+        <v>144000</v>
       </c>
       <c r="K54" s="3">
         <v>166700</v>
@@ -2419,7 +2419,7 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J57" s="3">
         <v>3200</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="G58" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="H58" s="3">
         <v>7400</v>
       </c>
       <c r="I58" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="J58" s="3">
-        <v>36000</v>
+        <v>35600</v>
       </c>
       <c r="K58" s="3">
         <v>40500</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19600</v>
+        <v>19400</v>
       </c>
       <c r="E59" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="F59" s="3">
-        <v>22400</v>
+        <v>22200</v>
       </c>
       <c r="G59" s="3">
-        <v>49800</v>
+        <v>49400</v>
       </c>
       <c r="H59" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="I59" s="3">
-        <v>55000</v>
+        <v>54500</v>
       </c>
       <c r="J59" s="3">
-        <v>54300</v>
+        <v>53800</v>
       </c>
       <c r="K59" s="3">
         <v>66300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>42200</v>
+        <v>41800</v>
       </c>
       <c r="E60" s="3">
-        <v>26100</v>
+        <v>25800</v>
       </c>
       <c r="F60" s="3">
-        <v>36500</v>
+        <v>36200</v>
       </c>
       <c r="G60" s="3">
-        <v>63700</v>
+        <v>63100</v>
       </c>
       <c r="H60" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="I60" s="3">
-        <v>90600</v>
+        <v>89700</v>
       </c>
       <c r="J60" s="3">
-        <v>93400</v>
+        <v>92600</v>
       </c>
       <c r="K60" s="3">
         <v>110300</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>20300</v>
+        <v>20100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="I61" s="3">
         <v>2900</v>
@@ -2614,7 +2614,7 @@
         <v>3000</v>
       </c>
       <c r="I62" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="J62" s="3">
         <v>2900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38300</v>
+        <v>37900</v>
       </c>
       <c r="E66" s="3">
-        <v>48900</v>
+        <v>48500</v>
       </c>
       <c r="F66" s="3">
-        <v>41800</v>
+        <v>41400</v>
       </c>
       <c r="G66" s="3">
-        <v>67000</v>
+        <v>66400</v>
       </c>
       <c r="H66" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="I66" s="3">
-        <v>103200</v>
+        <v>102300</v>
       </c>
       <c r="J66" s="3">
-        <v>109700</v>
+        <v>108700</v>
       </c>
       <c r="K66" s="3">
         <v>126600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-95900</v>
+        <v>-95000</v>
       </c>
       <c r="E72" s="3">
-        <v>-82400</v>
+        <v>-81600</v>
       </c>
       <c r="F72" s="3">
-        <v>-69800</v>
+        <v>-69200</v>
       </c>
       <c r="G72" s="3">
-        <v>-60700</v>
+        <v>-60100</v>
       </c>
       <c r="H72" s="3">
-        <v>-38000</v>
+        <v>-37700</v>
       </c>
       <c r="I72" s="3">
-        <v>-26900</v>
+        <v>-26600</v>
       </c>
       <c r="J72" s="3">
-        <v>-17200</v>
+        <v>-17100</v>
       </c>
       <c r="K72" s="3">
         <v>-16100</v>
@@ -3123,10 +3123,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-20700</v>
+        <v>-20500</v>
       </c>
       <c r="E76" s="3">
-        <v>-11400</v>
+        <v>-11300</v>
       </c>
       <c r="F76" s="3">
         <v>-3300</v>
@@ -3135,13 +3135,13 @@
         <v>-3600</v>
       </c>
       <c r="H76" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="I76" s="3">
-        <v>26600</v>
+        <v>26300</v>
       </c>
       <c r="J76" s="3">
-        <v>35500</v>
+        <v>35200</v>
       </c>
       <c r="K76" s="3">
         <v>40100</v>
@@ -3245,22 +3245,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="E81" s="3">
-        <v>-12600</v>
+        <v>-12500</v>
       </c>
       <c r="F81" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="G81" s="3">
-        <v>-22600</v>
+        <v>-22400</v>
       </c>
       <c r="H81" s="3">
-        <v>-11300</v>
+        <v>-11200</v>
       </c>
       <c r="I81" s="3">
-        <v>-9700</v>
+        <v>-9600</v>
       </c>
       <c r="J81" s="3">
         <v>-2000</v>
@@ -3304,7 +3304,7 @@
         <v>1200</v>
       </c>
       <c r="E83" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F83" s="3">
         <v>2000</v>
@@ -3313,7 +3313,7 @@
         <v>2400</v>
       </c>
       <c r="H83" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I83" s="3">
         <v>4600</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="E89" s="3">
         <v>-800</v>
       </c>
       <c r="F89" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="G89" s="3">
         <v>-1500</v>
       </c>
       <c r="H89" s="3">
-        <v>-17700</v>
+        <v>-17500</v>
       </c>
       <c r="I89" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="J89" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="K89" s="3">
         <v>-13400</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="H94" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="J94" s="3">
         <v>-3000</v>
@@ -3923,10 +3923,10 @@
         <v>2900</v>
       </c>
       <c r="E100" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="F100" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="G100" s="3">
         <v>-5200</v>
@@ -3935,7 +3935,7 @@
         <v>6900</v>
       </c>
       <c r="I100" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="J100" s="3">
         <v>-1400</v>
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="E102" s="3">
         <v>2800</v>
@@ -4010,7 +4010,7 @@
         <v>-200</v>
       </c>
       <c r="H102" s="3">
-        <v>-7600</v>
+        <v>-7500</v>
       </c>
       <c r="I102" s="3">
         <v>-1700</v>

--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -723,16 +723,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6800</v>
+        <v>6500</v>
       </c>
       <c r="E8" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="F8" s="3">
-        <v>13500</v>
+        <v>12900</v>
       </c>
       <c r="G8" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H8" s="3">
         <v>100</v>
@@ -741,7 +741,7 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>54900</v>
+        <v>52400</v>
       </c>
       <c r="K8" s="3">
         <v>65000</v>
@@ -762,13 +762,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="E9" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="F9" s="3">
-        <v>15400</v>
+        <v>14700</v>
       </c>
       <c r="G9" s="3">
         <v>1000</v>
@@ -780,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="3">
-        <v>38600</v>
+        <v>36800</v>
       </c>
       <c r="K9" s="3">
         <v>47100</v>
@@ -801,16 +801,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E10" s="3">
         <v>500</v>
       </c>
       <c r="F10" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="K10" s="3">
         <v>17800</v>
@@ -863,19 +863,19 @@
         <v>600</v>
       </c>
       <c r="F12" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G12" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="H12" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="I12" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="J12" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="K12" s="3">
         <v>6300</v>
@@ -935,10 +935,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="E14" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="F14" s="3">
         <v>600</v>
@@ -947,7 +947,7 @@
         <v>1100</v>
       </c>
       <c r="H14" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27800</v>
+        <v>26500</v>
       </c>
       <c r="E17" s="3">
-        <v>21900</v>
+        <v>20900</v>
       </c>
       <c r="F17" s="3">
-        <v>22500</v>
+        <v>21400</v>
       </c>
       <c r="G17" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="H17" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="I17" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="J17" s="3">
-        <v>54700</v>
+        <v>52200</v>
       </c>
       <c r="K17" s="3">
         <v>68800</v>
@@ -1066,22 +1066,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-21000</v>
+        <v>-20000</v>
       </c>
       <c r="E18" s="3">
-        <v>-14200</v>
+        <v>-13600</v>
       </c>
       <c r="F18" s="3">
-        <v>-9000</v>
+        <v>-8600</v>
       </c>
       <c r="G18" s="3">
-        <v>-6300</v>
+        <v>-6100</v>
       </c>
       <c r="H18" s="3">
-        <v>-16700</v>
+        <v>-15900</v>
       </c>
       <c r="I18" s="3">
-        <v>-9600</v>
+        <v>-9100</v>
       </c>
       <c r="J18" s="3">
         <v>200</v>
@@ -1122,16 +1122,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>-12600</v>
+        <v>-12000</v>
       </c>
       <c r="H20" s="3">
         <v>200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-16100</v>
+        <v>-15300</v>
       </c>
       <c r="E21" s="3">
-        <v>-12600</v>
+        <v>-12000</v>
       </c>
       <c r="F21" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="G21" s="3">
-        <v>-16600</v>
+        <v>-15800</v>
       </c>
       <c r="H21" s="3">
-        <v>-12400</v>
+        <v>-11900</v>
       </c>
       <c r="I21" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="J21" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>700</v>
       </c>
       <c r="G22" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H22" s="3">
         <v>1300</v>
@@ -1218,7 +1218,7 @@
         <v>1100</v>
       </c>
       <c r="J22" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K22" s="3">
         <v>3100</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-18500</v>
+        <v>-17700</v>
       </c>
       <c r="E23" s="3">
-        <v>-15000</v>
+        <v>-14300</v>
       </c>
       <c r="F23" s="3">
-        <v>-9500</v>
+        <v>-9100</v>
       </c>
       <c r="G23" s="3">
-        <v>-22300</v>
+        <v>-21300</v>
       </c>
       <c r="H23" s="3">
-        <v>-17800</v>
+        <v>-17000</v>
       </c>
       <c r="I23" s="3">
-        <v>-10700</v>
+        <v>-10200</v>
       </c>
       <c r="J23" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="K23" s="3">
         <v>-7600</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-18600</v>
+        <v>-17700</v>
       </c>
       <c r="E26" s="3">
-        <v>-15000</v>
+        <v>-14300</v>
       </c>
       <c r="F26" s="3">
-        <v>-9600</v>
+        <v>-9100</v>
       </c>
       <c r="G26" s="3">
-        <v>-22300</v>
+        <v>-21300</v>
       </c>
       <c r="H26" s="3">
-        <v>-17800</v>
+        <v>-17000</v>
       </c>
       <c r="I26" s="3">
-        <v>-10700</v>
+        <v>-10200</v>
       </c>
       <c r="J26" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="K26" s="3">
         <v>-1600</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13400</v>
+        <v>-12700</v>
       </c>
       <c r="E27" s="3">
-        <v>-12500</v>
+        <v>-11900</v>
       </c>
       <c r="F27" s="3">
-        <v>-9100</v>
+        <v>-8600</v>
       </c>
       <c r="G27" s="3">
-        <v>-22400</v>
+        <v>-21400</v>
       </c>
       <c r="H27" s="3">
-        <v>-13300</v>
+        <v>-12700</v>
       </c>
       <c r="I27" s="3">
-        <v>-9000</v>
+        <v>-8600</v>
       </c>
       <c r="J27" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K27" s="3">
         <v>-1500</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I29" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>4</v>
@@ -1590,16 +1590,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="H32" s="3">
         <v>-200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13400</v>
+        <v>-12700</v>
       </c>
       <c r="E33" s="3">
-        <v>-12500</v>
+        <v>-11900</v>
       </c>
       <c r="F33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-9100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-22400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-9600</v>
-      </c>
       <c r="J33" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K33" s="3">
         <v>-1500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13400</v>
+        <v>-12700</v>
       </c>
       <c r="E35" s="3">
-        <v>-12500</v>
+        <v>-11900</v>
       </c>
       <c r="F35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-9100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-22400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-9600</v>
-      </c>
       <c r="J35" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K35" s="3">
         <v>-1500</v>
@@ -1824,13 +1824,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E41" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="F41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G41" s="3">
         <v>300</v>
@@ -1839,10 +1839,10 @@
         <v>500</v>
       </c>
       <c r="I41" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="J41" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="K41" s="3">
         <v>7200</v>
@@ -1902,19 +1902,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E43" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="F43" s="3">
-        <v>5200</v>
+        <v>4900</v>
       </c>
       <c r="G43" s="3">
-        <v>18900</v>
+        <v>18000</v>
       </c>
       <c r="H43" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -1944,22 +1944,22 @@
         <v>600</v>
       </c>
       <c r="E44" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F44" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="G44" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>53800</v>
+        <v>51200</v>
       </c>
       <c r="J44" s="3">
-        <v>64200</v>
+        <v>61200</v>
       </c>
       <c r="K44" s="3">
         <v>80800</v>
@@ -1992,13 +1992,13 @@
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="I45" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="J45" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="K45" s="3">
         <v>9200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="E46" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="F46" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="G46" s="3">
-        <v>31400</v>
+        <v>29900</v>
       </c>
       <c r="H46" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="I46" s="3">
-        <v>69800</v>
+        <v>66600</v>
       </c>
       <c r="J46" s="3">
-        <v>79400</v>
+        <v>75700</v>
       </c>
       <c r="K46" s="3">
         <v>97800</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E47" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="F47" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G47" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K47" s="3">
         <v>2900</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="E48" s="3">
-        <v>17200</v>
+        <v>16400</v>
       </c>
       <c r="F48" s="3">
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="G48" s="3">
-        <v>25200</v>
+        <v>24000</v>
       </c>
       <c r="H48" s="3">
-        <v>21100</v>
+        <v>20200</v>
       </c>
       <c r="I48" s="3">
-        <v>45800</v>
+        <v>43700</v>
       </c>
       <c r="J48" s="3">
-        <v>47400</v>
+        <v>45200</v>
       </c>
       <c r="K48" s="3">
         <v>53000</v>
@@ -2139,22 +2139,22 @@
         <v>800</v>
       </c>
       <c r="E49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F49" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G49" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H49" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="I49" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="J49" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="K49" s="3">
         <v>12300</v>
@@ -2259,19 +2259,19 @@
         <v>800</v>
       </c>
       <c r="F52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
       </c>
       <c r="H52" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="I52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K52" s="3">
         <v>600</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17400</v>
+        <v>16600</v>
       </c>
       <c r="E54" s="3">
-        <v>37200</v>
+        <v>35500</v>
       </c>
       <c r="F54" s="3">
-        <v>38100</v>
+        <v>36300</v>
       </c>
       <c r="G54" s="3">
-        <v>62800</v>
+        <v>59900</v>
       </c>
       <c r="H54" s="3">
-        <v>47300</v>
+        <v>45100</v>
       </c>
       <c r="I54" s="3">
-        <v>128600</v>
+        <v>122600</v>
       </c>
       <c r="J54" s="3">
-        <v>144000</v>
+        <v>137200</v>
       </c>
       <c r="K54" s="3">
         <v>166700</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2400</v>
       </c>
-      <c r="F57" s="3">
-        <v>2500</v>
-      </c>
       <c r="G57" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J57" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="K57" s="3">
         <v>3500</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>20100</v>
+        <v>19200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="G58" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="H58" s="3">
-        <v>7400</v>
+        <v>7000</v>
       </c>
       <c r="I58" s="3">
-        <v>31700</v>
+        <v>30200</v>
       </c>
       <c r="J58" s="3">
-        <v>35600</v>
+        <v>34000</v>
       </c>
       <c r="K58" s="3">
         <v>40500</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="E59" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="F59" s="3">
-        <v>22200</v>
+        <v>21200</v>
       </c>
       <c r="G59" s="3">
-        <v>49400</v>
+        <v>47000</v>
       </c>
       <c r="H59" s="3">
-        <v>12000</v>
+        <v>11400</v>
       </c>
       <c r="I59" s="3">
-        <v>54500</v>
+        <v>51900</v>
       </c>
       <c r="J59" s="3">
-        <v>53800</v>
+        <v>51300</v>
       </c>
       <c r="K59" s="3">
         <v>66300</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>41800</v>
+        <v>39900</v>
       </c>
       <c r="E60" s="3">
-        <v>25800</v>
+        <v>24600</v>
       </c>
       <c r="F60" s="3">
-        <v>36200</v>
+        <v>34500</v>
       </c>
       <c r="G60" s="3">
-        <v>63100</v>
+        <v>60200</v>
       </c>
       <c r="H60" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="I60" s="3">
-        <v>89700</v>
+        <v>85500</v>
       </c>
       <c r="J60" s="3">
-        <v>92600</v>
+        <v>88300</v>
       </c>
       <c r="K60" s="3">
         <v>110300</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>20100</v>
+        <v>19200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2572,13 +2572,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="I61" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J61" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="K61" s="3">
         <v>4900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="E62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I62" s="3">
         <v>3800</v>
       </c>
-      <c r="F62" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>4000</v>
-      </c>
       <c r="J62" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K62" s="3">
         <v>3100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37900</v>
+        <v>36200</v>
       </c>
       <c r="E66" s="3">
-        <v>48500</v>
+        <v>46200</v>
       </c>
       <c r="F66" s="3">
-        <v>41400</v>
+        <v>39500</v>
       </c>
       <c r="G66" s="3">
-        <v>66400</v>
+        <v>63300</v>
       </c>
       <c r="H66" s="3">
-        <v>30900</v>
+        <v>29500</v>
       </c>
       <c r="I66" s="3">
-        <v>102300</v>
+        <v>97500</v>
       </c>
       <c r="J66" s="3">
-        <v>108700</v>
+        <v>103700</v>
       </c>
       <c r="K66" s="3">
         <v>126600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-95000</v>
+        <v>-90600</v>
       </c>
       <c r="E72" s="3">
-        <v>-81600</v>
+        <v>-77800</v>
       </c>
       <c r="F72" s="3">
-        <v>-69200</v>
+        <v>-66000</v>
       </c>
       <c r="G72" s="3">
-        <v>-60100</v>
+        <v>-57300</v>
       </c>
       <c r="H72" s="3">
-        <v>-37700</v>
+        <v>-35900</v>
       </c>
       <c r="I72" s="3">
-        <v>-26600</v>
+        <v>-25400</v>
       </c>
       <c r="J72" s="3">
-        <v>-17100</v>
+        <v>-16300</v>
       </c>
       <c r="K72" s="3">
         <v>-16100</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-20500</v>
+        <v>-19600</v>
       </c>
       <c r="E76" s="3">
-        <v>-11300</v>
+        <v>-10700</v>
       </c>
       <c r="F76" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="G76" s="3">
-        <v>-3600</v>
+        <v>-3400</v>
       </c>
       <c r="H76" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="I76" s="3">
-        <v>26300</v>
+        <v>25100</v>
       </c>
       <c r="J76" s="3">
-        <v>35200</v>
+        <v>33600</v>
       </c>
       <c r="K76" s="3">
         <v>40100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13400</v>
+        <v>-12700</v>
       </c>
       <c r="E81" s="3">
-        <v>-12500</v>
+        <v>-11900</v>
       </c>
       <c r="F81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-9100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-22400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-9600</v>
-      </c>
       <c r="J81" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K81" s="3">
         <v>-1500</v>
@@ -3307,19 +3307,19 @@
         <v>1500</v>
       </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H83" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I83" s="3">
-        <v>4600</v>
+        <v>4300</v>
       </c>
       <c r="J83" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="K83" s="3">
         <v>4500</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="E89" s="3">
         <v>-800</v>
       </c>
       <c r="F89" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="G89" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="H89" s="3">
-        <v>-17500</v>
+        <v>-16700</v>
       </c>
       <c r="I89" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="J89" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="K89" s="3">
         <v>-13400</v>
@@ -3606,10 +3606,10 @@
         <v>-400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="K91" s="3">
         <v>-1600</v>
@@ -3711,22 +3711,22 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>-6200</v>
+        <v>-5900</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>6900</v>
+        <v>6600</v>
       </c>
       <c r="H94" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="I94" s="3">
         <v>-900</v>
       </c>
       <c r="J94" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E100" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="F100" s="3">
-        <v>9200</v>
+        <v>8800</v>
       </c>
       <c r="G100" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="H100" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="I100" s="3">
-        <v>-7100</v>
+        <v>-6800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
@@ -4001,7 +4001,7 @@
         <v>-1000</v>
       </c>
       <c r="E102" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F102" s="3">
         <v>200</v>
@@ -4010,13 +4010,13 @@
         <v>-200</v>
       </c>
       <c r="H102" s="3">
-        <v>-7500</v>
+        <v>-7100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="J102" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K102" s="3">
         <v>-13400</v>

--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>SEED</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42643</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42277</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41912</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41547</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41182</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40816</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6500</v>
+        <v>7600</v>
       </c>
       <c r="E8" s="3">
-        <v>7300</v>
+        <v>6700</v>
       </c>
       <c r="F8" s="3">
-        <v>12900</v>
+        <v>7500</v>
       </c>
       <c r="G8" s="3">
-        <v>1800</v>
+        <v>13300</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>52400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>65000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>73300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>79200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>84200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>4700</v>
+        <v>5200</v>
       </c>
       <c r="E9" s="3">
-        <v>6800</v>
+        <v>4800</v>
       </c>
       <c r="F9" s="3">
-        <v>14700</v>
+        <v>7000</v>
       </c>
       <c r="G9" s="3">
+        <v>15100</v>
+      </c>
+      <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>55600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>55100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-1800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>25300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>23600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>29100</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
-        <v>1800</v>
-      </c>
       <c r="G12" s="3">
-        <v>3800</v>
+        <v>1900</v>
       </c>
       <c r="H12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="L12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="N12" s="3">
         <v>5400</v>
       </c>
-      <c r="I12" s="3">
-        <v>5700</v>
-      </c>
-      <c r="J12" s="3">
-        <v>6800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>6300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>6400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>5400</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6600</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,32 +944,35 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10600</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>4700</v>
+        <v>10900</v>
       </c>
       <c r="F14" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
-        <v>6200</v>
-      </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+        <v>6400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -964,12 +983,15 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>26500</v>
+        <v>9800</v>
       </c>
       <c r="E17" s="3">
-        <v>20900</v>
+        <v>27300</v>
       </c>
       <c r="F17" s="3">
-        <v>21400</v>
+        <v>21600</v>
       </c>
       <c r="G17" s="3">
-        <v>7900</v>
+        <v>22100</v>
       </c>
       <c r="H17" s="3">
-        <v>16000</v>
+        <v>8100</v>
       </c>
       <c r="I17" s="3">
-        <v>9200</v>
+        <v>16500</v>
       </c>
       <c r="J17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K17" s="3">
         <v>52200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>68800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>70500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>79700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>82300</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20000</v>
+        <v>-2300</v>
       </c>
       <c r="E18" s="3">
-        <v>-13600</v>
+        <v>-20700</v>
       </c>
       <c r="F18" s="3">
-        <v>-8600</v>
+        <v>-14000</v>
       </c>
       <c r="G18" s="3">
-        <v>-6100</v>
+        <v>-8800</v>
       </c>
       <c r="H18" s="3">
-        <v>-15900</v>
+        <v>-6200</v>
       </c>
       <c r="I18" s="3">
-        <v>-9100</v>
+        <v>-16400</v>
       </c>
       <c r="J18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>3700</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>-12000</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-15300</v>
+        <v>2100</v>
       </c>
       <c r="E21" s="3">
-        <v>-12000</v>
+        <v>-15800</v>
       </c>
       <c r="F21" s="3">
-        <v>-6500</v>
+        <v>-12300</v>
       </c>
       <c r="G21" s="3">
-        <v>-15800</v>
+        <v>-6700</v>
       </c>
       <c r="H21" s="3">
-        <v>-11900</v>
+        <v>-16300</v>
       </c>
       <c r="I21" s="3">
-        <v>-4800</v>
+        <v>-12200</v>
       </c>
       <c r="J21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K21" s="3">
         <v>4500</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>8100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3800</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1203,77 +1242,83 @@
         <v>1200</v>
       </c>
       <c r="E22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
       </c>
-      <c r="G22" s="3">
-        <v>3200</v>
-      </c>
       <c r="H22" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17700</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>-14300</v>
+        <v>-18200</v>
       </c>
       <c r="F23" s="3">
-        <v>-9100</v>
+        <v>-14700</v>
       </c>
       <c r="G23" s="3">
-        <v>-21300</v>
+        <v>-9400</v>
       </c>
       <c r="H23" s="3">
-        <v>-17000</v>
+        <v>-21900</v>
       </c>
       <c r="I23" s="3">
-        <v>-10200</v>
+        <v>-17500</v>
       </c>
       <c r="J23" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1281,13 +1326,13 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1296,23 +1341,26 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-17700</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>-14300</v>
+        <v>-18300</v>
       </c>
       <c r="F26" s="3">
-        <v>-9100</v>
+        <v>-14800</v>
       </c>
       <c r="G26" s="3">
-        <v>-21300</v>
+        <v>-9400</v>
       </c>
       <c r="H26" s="3">
-        <v>-17000</v>
+        <v>-21900</v>
       </c>
       <c r="I26" s="3">
-        <v>-10200</v>
+        <v>-17500</v>
       </c>
       <c r="J26" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-12700</v>
+        <v>-900</v>
       </c>
       <c r="E27" s="3">
-        <v>-11900</v>
+        <v>-13100</v>
       </c>
       <c r="F27" s="3">
-        <v>-8600</v>
+        <v>-12200</v>
       </c>
       <c r="G27" s="3">
-        <v>-21400</v>
+        <v>-8900</v>
       </c>
       <c r="H27" s="3">
-        <v>-12700</v>
+        <v>-22100</v>
       </c>
       <c r="I27" s="3">
-        <v>-8600</v>
+        <v>-13100</v>
       </c>
       <c r="J27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,20 +1538,20 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J29" s="3">
         <v>-500</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>4</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>-3700</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>12000</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-12700</v>
+        <v>-900</v>
       </c>
       <c r="E33" s="3">
-        <v>-11900</v>
+        <v>-13100</v>
       </c>
       <c r="F33" s="3">
-        <v>-8600</v>
+        <v>-12200</v>
       </c>
       <c r="G33" s="3">
-        <v>-21400</v>
+        <v>-8900</v>
       </c>
       <c r="H33" s="3">
-        <v>-10700</v>
+        <v>-22100</v>
       </c>
       <c r="I33" s="3">
-        <v>-9100</v>
+        <v>-11100</v>
       </c>
       <c r="J33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-12700</v>
+        <v>-900</v>
       </c>
       <c r="E35" s="3">
-        <v>-11900</v>
+        <v>-13100</v>
       </c>
       <c r="F35" s="3">
-        <v>-8600</v>
+        <v>-12200</v>
       </c>
       <c r="G35" s="3">
-        <v>-21400</v>
+        <v>-8900</v>
       </c>
       <c r="H35" s="3">
-        <v>-10700</v>
+        <v>-22100</v>
       </c>
       <c r="I35" s="3">
-        <v>-9100</v>
+        <v>-11100</v>
       </c>
       <c r="J35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42643</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42277</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41912</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41547</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41182</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40816</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="E41" s="3">
-        <v>3100</v>
+        <v>2200</v>
       </c>
       <c r="F41" s="3">
-        <v>400</v>
+        <v>3200</v>
       </c>
       <c r="G41" s="3">
+        <v>500</v>
+      </c>
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
-        <v>7600</v>
-      </c>
       <c r="J41" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K41" s="3">
         <v>9200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>20100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19300</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1895,9 +1984,12 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,272 +1997,293 @@
         <v>4100</v>
       </c>
       <c r="E43" s="3">
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="F43" s="3">
-        <v>4900</v>
+        <v>3700</v>
       </c>
       <c r="G43" s="3">
-        <v>18000</v>
+        <v>5100</v>
       </c>
       <c r="H43" s="3">
-        <v>7800</v>
+        <v>18600</v>
       </c>
       <c r="I43" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9500</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1900</v>
       </c>
-      <c r="F44" s="3">
-        <v>4000</v>
-      </c>
       <c r="G44" s="3">
-        <v>11400</v>
+        <v>4100</v>
       </c>
       <c r="H44" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
-        <v>51200</v>
-      </c>
       <c r="J44" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K44" s="3">
         <v>61200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>80800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>71600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>40500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>31300</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
-        <v>4000</v>
-      </c>
       <c r="I45" s="3">
-        <v>7700</v>
+        <v>4100</v>
       </c>
       <c r="J45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K45" s="3">
         <v>5000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15700</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8100</v>
+        <v>11700</v>
       </c>
       <c r="E46" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="F46" s="3">
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="G46" s="3">
-        <v>29900</v>
+        <v>9900</v>
       </c>
       <c r="H46" s="3">
-        <v>12400</v>
+        <v>30900</v>
       </c>
       <c r="I46" s="3">
-        <v>66600</v>
+        <v>12800</v>
       </c>
       <c r="J46" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K46" s="3">
         <v>75700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>97800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>104100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>80200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>75800</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>7300</v>
+        <v>700</v>
       </c>
       <c r="F47" s="3">
-        <v>2300</v>
+        <v>7600</v>
       </c>
       <c r="G47" s="3">
         <v>2300</v>
       </c>
       <c r="H47" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2600</v>
       </c>
-      <c r="I47" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="E48" s="3">
-        <v>16400</v>
+        <v>7300</v>
       </c>
       <c r="F48" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>21400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>24800</v>
+      </c>
+      <c r="I48" s="3">
         <v>20800</v>
       </c>
-      <c r="G48" s="3">
-        <v>24000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>20200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>43700</v>
-      </c>
       <c r="J48" s="3">
+        <v>45100</v>
+      </c>
+      <c r="K48" s="3">
         <v>45200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>53000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>54000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>45500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28200</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>700</v>
+      </c>
+      <c r="E49" s="3">
         <v>800</v>
       </c>
-      <c r="E49" s="3">
-        <v>2000</v>
-      </c>
       <c r="F49" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G49" s="3">
         <v>2600</v>
       </c>
-      <c r="G49" s="3">
-        <v>3500</v>
-      </c>
       <c r="H49" s="3">
-        <v>4100</v>
+        <v>3600</v>
       </c>
       <c r="I49" s="3">
-        <v>9400</v>
+        <v>4200</v>
       </c>
       <c r="J49" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K49" s="3">
         <v>10500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,9 +2362,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2256,38 +2375,41 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
-        <v>1100</v>
-      </c>
       <c r="G52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
-        <v>5800</v>
-      </c>
       <c r="I52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3400</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16600</v>
+        <v>19500</v>
       </c>
       <c r="E54" s="3">
-        <v>35500</v>
+        <v>17100</v>
       </c>
       <c r="F54" s="3">
-        <v>36300</v>
+        <v>36600</v>
       </c>
       <c r="G54" s="3">
-        <v>59900</v>
+        <v>37500</v>
       </c>
       <c r="H54" s="3">
-        <v>45100</v>
+        <v>61800</v>
       </c>
       <c r="I54" s="3">
-        <v>122600</v>
+        <v>46600</v>
       </c>
       <c r="J54" s="3">
+        <v>126500</v>
+      </c>
+      <c r="K54" s="3">
         <v>137200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>166700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>176200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>140000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>121500</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,164 +2527,177 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
         <v>2300</v>
       </c>
       <c r="F57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G57" s="3">
         <v>2400</v>
       </c>
-      <c r="G57" s="3">
-        <v>2200</v>
-      </c>
       <c r="H57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>3400</v>
-      </c>
       <c r="J57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>19800</v>
       </c>
       <c r="F58" s="3">
-        <v>10900</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="H58" s="3">
-        <v>7000</v>
+        <v>11200</v>
       </c>
       <c r="I58" s="3">
-        <v>30200</v>
+        <v>7300</v>
       </c>
       <c r="J58" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K58" s="3">
         <v>34000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>40500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>33700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3000</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>18500</v>
+        <v>20800</v>
       </c>
       <c r="E59" s="3">
-        <v>22400</v>
+        <v>19100</v>
       </c>
       <c r="F59" s="3">
-        <v>21200</v>
+        <v>23100</v>
       </c>
       <c r="G59" s="3">
-        <v>47000</v>
+        <v>21900</v>
       </c>
       <c r="H59" s="3">
-        <v>11400</v>
+        <v>48500</v>
       </c>
       <c r="I59" s="3">
-        <v>51900</v>
+        <v>11800</v>
       </c>
       <c r="J59" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K59" s="3">
         <v>51300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>66300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>74200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>79900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>70100</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>39900</v>
+        <v>42100</v>
       </c>
       <c r="E60" s="3">
-        <v>24600</v>
+        <v>41100</v>
       </c>
       <c r="F60" s="3">
-        <v>34500</v>
+        <v>25400</v>
       </c>
       <c r="G60" s="3">
-        <v>60200</v>
+        <v>35600</v>
       </c>
       <c r="H60" s="3">
-        <v>18700</v>
+        <v>62100</v>
       </c>
       <c r="I60" s="3">
-        <v>85500</v>
+        <v>19300</v>
       </c>
       <c r="J60" s="3">
         <v>88300</v>
       </c>
       <c r="K60" s="3">
+        <v>88300</v>
+      </c>
+      <c r="L60" s="3">
         <v>110300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>114400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>86800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>79000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2563,77 +2705,83 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>19200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>19800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>2800</v>
+        <v>8200</v>
       </c>
       <c r="J61" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K61" s="3">
         <v>5700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E62" s="3">
-        <v>3600</v>
+        <v>2600</v>
       </c>
       <c r="F62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J62" s="3">
         <v>4000</v>
       </c>
-      <c r="G62" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>2800</v>
       </c>
-      <c r="I62" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3100</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36200</v>
+        <v>38800</v>
       </c>
       <c r="E66" s="3">
-        <v>46200</v>
+        <v>37300</v>
       </c>
       <c r="F66" s="3">
-        <v>39500</v>
+        <v>47700</v>
       </c>
       <c r="G66" s="3">
-        <v>63300</v>
+        <v>40800</v>
       </c>
       <c r="H66" s="3">
-        <v>29500</v>
+        <v>65300</v>
       </c>
       <c r="I66" s="3">
-        <v>97500</v>
+        <v>30400</v>
       </c>
       <c r="J66" s="3">
+        <v>100600</v>
+      </c>
+      <c r="K66" s="3">
         <v>103700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>126600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>135700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>102500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>83000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-90600</v>
+        <v>-94300</v>
       </c>
       <c r="E72" s="3">
-        <v>-77800</v>
+        <v>-93400</v>
       </c>
       <c r="F72" s="3">
-        <v>-66000</v>
+        <v>-80300</v>
       </c>
       <c r="G72" s="3">
-        <v>-57300</v>
+        <v>-68100</v>
       </c>
       <c r="H72" s="3">
-        <v>-35900</v>
+        <v>-59100</v>
       </c>
       <c r="I72" s="3">
-        <v>-25400</v>
+        <v>-37100</v>
       </c>
       <c r="J72" s="3">
+        <v>-26200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-16300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-19600</v>
+        <v>-19200</v>
       </c>
       <c r="E76" s="3">
-        <v>-10700</v>
+        <v>-20200</v>
       </c>
       <c r="F76" s="3">
-        <v>-3200</v>
+        <v>-11100</v>
       </c>
       <c r="G76" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="H76" s="3">
-        <v>15600</v>
+        <v>-3500</v>
       </c>
       <c r="I76" s="3">
-        <v>25100</v>
+        <v>16100</v>
       </c>
       <c r="J76" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K76" s="3">
         <v>33600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>38400</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42643</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42277</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41912</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41547</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41182</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40816</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-12700</v>
+        <v>-900</v>
       </c>
       <c r="E81" s="3">
-        <v>-11900</v>
+        <v>-13100</v>
       </c>
       <c r="F81" s="3">
-        <v>-8600</v>
+        <v>-12200</v>
       </c>
       <c r="G81" s="3">
-        <v>-21400</v>
+        <v>-8900</v>
       </c>
       <c r="H81" s="3">
-        <v>-10700</v>
+        <v>-22100</v>
       </c>
       <c r="I81" s="3">
-        <v>-9100</v>
+        <v>-11100</v>
       </c>
       <c r="J81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1500</v>
       </c>
-      <c r="F83" s="3">
-        <v>1900</v>
-      </c>
       <c r="G83" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="H83" s="3">
-        <v>3900</v>
+        <v>2400</v>
       </c>
       <c r="I83" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K83" s="3">
         <v>4300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M83" s="3">
         <v>4300</v>
       </c>
-      <c r="K83" s="3">
-        <v>4500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>4300</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3500</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3500</v>
+        <v>500</v>
       </c>
       <c r="E89" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
-        <v>-8400</v>
-      </c>
       <c r="G89" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="H89" s="3">
-        <v>-16700</v>
-      </c>
       <c r="I89" s="3">
-        <v>6700</v>
+        <v>-17300</v>
       </c>
       <c r="J89" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K89" s="3">
         <v>7300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-22200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,8 +3804,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3594,38 +3814,41 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2200</v>
+        <v>-400</v>
       </c>
       <c r="J91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10100</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,9 +3927,12 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3711,38 +3940,41 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>-5900</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-6100</v>
       </c>
       <c r="G94" s="3">
-        <v>6600</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>4100</v>
+        <v>6800</v>
       </c>
       <c r="I94" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-22900</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3796,9 +4029,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>2800</v>
       </c>
-      <c r="E100" s="3">
-        <v>9200</v>
-      </c>
       <c r="F100" s="3">
-        <v>8800</v>
+        <v>9500</v>
       </c>
       <c r="G100" s="3">
-        <v>-4900</v>
+        <v>9000</v>
       </c>
       <c r="H100" s="3">
-        <v>6500</v>
+        <v>-5100</v>
       </c>
       <c r="I100" s="3">
-        <v>-6800</v>
+        <v>6800</v>
       </c>
       <c r="J100" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>29200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8300</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
-        <v>2700</v>
-      </c>
       <c r="F102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>-7100</v>
-      </c>
       <c r="I102" s="3">
-        <v>-1600</v>
+        <v>-7400</v>
       </c>
       <c r="J102" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-25200</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -726,19 +726,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="E8" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="F8" s="3">
         <v>7500</v>
       </c>
       <c r="G8" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="H8" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -777,7 +777,7 @@
         <v>7000</v>
       </c>
       <c r="G9" s="3">
-        <v>15100</v>
+        <v>15000</v>
       </c>
       <c r="H9" s="3">
         <v>1000</v>
@@ -885,7 +885,7 @@
         <v>3900</v>
       </c>
       <c r="I12" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="J12" s="3">
         <v>5900</v>
@@ -957,10 +957,10 @@
         <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="F14" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G14" s="3">
         <v>600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="E17" s="3">
-        <v>27300</v>
+        <v>27100</v>
       </c>
       <c r="F17" s="3">
-        <v>21600</v>
+        <v>21300</v>
       </c>
       <c r="G17" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="H17" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="I17" s="3">
-        <v>16500</v>
+        <v>16400</v>
       </c>
       <c r="J17" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="K17" s="3">
         <v>52200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="E18" s="3">
-        <v>-20700</v>
+        <v>-20500</v>
       </c>
       <c r="F18" s="3">
-        <v>-14000</v>
+        <v>-13900</v>
       </c>
       <c r="G18" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="H18" s="3">
         <v>-6200</v>
       </c>
       <c r="I18" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="J18" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="K18" s="3">
         <v>200</v>
@@ -1155,10 +1155,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E20" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1167,7 +1167,7 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>-12400</v>
+        <v>-12300</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
@@ -1200,22 +1200,22 @@
         <v>2100</v>
       </c>
       <c r="E21" s="3">
-        <v>-15800</v>
+        <v>-15600</v>
       </c>
       <c r="F21" s="3">
-        <v>-12300</v>
+        <v>-12200</v>
       </c>
       <c r="G21" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="H21" s="3">
-        <v>-16300</v>
+        <v>-16100</v>
       </c>
       <c r="I21" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="J21" s="3">
-        <v>-4900</v>
+        <v>-4800</v>
       </c>
       <c r="K21" s="3">
         <v>4500</v>
@@ -1251,7 +1251,7 @@
         <v>700</v>
       </c>
       <c r="H22" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="I22" s="3">
         <v>1300</v>
@@ -1284,22 +1284,22 @@
         <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>-18200</v>
+        <v>-18000</v>
       </c>
       <c r="F23" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="G23" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="H23" s="3">
-        <v>-21900</v>
+        <v>-21700</v>
       </c>
       <c r="I23" s="3">
-        <v>-17500</v>
+        <v>-17300</v>
       </c>
       <c r="J23" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="K23" s="3">
         <v>-2300</v>
@@ -1410,22 +1410,22 @@
         <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>-18300</v>
+        <v>-18100</v>
       </c>
       <c r="F26" s="3">
-        <v>-14800</v>
+        <v>-14600</v>
       </c>
       <c r="G26" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="H26" s="3">
-        <v>-21900</v>
+        <v>-21700</v>
       </c>
       <c r="I26" s="3">
-        <v>-17500</v>
+        <v>-17300</v>
       </c>
       <c r="J26" s="3">
-        <v>-10500</v>
+        <v>-10400</v>
       </c>
       <c r="K26" s="3">
         <v>-2500</v>
@@ -1452,22 +1452,22 @@
         <v>-900</v>
       </c>
       <c r="E27" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="F27" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="G27" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="H27" s="3">
-        <v>-22100</v>
+        <v>-21800</v>
       </c>
       <c r="I27" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="J27" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="K27" s="3">
         <v>-1900</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J29" s="3">
         <v>-500</v>
@@ -1659,10 +1659,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="E32" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -1671,7 +1671,7 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
@@ -1704,22 +1704,22 @@
         <v>-900</v>
       </c>
       <c r="E33" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="F33" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="G33" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="H33" s="3">
-        <v>-22100</v>
+        <v>-21800</v>
       </c>
       <c r="I33" s="3">
-        <v>-11100</v>
+        <v>-10900</v>
       </c>
       <c r="J33" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="K33" s="3">
         <v>-1900</v>
@@ -1788,22 +1788,22 @@
         <v>-900</v>
       </c>
       <c r="E35" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="F35" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="G35" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="H35" s="3">
-        <v>-22100</v>
+        <v>-21800</v>
       </c>
       <c r="I35" s="3">
-        <v>-11100</v>
+        <v>-10900</v>
       </c>
       <c r="J35" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="K35" s="3">
         <v>-1900</v>
@@ -1928,7 +1928,7 @@
         <v>500</v>
       </c>
       <c r="J41" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="K41" s="3">
         <v>9200</v>
@@ -2000,13 +2000,13 @@
         <v>4200</v>
       </c>
       <c r="F43" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G43" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H43" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="I43" s="3">
         <v>8000</v>
@@ -2048,13 +2048,13 @@
         <v>4100</v>
       </c>
       <c r="H44" s="3">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>52900</v>
+        <v>52300</v>
       </c>
       <c r="K44" s="3">
         <v>61200</v>
@@ -2096,7 +2096,7 @@
         <v>4100</v>
       </c>
       <c r="J45" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="K45" s="3">
         <v>5000</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="E46" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="F46" s="3">
         <v>9200</v>
       </c>
       <c r="G46" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="H46" s="3">
-        <v>30900</v>
+        <v>30500</v>
       </c>
       <c r="I46" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="J46" s="3">
-        <v>68700</v>
+        <v>68000</v>
       </c>
       <c r="K46" s="3">
         <v>75700</v>
@@ -2168,7 +2168,7 @@
         <v>700</v>
       </c>
       <c r="F47" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="G47" s="3">
         <v>2300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="E48" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="F48" s="3">
-        <v>16900</v>
+        <v>16700</v>
       </c>
       <c r="G48" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="H48" s="3">
-        <v>24800</v>
+        <v>24600</v>
       </c>
       <c r="I48" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="J48" s="3">
-        <v>45100</v>
+        <v>44600</v>
       </c>
       <c r="K48" s="3">
         <v>45200</v>
@@ -2258,13 +2258,13 @@
         <v>2600</v>
       </c>
       <c r="H49" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I49" s="3">
         <v>4200</v>
       </c>
       <c r="J49" s="3">
-        <v>9700</v>
+        <v>9600</v>
       </c>
       <c r="K49" s="3">
         <v>10500</v>
@@ -2381,7 +2381,7 @@
         <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="E54" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="F54" s="3">
-        <v>36600</v>
+        <v>36200</v>
       </c>
       <c r="G54" s="3">
-        <v>37500</v>
+        <v>37100</v>
       </c>
       <c r="H54" s="3">
-        <v>61800</v>
+        <v>61100</v>
       </c>
       <c r="I54" s="3">
-        <v>46600</v>
+        <v>46100</v>
       </c>
       <c r="J54" s="3">
-        <v>126500</v>
+        <v>125200</v>
       </c>
       <c r="K54" s="3">
         <v>137200</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="E58" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>11300</v>
+        <v>11200</v>
       </c>
       <c r="H58" s="3">
-        <v>11200</v>
+        <v>11100</v>
       </c>
       <c r="I58" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="J58" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="K58" s="3">
         <v>34000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20800</v>
+        <v>20600</v>
       </c>
       <c r="E59" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="F59" s="3">
-        <v>23100</v>
+        <v>22800</v>
       </c>
       <c r="G59" s="3">
-        <v>21900</v>
+        <v>21600</v>
       </c>
       <c r="H59" s="3">
-        <v>48500</v>
+        <v>48000</v>
       </c>
       <c r="I59" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="J59" s="3">
-        <v>53600</v>
+        <v>53000</v>
       </c>
       <c r="K59" s="3">
         <v>51300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>42100</v>
+        <v>41600</v>
       </c>
       <c r="E60" s="3">
-        <v>41100</v>
+        <v>40700</v>
       </c>
       <c r="F60" s="3">
-        <v>25400</v>
+        <v>25200</v>
       </c>
       <c r="G60" s="3">
-        <v>35600</v>
+        <v>35200</v>
       </c>
       <c r="H60" s="3">
-        <v>62100</v>
+        <v>61400</v>
       </c>
       <c r="I60" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="J60" s="3">
-        <v>88300</v>
+        <v>87400</v>
       </c>
       <c r="K60" s="3">
         <v>88300</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2717,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="J61" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K61" s="3">
         <v>5700</v>
@@ -2744,7 +2744,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E62" s="3">
         <v>2600</v>
@@ -2756,13 +2756,13 @@
         <v>4100</v>
       </c>
       <c r="H62" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I62" s="3">
         <v>2900</v>
       </c>
       <c r="J62" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="K62" s="3">
         <v>2800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="E66" s="3">
-        <v>37300</v>
+        <v>36900</v>
       </c>
       <c r="F66" s="3">
-        <v>47700</v>
+        <v>47200</v>
       </c>
       <c r="G66" s="3">
-        <v>40800</v>
+        <v>40300</v>
       </c>
       <c r="H66" s="3">
-        <v>65300</v>
+        <v>64700</v>
       </c>
       <c r="I66" s="3">
-        <v>30400</v>
+        <v>30100</v>
       </c>
       <c r="J66" s="3">
-        <v>100600</v>
+        <v>99600</v>
       </c>
       <c r="K66" s="3">
         <v>103700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-94300</v>
+        <v>-93400</v>
       </c>
       <c r="E72" s="3">
-        <v>-93400</v>
+        <v>-92500</v>
       </c>
       <c r="F72" s="3">
-        <v>-80300</v>
+        <v>-79500</v>
       </c>
       <c r="G72" s="3">
-        <v>-68100</v>
+        <v>-67400</v>
       </c>
       <c r="H72" s="3">
-        <v>-59100</v>
+        <v>-58500</v>
       </c>
       <c r="I72" s="3">
-        <v>-37100</v>
+        <v>-36700</v>
       </c>
       <c r="J72" s="3">
-        <v>-26200</v>
+        <v>-25900</v>
       </c>
       <c r="K72" s="3">
         <v>-16300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-19200</v>
+        <v>-19000</v>
       </c>
       <c r="E76" s="3">
-        <v>-20200</v>
+        <v>-20000</v>
       </c>
       <c r="F76" s="3">
-        <v>-11100</v>
+        <v>-11000</v>
       </c>
       <c r="G76" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="H76" s="3">
         <v>-3500</v>
       </c>
       <c r="I76" s="3">
-        <v>16100</v>
+        <v>16000</v>
       </c>
       <c r="J76" s="3">
-        <v>25900</v>
+        <v>25600</v>
       </c>
       <c r="K76" s="3">
         <v>33600</v>
@@ -3442,22 +3442,22 @@
         <v>-900</v>
       </c>
       <c r="E81" s="3">
-        <v>-13100</v>
+        <v>-13000</v>
       </c>
       <c r="F81" s="3">
-        <v>-12200</v>
+        <v>-12100</v>
       </c>
       <c r="G81" s="3">
-        <v>-8900</v>
+        <v>-8800</v>
       </c>
       <c r="H81" s="3">
-        <v>-22100</v>
+        <v>-21800</v>
       </c>
       <c r="I81" s="3">
-        <v>-11100</v>
+        <v>-10900</v>
       </c>
       <c r="J81" s="3">
-        <v>-9400</v>
+        <v>-9300</v>
       </c>
       <c r="K81" s="3">
         <v>-1900</v>
@@ -3511,13 +3511,13 @@
         <v>2000</v>
       </c>
       <c r="H83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I83" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="J83" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K83" s="3">
         <v>4300</v>
@@ -3754,22 +3754,22 @@
         <v>500</v>
       </c>
       <c r="E89" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="F89" s="3">
         <v>-800</v>
       </c>
       <c r="G89" s="3">
-        <v>-8600</v>
+        <v>-8500</v>
       </c>
       <c r="H89" s="3">
         <v>-1400</v>
       </c>
       <c r="I89" s="3">
-        <v>-17300</v>
+        <v>-17100</v>
       </c>
       <c r="J89" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="K89" s="3">
         <v>7300</v>
@@ -3829,7 +3829,7 @@
         <v>-400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K91" s="3">
         <v>-2100</v>
@@ -3943,7 +3943,7 @@
         <v>-200</v>
       </c>
       <c r="F94" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4171,19 +4171,19 @@
         <v>2800</v>
       </c>
       <c r="F100" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="G100" s="3">
         <v>9000</v>
       </c>
       <c r="H100" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="I100" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="J100" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="K100" s="3">
         <v>-1300</v>
@@ -4255,7 +4255,7 @@
         <v>-1000</v>
       </c>
       <c r="F102" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G102" s="3">
         <v>200</v>
@@ -4264,10 +4264,10 @@
         <v>-200</v>
       </c>
       <c r="I102" s="3">
-        <v>-7400</v>
+        <v>-7300</v>
       </c>
       <c r="J102" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K102" s="3">
         <v>2800</v>

--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -726,16 +726,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="E8" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="F8" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="G8" s="3">
-        <v>13100</v>
+        <v>12700</v>
       </c>
       <c r="H8" s="3">
         <v>1800</v>
@@ -768,16 +768,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="E9" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="F9" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="G9" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="H9" s="3">
         <v>1000</v>
@@ -810,7 +810,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E10" s="3">
         <v>1800</v>
@@ -870,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="3">
         <v>300</v>
@@ -879,16 +879,16 @@
         <v>600</v>
       </c>
       <c r="G12" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H12" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="I12" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="J12" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="K12" s="3">
         <v>6800</v>
@@ -957,19 +957,19 @@
         <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="F14" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G14" s="3">
         <v>600</v>
       </c>
       <c r="H14" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="E17" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="F17" s="3">
-        <v>21300</v>
+        <v>20700</v>
       </c>
       <c r="G17" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="H17" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="I17" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="J17" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="K17" s="3">
         <v>52200</v>
@@ -1098,22 +1098,22 @@
         <v>-2200</v>
       </c>
       <c r="E18" s="3">
-        <v>-20500</v>
+        <v>-19800</v>
       </c>
       <c r="F18" s="3">
-        <v>-13900</v>
+        <v>-13400</v>
       </c>
       <c r="G18" s="3">
-        <v>-8700</v>
+        <v>-8500</v>
       </c>
       <c r="H18" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="I18" s="3">
-        <v>-16200</v>
+        <v>-15700</v>
       </c>
       <c r="J18" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="K18" s="3">
         <v>200</v>
@@ -1155,10 +1155,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E20" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
@@ -1167,7 +1167,7 @@
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>-12300</v>
+        <v>-11900</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E21" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H21" s="3">
         <v>-15600</v>
       </c>
-      <c r="F21" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-16100</v>
-      </c>
       <c r="I21" s="3">
-        <v>-12100</v>
+        <v>-11700</v>
       </c>
       <c r="J21" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="K21" s="3">
         <v>4500</v>
@@ -1239,7 +1239,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E22" s="3">
         <v>1200</v>
@@ -1248,16 +1248,16 @@
         <v>800</v>
       </c>
       <c r="G22" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H22" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K22" s="3">
         <v>2600</v>
@@ -1284,22 +1284,22 @@
         <v>300</v>
       </c>
       <c r="E23" s="3">
-        <v>-18000</v>
+        <v>-17500</v>
       </c>
       <c r="F23" s="3">
-        <v>-14600</v>
+        <v>-14100</v>
       </c>
       <c r="G23" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="H23" s="3">
-        <v>-21700</v>
+        <v>-21100</v>
       </c>
       <c r="I23" s="3">
-        <v>-17300</v>
+        <v>-16800</v>
       </c>
       <c r="J23" s="3">
-        <v>-10400</v>
+        <v>-10100</v>
       </c>
       <c r="K23" s="3">
         <v>-2300</v>
@@ -1410,22 +1410,22 @@
         <v>300</v>
       </c>
       <c r="E26" s="3">
-        <v>-18100</v>
+        <v>-17500</v>
       </c>
       <c r="F26" s="3">
-        <v>-14600</v>
+        <v>-14200</v>
       </c>
       <c r="G26" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="H26" s="3">
-        <v>-21700</v>
+        <v>-21100</v>
       </c>
       <c r="I26" s="3">
-        <v>-17300</v>
+        <v>-16800</v>
       </c>
       <c r="J26" s="3">
-        <v>-10400</v>
+        <v>-10100</v>
       </c>
       <c r="K26" s="3">
         <v>-2500</v>
@@ -1452,22 +1452,22 @@
         <v>-900</v>
       </c>
       <c r="E27" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="F27" s="3">
-        <v>-12100</v>
+        <v>-11700</v>
       </c>
       <c r="G27" s="3">
-        <v>-8800</v>
+        <v>-8600</v>
       </c>
       <c r="H27" s="3">
-        <v>-21800</v>
+        <v>-21200</v>
       </c>
       <c r="I27" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="J27" s="3">
-        <v>-8800</v>
+        <v>-8500</v>
       </c>
       <c r="K27" s="3">
         <v>-1900</v>
@@ -1659,10 +1659,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="E32" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
@@ -1671,7 +1671,7 @@
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
@@ -1704,22 +1704,22 @@
         <v>-900</v>
       </c>
       <c r="E33" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="F33" s="3">
-        <v>-12100</v>
+        <v>-11700</v>
       </c>
       <c r="G33" s="3">
-        <v>-8800</v>
+        <v>-8600</v>
       </c>
       <c r="H33" s="3">
-        <v>-21800</v>
+        <v>-21200</v>
       </c>
       <c r="I33" s="3">
-        <v>-10900</v>
+        <v>-10600</v>
       </c>
       <c r="J33" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="K33" s="3">
         <v>-1900</v>
@@ -1788,22 +1788,22 @@
         <v>-900</v>
       </c>
       <c r="E35" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="F35" s="3">
-        <v>-12100</v>
+        <v>-11700</v>
       </c>
       <c r="G35" s="3">
-        <v>-8800</v>
+        <v>-8600</v>
       </c>
       <c r="H35" s="3">
-        <v>-21800</v>
+        <v>-21200</v>
       </c>
       <c r="I35" s="3">
-        <v>-10900</v>
+        <v>-10600</v>
       </c>
       <c r="J35" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="K35" s="3">
         <v>-1900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E41" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F41" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H41" s="3">
         <v>300</v>
       </c>
       <c r="I41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J41" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="K41" s="3">
         <v>9200</v>
@@ -1994,22 +1994,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4100</v>
       </c>
-      <c r="E43" s="3">
-        <v>4200</v>
-      </c>
       <c r="F43" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G43" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="H43" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="I43" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2045,16 +2045,16 @@
         <v>1900</v>
       </c>
       <c r="G44" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="H44" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>52300</v>
+        <v>50700</v>
       </c>
       <c r="K44" s="3">
         <v>61200</v>
@@ -2078,7 +2078,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="E45" s="3">
         <v>1300</v>
@@ -2093,10 +2093,10 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="J45" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="K45" s="3">
         <v>5000</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="E46" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="F46" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="G46" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="H46" s="3">
-        <v>30500</v>
+        <v>29600</v>
       </c>
       <c r="I46" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="J46" s="3">
-        <v>68000</v>
+        <v>65900</v>
       </c>
       <c r="K46" s="3">
         <v>75700</v>
@@ -2165,10 +2165,10 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F47" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="G47" s="3">
         <v>2300</v>
@@ -2177,10 +2177,10 @@
         <v>2300</v>
       </c>
       <c r="I47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K47" s="3">
         <v>2600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="E48" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="F48" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="G48" s="3">
-        <v>21200</v>
+        <v>20500</v>
       </c>
       <c r="H48" s="3">
-        <v>24600</v>
+        <v>23800</v>
       </c>
       <c r="I48" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="J48" s="3">
-        <v>44600</v>
+        <v>43200</v>
       </c>
       <c r="K48" s="3">
         <v>45200</v>
@@ -2252,19 +2252,19 @@
         <v>800</v>
       </c>
       <c r="F49" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G49" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H49" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I49" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J49" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="K49" s="3">
         <v>10500</v>
@@ -2387,7 +2387,7 @@
         <v>200</v>
       </c>
       <c r="I52" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19300</v>
+        <v>18700</v>
       </c>
       <c r="E54" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="F54" s="3">
-        <v>36200</v>
+        <v>35100</v>
       </c>
       <c r="G54" s="3">
-        <v>37100</v>
+        <v>36000</v>
       </c>
       <c r="H54" s="3">
-        <v>61100</v>
+        <v>59300</v>
       </c>
       <c r="I54" s="3">
-        <v>46100</v>
+        <v>44700</v>
       </c>
       <c r="J54" s="3">
-        <v>125200</v>
+        <v>121300</v>
       </c>
       <c r="K54" s="3">
         <v>137200</v>
@@ -2537,22 +2537,22 @@
         <v>1500</v>
       </c>
       <c r="E57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G57" s="3">
         <v>2300</v>
       </c>
-      <c r="F57" s="3">
-        <v>2300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2400</v>
-      </c>
       <c r="H57" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="E58" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>11200</v>
+        <v>10800</v>
       </c>
       <c r="H58" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="I58" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="J58" s="3">
-        <v>30900</v>
+        <v>29900</v>
       </c>
       <c r="K58" s="3">
         <v>34000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20600</v>
+        <v>19900</v>
       </c>
       <c r="E59" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="F59" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="G59" s="3">
-        <v>21600</v>
+        <v>21000</v>
       </c>
       <c r="H59" s="3">
-        <v>48000</v>
+        <v>46600</v>
       </c>
       <c r="I59" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="J59" s="3">
-        <v>53000</v>
+        <v>51400</v>
       </c>
       <c r="K59" s="3">
         <v>51300</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>41600</v>
+        <v>40400</v>
       </c>
       <c r="E60" s="3">
-        <v>40700</v>
+        <v>39500</v>
       </c>
       <c r="F60" s="3">
-        <v>25200</v>
+        <v>24400</v>
       </c>
       <c r="G60" s="3">
-        <v>35200</v>
+        <v>34100</v>
       </c>
       <c r="H60" s="3">
-        <v>61400</v>
+        <v>59500</v>
       </c>
       <c r="I60" s="3">
-        <v>19100</v>
+        <v>18500</v>
       </c>
       <c r="J60" s="3">
-        <v>87400</v>
+        <v>84700</v>
       </c>
       <c r="K60" s="3">
         <v>88300</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="J61" s="3">
         <v>2800</v>
@@ -2747,22 +2747,22 @@
         <v>2200</v>
       </c>
       <c r="E62" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="F62" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="G62" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H62" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I62" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J62" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="K62" s="3">
         <v>2800</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38400</v>
+        <v>37200</v>
       </c>
       <c r="E66" s="3">
-        <v>36900</v>
+        <v>35800</v>
       </c>
       <c r="F66" s="3">
-        <v>47200</v>
+        <v>45800</v>
       </c>
       <c r="G66" s="3">
-        <v>40300</v>
+        <v>39100</v>
       </c>
       <c r="H66" s="3">
-        <v>64700</v>
+        <v>62700</v>
       </c>
       <c r="I66" s="3">
-        <v>30100</v>
+        <v>29200</v>
       </c>
       <c r="J66" s="3">
-        <v>99600</v>
+        <v>96500</v>
       </c>
       <c r="K66" s="3">
         <v>103700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-93400</v>
+        <v>-90500</v>
       </c>
       <c r="E72" s="3">
-        <v>-92500</v>
+        <v>-89600</v>
       </c>
       <c r="F72" s="3">
-        <v>-79500</v>
+        <v>-77000</v>
       </c>
       <c r="G72" s="3">
-        <v>-67400</v>
+        <v>-65300</v>
       </c>
       <c r="H72" s="3">
-        <v>-58500</v>
+        <v>-56700</v>
       </c>
       <c r="I72" s="3">
-        <v>-36700</v>
+        <v>-35600</v>
       </c>
       <c r="J72" s="3">
-        <v>-25900</v>
+        <v>-25100</v>
       </c>
       <c r="K72" s="3">
         <v>-16300</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-19000</v>
+        <v>-18400</v>
       </c>
       <c r="E76" s="3">
-        <v>-20000</v>
+        <v>-19400</v>
       </c>
       <c r="F76" s="3">
-        <v>-11000</v>
+        <v>-10600</v>
       </c>
       <c r="G76" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="H76" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="I76" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="J76" s="3">
-        <v>25600</v>
+        <v>24800</v>
       </c>
       <c r="K76" s="3">
         <v>33600</v>
@@ -3442,22 +3442,22 @@
         <v>-900</v>
       </c>
       <c r="E81" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="F81" s="3">
-        <v>-12100</v>
+        <v>-11700</v>
       </c>
       <c r="G81" s="3">
-        <v>-8800</v>
+        <v>-8600</v>
       </c>
       <c r="H81" s="3">
-        <v>-21800</v>
+        <v>-21200</v>
       </c>
       <c r="I81" s="3">
-        <v>-10900</v>
+        <v>-10600</v>
       </c>
       <c r="J81" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="K81" s="3">
         <v>-1900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F83" s="3">
         <v>1500</v>
       </c>
       <c r="G83" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H83" s="3">
         <v>2300</v>
       </c>
       <c r="I83" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="J83" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="K83" s="3">
         <v>4300</v>
@@ -3754,22 +3754,22 @@
         <v>500</v>
       </c>
       <c r="E89" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="F89" s="3">
         <v>-800</v>
       </c>
       <c r="G89" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="H89" s="3">
         <v>-1400</v>
       </c>
       <c r="I89" s="3">
-        <v>-17100</v>
+        <v>-16600</v>
       </c>
       <c r="J89" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="K89" s="3">
         <v>7300</v>
@@ -3943,16 +3943,16 @@
         <v>-200</v>
       </c>
       <c r="F94" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="I94" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J94" s="3">
         <v>-900</v>
@@ -4168,22 +4168,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F100" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="G100" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="H100" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="I100" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="J100" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="K100" s="3">
         <v>-1300</v>
@@ -4264,7 +4264,7 @@
         <v>-200</v>
       </c>
       <c r="I102" s="3">
-        <v>-7300</v>
+        <v>-7100</v>
       </c>
       <c r="J102" s="3">
         <v>-1600</v>

--- a/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SEED_YR_FIN.xlsx
@@ -726,16 +726,16 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="E8" s="3">
         <v>6400</v>
       </c>
       <c r="F8" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G8" s="3">
-        <v>12700</v>
+        <v>12800</v>
       </c>
       <c r="H8" s="3">
         <v>1800</v>
@@ -957,7 +957,7 @@
         <v>400</v>
       </c>
       <c r="E14" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="F14" s="3">
         <v>4700</v>
@@ -966,7 +966,7 @@
         <v>600</v>
       </c>
       <c r="H14" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I14" s="3">
         <v>6200</v>
@@ -1056,13 +1056,13 @@
         <v>9400</v>
       </c>
       <c r="E17" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="F17" s="3">
         <v>20700</v>
       </c>
       <c r="G17" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="H17" s="3">
         <v>7800</v>
@@ -1098,10 +1098,10 @@
         <v>-2200</v>
       </c>
       <c r="E18" s="3">
-        <v>-19800</v>
+        <v>-19900</v>
       </c>
       <c r="F18" s="3">
-        <v>-13400</v>
+        <v>-13500</v>
       </c>
       <c r="G18" s="3">
         <v>-8500</v>
@@ -1110,7 +1110,7 @@
         <v>-6000</v>
       </c>
       <c r="I18" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="J18" s="3">
         <v>-9000</v>
@@ -1209,10 +1209,10 @@
         <v>-6400</v>
       </c>
       <c r="H21" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="I21" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="J21" s="3">
         <v>-4700</v>
@@ -1257,7 +1257,7 @@
         <v>1200</v>
       </c>
       <c r="J22" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="K22" s="3">
         <v>2600</v>
@@ -1416,7 +1416,7 @@
         <v>-14200</v>
       </c>
       <c r="G26" s="3">
-        <v>-9000</v>
+        <v>-9100</v>
       </c>
       <c r="H26" s="3">
         <v>-21100</v>
@@ -1455,7 +1455,7 @@
         <v>-12600</v>
       </c>
       <c r="F27" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="G27" s="3">
         <v>-8600</v>
@@ -1707,7 +1707,7 @@
         <v>-12600</v>
       </c>
       <c r="F33" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="G33" s="3">
         <v>-8600</v>
@@ -1719,7 +1719,7 @@
         <v>-10600</v>
       </c>
       <c r="J33" s="3">
-        <v>-9000</v>
+        <v>-9100</v>
       </c>
       <c r="K33" s="3">
         <v>-1900</v>
@@ -1791,7 +1791,7 @@
         <v>-12600</v>
       </c>
       <c r="F35" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="G35" s="3">
         <v>-8600</v>
@@ -1803,7 +1803,7 @@
         <v>-10600</v>
       </c>
       <c r="J35" s="3">
-        <v>-9000</v>
+        <v>-9100</v>
       </c>
       <c r="K35" s="3">
         <v>-1900</v>
@@ -2006,7 +2006,7 @@
         <v>4900</v>
       </c>
       <c r="H43" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="I43" s="3">
         <v>7700</v>
@@ -2054,7 +2054,7 @@
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>50700</v>
+        <v>50800</v>
       </c>
       <c r="K44" s="3">
         <v>61200</v>
@@ -2078,7 +2078,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E45" s="3">
         <v>1300</v>
@@ -2093,7 +2093,7 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="J45" s="3">
         <v>7600</v>
@@ -2120,7 +2120,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="E46" s="3">
         <v>8000</v>
@@ -2129,16 +2129,16 @@
         <v>8900</v>
       </c>
       <c r="G46" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="H46" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="I46" s="3">
         <v>12300</v>
       </c>
       <c r="J46" s="3">
-        <v>65900</v>
+        <v>66000</v>
       </c>
       <c r="K46" s="3">
         <v>75700</v>
@@ -2168,7 +2168,7 @@
         <v>600</v>
       </c>
       <c r="F47" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G47" s="3">
         <v>2300</v>
@@ -2210,19 +2210,19 @@
         <v>7000</v>
       </c>
       <c r="F48" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="G48" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="H48" s="3">
-        <v>23800</v>
+        <v>23900</v>
       </c>
       <c r="I48" s="3">
         <v>20000</v>
       </c>
       <c r="J48" s="3">
-        <v>43200</v>
+        <v>43300</v>
       </c>
       <c r="K48" s="3">
         <v>45200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="E54" s="3">
         <v>16400</v>
       </c>
       <c r="F54" s="3">
-        <v>35100</v>
+        <v>35200</v>
       </c>
       <c r="G54" s="3">
-        <v>36000</v>
+        <v>36100</v>
       </c>
       <c r="H54" s="3">
-        <v>59300</v>
+        <v>59400</v>
       </c>
       <c r="I54" s="3">
-        <v>44700</v>
+        <v>44800</v>
       </c>
       <c r="J54" s="3">
-        <v>121300</v>
+        <v>121600</v>
       </c>
       <c r="K54" s="3">
         <v>137200</v>
@@ -2552,7 +2552,7 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="H58" s="3">
         <v>10800</v>
@@ -2594,7 +2594,7 @@
         <v>7000</v>
       </c>
       <c r="J58" s="3">
-        <v>29900</v>
+        <v>30000</v>
       </c>
       <c r="K58" s="3">
         <v>34000</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="E59" s="3">
         <v>18300</v>
       </c>
       <c r="F59" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="G59" s="3">
         <v>21000</v>
       </c>
       <c r="H59" s="3">
-        <v>46600</v>
+        <v>46700</v>
       </c>
       <c r="I59" s="3">
         <v>11300</v>
       </c>
       <c r="J59" s="3">
-        <v>51400</v>
+        <v>51500</v>
       </c>
       <c r="K59" s="3">
         <v>51300</v>
@@ -2669,16 +2669,16 @@
         <v>24400</v>
       </c>
       <c r="G60" s="3">
-        <v>34100</v>
+        <v>34200</v>
       </c>
       <c r="H60" s="3">
-        <v>59500</v>
+        <v>59700</v>
       </c>
       <c r="I60" s="3">
         <v>18500</v>
       </c>
       <c r="J60" s="3">
-        <v>84700</v>
+        <v>84900</v>
       </c>
       <c r="K60" s="3">
         <v>88300</v>
@@ -2750,7 +2750,7 @@
         <v>2500</v>
       </c>
       <c r="F62" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G62" s="3">
         <v>4000</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37200</v>
+        <v>37300</v>
       </c>
       <c r="E66" s="3">
-        <v>35800</v>
+        <v>35900</v>
       </c>
       <c r="F66" s="3">
-        <v>45800</v>
+        <v>45900</v>
       </c>
       <c r="G66" s="3">
-        <v>39100</v>
+        <v>39200</v>
       </c>
       <c r="H66" s="3">
-        <v>62700</v>
+        <v>62800</v>
       </c>
       <c r="I66" s="3">
         <v>29200</v>
       </c>
       <c r="J66" s="3">
-        <v>96500</v>
+        <v>96700</v>
       </c>
       <c r="K66" s="3">
         <v>103700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-90500</v>
+        <v>-90700</v>
       </c>
       <c r="E72" s="3">
-        <v>-89600</v>
+        <v>-89800</v>
       </c>
       <c r="F72" s="3">
-        <v>-77000</v>
+        <v>-77200</v>
       </c>
       <c r="G72" s="3">
-        <v>-65300</v>
+        <v>-65400</v>
       </c>
       <c r="H72" s="3">
-        <v>-56700</v>
+        <v>-56900</v>
       </c>
       <c r="I72" s="3">
         <v>-35600</v>
       </c>
       <c r="J72" s="3">
-        <v>-25100</v>
+        <v>-25200</v>
       </c>
       <c r="K72" s="3">
         <v>-16300</v>
@@ -3308,13 +3308,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18400</v>
+        <v>-18500</v>
       </c>
       <c r="E76" s="3">
         <v>-19400</v>
       </c>
       <c r="F76" s="3">
-        <v>-10600</v>
+        <v>-10700</v>
       </c>
       <c r="G76" s="3">
         <v>-3100</v>
@@ -3326,7 +3326,7 @@
         <v>15500</v>
       </c>
       <c r="J76" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="K76" s="3">
         <v>33600</v>
@@ -3445,7 +3445,7 @@
         <v>-12600</v>
       </c>
       <c r="F81" s="3">
-        <v>-11700</v>
+        <v>-11800</v>
       </c>
       <c r="G81" s="3">
         <v>-8600</v>
@@ -3457,7 +3457,7 @@
         <v>-10600</v>
       </c>
       <c r="J81" s="3">
-        <v>-9000</v>
+        <v>-9100</v>
       </c>
       <c r="K81" s="3">
         <v>-1900</v>
